--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>_ID</t>
   </si>
@@ -153,7 +153,7 @@
     <t>词条名字</t>
   </si>
   <si>
-    <t>#说明</t>
+    <t>套装ID</t>
   </si>
   <si>
     <t>技能描述</t>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>SuitId</t>
   </si>
   <si>
     <t>Des</t>
@@ -1228,12 +1231,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P10"/>
+  <dimension ref="C3:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1305,78 +1308,82 @@
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="3:16">
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:16">
@@ -1387,10 +1394,13 @@
         <v>2001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20011</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1">
         <v>99</v>
@@ -1404,7 +1414,6 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1">
         <v>0</v>
       </c>
@@ -1426,10 +1435,13 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20011</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -1464,10 +1476,13 @@
         <v>2001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20011</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1502,10 +1517,13 @@
         <v>2001</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20011</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
@@ -1540,10 +1558,13 @@
         <v>2001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20011</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1">
         <v>99</v>
@@ -1567,6 +1588,211 @@
         <v>100</v>
       </c>
       <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="3:16">
+      <c r="C11" s="1">
+        <v>20021</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20012</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>99</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="3:16">
+      <c r="C12" s="1">
+        <v>20022</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20012</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="3:16">
+      <c r="C13" s="1">
+        <v>20023</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20012</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="3:16">
+      <c r="C14" s="1">
+        <v>20024</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20012</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="3:16">
+      <c r="C15" s="1">
+        <v>20025</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20012</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1">
+        <v>99</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>_ID</t>
   </si>
@@ -237,31 +237,121 @@
     <t>火球·狂暴</t>
   </si>
   <si>
-    <t>增加火球20%伤害系数，无上限</t>
+    <t>火球术增加20%伤害系数，无上限</t>
   </si>
   <si>
     <t>火球·多重</t>
   </si>
   <si>
-    <t>增加火球术一个攻击目标，最多生效3个</t>
+    <t>火球术增加一个攻击目标，最多生效3个</t>
   </si>
   <si>
     <t>火球·急速</t>
   </si>
   <si>
-    <t>增加火球术1秒CD时间，最多生效1个</t>
+    <t>火球术减少1秒CD时间，最多生效1个</t>
   </si>
   <si>
     <t>火球·灼烧</t>
   </si>
   <si>
-    <t>火球术增加烧伤伤害，灼烧系数为80%,最多叠加3重</t>
+    <t>火球术增加灼烧效果，灼烧系数为80%,最多叠加3重</t>
   </si>
   <si>
     <t>火球·固伤</t>
   </si>
   <si>
-    <t>增加火球术100点固定伤害，无上限</t>
+    <t>火球术增加100点固定伤害，无上限</t>
+  </si>
+  <si>
+    <t>雷电·狂暴</t>
+  </si>
+  <si>
+    <t>雷电术增加20%伤害系数，无上限</t>
+  </si>
+  <si>
+    <t>雷电·多重</t>
+  </si>
+  <si>
+    <t>雷电术增加一个攻击目标，最多生效3个</t>
+  </si>
+  <si>
+    <t>雷电·急速</t>
+  </si>
+  <si>
+    <t>雷电术减少1秒CD时间，最多生效1个</t>
+  </si>
+  <si>
+    <t>雷电·弱化</t>
+  </si>
+  <si>
+    <t>雷电术增加弱化特效，减少对方50%伤害，持续3回合</t>
+  </si>
+  <si>
+    <t>雷电·固伤</t>
+  </si>
+  <si>
+    <t>雷电术增加100点固定伤害，无上限</t>
+  </si>
+  <si>
+    <t>基础剑术·狂暴</t>
+  </si>
+  <si>
+    <t>增加20%伤害系数，无上限</t>
+  </si>
+  <si>
+    <t>基础剑术·固伤</t>
+  </si>
+  <si>
+    <t>增加100点固定伤害，无上限</t>
+  </si>
+  <si>
+    <t>基础剑术·流血</t>
+  </si>
+  <si>
+    <t>增加流血效果，最多叠加3重</t>
+  </si>
+  <si>
+    <t>基础剑术·急速</t>
+  </si>
+  <si>
+    <t>减少雷电术1秒CD时间，最多生效1个</t>
+  </si>
+  <si>
+    <t>基础剑术·暴击</t>
+  </si>
+  <si>
+    <t>使用基础剑术的时候，额外增加20%暴击率，无上限</t>
+  </si>
+  <si>
+    <t>火符·狂暴</t>
+  </si>
+  <si>
+    <t>火符增加20%伤害系数，无上限</t>
+  </si>
+  <si>
+    <t>火符·固伤</t>
+  </si>
+  <si>
+    <t>火符增加100点固定伤害，无上限</t>
+  </si>
+  <si>
+    <t>火符·中毒</t>
+  </si>
+  <si>
+    <t>火符增加中毒效果，每秒造成80%道术伤害，持续5回合</t>
+  </si>
+  <si>
+    <t>火符·急速</t>
+  </si>
+  <si>
+    <t>火符减少1秒CD时间，最多生效1个</t>
+  </si>
+  <si>
+    <t>火符·回复</t>
+  </si>
+  <si>
+    <t>回复道术10%的生命，可无限叠加</t>
   </si>
 </sst>
 </file>
@@ -1231,19 +1321,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P15"/>
+  <dimension ref="C3:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
@@ -1485,7 +1576,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1596,16 +1687,16 @@
         <v>20021</v>
       </c>
       <c r="D11" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1">
-        <v>20012</v>
+        <v>20021</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1">
         <v>99</v>
@@ -1637,16 +1728,16 @@
         <v>20022</v>
       </c>
       <c r="D12" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
-        <v>20012</v>
+        <v>20021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1678,16 +1769,16 @@
         <v>20023</v>
       </c>
       <c r="D13" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1">
-        <v>20012</v>
+        <v>20021</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1719,19 +1810,19 @@
         <v>20024</v>
       </c>
       <c r="D14" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1">
-        <v>20012</v>
+        <v>20021</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1752,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="3:16">
@@ -1760,16 +1851,16 @@
         <v>20025</v>
       </c>
       <c r="D15" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1">
-        <v>20012</v>
+        <v>20021</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1">
         <v>99</v>
@@ -1794,6 +1885,416 @@
       </c>
       <c r="P15" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="2">
+        <v>10011</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10011</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2">
+        <v>99</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>20</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="2">
+        <v>10012</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10011</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2">
+        <v>99</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18" s="2">
+        <v>10013</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10011</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="2">
+        <v>10014</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10011</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="2">
+        <v>10015</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10011</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>20</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="C21" s="2">
+        <v>30011</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30011</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="2">
+        <v>99</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="C22" s="2">
+        <v>30012</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2">
+        <v>30011</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="2">
+        <v>99</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>100</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23" s="2">
+        <v>30013</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2">
+        <v>30011</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>80</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="C24" s="2">
+        <v>30014</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2">
+        <v>30011</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25" s="2">
+        <v>30015</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3001</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="2">
+        <v>30011</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="2">
+        <v>99</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>_ID</t>
   </si>
@@ -183,6 +183,15 @@
     <t>固定伤害</t>
   </si>
   <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击倍率</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
     <t>附带效果</t>
   </si>
   <si>
@@ -223,6 +232,15 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
+    <t>DamageIncrea</t>
   </si>
   <si>
     <t>EffectId</t>
@@ -530,12 +548,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1321,12 +1339,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:P25"/>
+  <dimension ref="C3:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1334,18 +1352,18 @@
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="2" customWidth="1"/>
+    <col min="15" max="18" width="7.875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16">
+    <row r="3" spans="3:19">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1388,96 +1406,123 @@
       <c r="P3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="3:16">
+    <row r="4" spans="3:19">
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:16">
+    <row r="5" spans="3:19">
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:16">
+    <row r="6" s="1" customFormat="1" spans="3:19">
       <c r="C6" s="1">
         <v>20011</v>
       </c>
@@ -1485,13 +1530,13 @@
         <v>2001</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
         <v>20011</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1">
         <v>99</v>
@@ -1517,8 +1562,17 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:16">
+    <row r="7" s="1" customFormat="1" spans="3:19">
       <c r="C7" s="1">
         <v>20012</v>
       </c>
@@ -1526,13 +1580,13 @@
         <v>2001</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
         <v>20011</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -1558,8 +1612,17 @@
       <c r="P7" s="1">
         <v>0</v>
       </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:16">
+    <row r="8" s="1" customFormat="1" spans="3:19">
       <c r="C8" s="1">
         <v>20013</v>
       </c>
@@ -1567,13 +1630,13 @@
         <v>2001</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1">
         <v>20011</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -1599,8 +1662,17 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:16">
+    <row r="9" s="1" customFormat="1" spans="3:19">
       <c r="C9" s="1">
         <v>20014</v>
       </c>
@@ -1608,13 +1680,13 @@
         <v>2001</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1">
         <v>20011</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
@@ -1638,10 +1710,19 @@
         <v>0</v>
       </c>
       <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:16">
+    <row r="10" s="1" customFormat="1" spans="3:19">
       <c r="C10" s="1">
         <v>20015</v>
       </c>
@@ -1649,13 +1730,13 @@
         <v>2001</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
         <v>20011</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1">
         <v>99</v>
@@ -1681,8 +1762,17 @@
       <c r="P10" s="1">
         <v>0</v>
       </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:16">
+    <row r="11" s="1" customFormat="1" spans="3:19">
       <c r="C11" s="1">
         <v>20021</v>
       </c>
@@ -1690,13 +1780,13 @@
         <v>2002</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1">
         <v>20021</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1">
         <v>99</v>
@@ -1722,8 +1812,17 @@
       <c r="P11" s="1">
         <v>0</v>
       </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:16">
+    <row r="12" s="1" customFormat="1" spans="3:19">
       <c r="C12" s="1">
         <v>20022</v>
       </c>
@@ -1731,13 +1830,13 @@
         <v>2002</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1">
         <v>20021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1763,8 +1862,17 @@
       <c r="P12" s="1">
         <v>0</v>
       </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:16">
+    <row r="13" s="1" customFormat="1" spans="3:19">
       <c r="C13" s="1">
         <v>20023</v>
       </c>
@@ -1772,13 +1880,13 @@
         <v>2002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1">
         <v>20021</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1804,8 +1912,17 @@
       <c r="P13" s="1">
         <v>0</v>
       </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:16">
+    <row r="14" s="1" customFormat="1" spans="3:19">
       <c r="C14" s="1">
         <v>20024</v>
       </c>
@@ -1813,13 +1930,13 @@
         <v>2002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>20021</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1843,10 +1960,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>1202</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:16">
+    <row r="15" s="1" customFormat="1" spans="3:19">
       <c r="C15" s="1">
         <v>20025</v>
       </c>
@@ -1854,13 +1980,13 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <v>20021</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1">
         <v>99</v>
@@ -1886,8 +2012,17 @@
       <c r="P15" s="1">
         <v>0</v>
       </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="3:16">
+    <row r="16" spans="3:19">
       <c r="C16" s="2">
         <v>10011</v>
       </c>
@@ -1895,13 +2030,13 @@
         <v>1001</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2">
         <v>10011</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2">
         <v>99</v>
@@ -1927,8 +2062,17 @@
       <c r="P16" s="1">
         <v>0</v>
       </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="3:16">
+    <row r="17" spans="3:19">
       <c r="C17" s="2">
         <v>10012</v>
       </c>
@@ -1936,13 +2080,13 @@
         <v>1001</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2">
         <v>10011</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2">
         <v>99</v>
@@ -1968,8 +2112,17 @@
       <c r="P17" s="1">
         <v>0</v>
       </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="3:16">
+    <row r="18" spans="3:19">
       <c r="C18" s="2">
         <v>10013</v>
       </c>
@@ -1977,13 +2130,13 @@
         <v>1001</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2">
         <v>10011</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
@@ -2009,8 +2162,17 @@
       <c r="P18" s="1">
         <v>0</v>
       </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="3:16">
+    <row r="19" spans="3:19">
       <c r="C19" s="2">
         <v>10014</v>
       </c>
@@ -2018,13 +2180,13 @@
         <v>1001</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2">
         <v>10011</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -2050,8 +2212,17 @@
       <c r="P19" s="1">
         <v>0</v>
       </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="3:16">
+    <row r="20" spans="3:19">
       <c r="C20" s="2">
         <v>10015</v>
       </c>
@@ -2059,13 +2230,13 @@
         <v>1001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2">
         <v>10011</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H20" s="2">
         <v>5</v>
@@ -2088,11 +2259,20 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <v>801</v>
       </c>
     </row>
-    <row r="21" spans="3:16">
+    <row r="21" spans="3:19">
       <c r="C21" s="2">
         <v>30011</v>
       </c>
@@ -2100,13 +2280,13 @@
         <v>3001</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2">
         <v>30011</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H21" s="2">
         <v>99</v>
@@ -2132,8 +2312,17 @@
       <c r="P21" s="1">
         <v>0</v>
       </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="3:16">
+    <row r="22" spans="3:19">
       <c r="C22" s="2">
         <v>30012</v>
       </c>
@@ -2141,13 +2330,13 @@
         <v>3001</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2">
         <v>30011</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H22" s="2">
         <v>99</v>
@@ -2173,8 +2362,17 @@
       <c r="P22" s="1">
         <v>0</v>
       </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="3:16">
+    <row r="23" spans="3:19">
       <c r="C23" s="2">
         <v>30013</v>
       </c>
@@ -2182,13 +2380,13 @@
         <v>3001</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2">
         <v>30011</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -2214,8 +2412,17 @@
       <c r="P23" s="1">
         <v>0</v>
       </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="3:16">
+    <row r="24" spans="3:19">
       <c r="C24" s="2">
         <v>30014</v>
       </c>
@@ -2223,13 +2430,13 @@
         <v>3001</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2">
         <v>30011</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -2255,8 +2462,17 @@
       <c r="P24" s="1">
         <v>0</v>
       </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="3:16">
+    <row r="25" spans="3:19">
       <c r="C25" s="2">
         <v>30015</v>
       </c>
@@ -2264,13 +2480,13 @@
         <v>3001</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2">
         <v>30011</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H25" s="2">
         <v>99</v>
@@ -2293,7 +2509,16 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
         <v>102</v>
       </c>
     </row>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>_ID</t>
   </si>
@@ -255,75 +255,57 @@
     <t>火球·狂暴</t>
   </si>
   <si>
-    <t>火球术增加20%伤害系数，无上限</t>
+    <t>增加20%伤害系数，无上限</t>
   </si>
   <si>
     <t>火球·多重</t>
   </si>
   <si>
-    <t>火球术增加一个攻击目标，最多生效3个</t>
+    <t>增加一个攻击目标，最多生效3个</t>
   </si>
   <si>
     <t>火球·急速</t>
   </si>
   <si>
-    <t>火球术减少1秒CD时间，最多生效1个</t>
+    <t>减少1秒CD时间，最多生效1个</t>
   </si>
   <si>
     <t>火球·灼烧</t>
   </si>
   <si>
-    <t>火球术增加灼烧效果，灼烧系数为80%,最多叠加3重</t>
+    <t>增加灼烧效果，灼烧系数为80%,最多叠加3重</t>
   </si>
   <si>
     <t>火球·固伤</t>
   </si>
   <si>
-    <t>火球术增加100点固定伤害，无上限</t>
+    <t>增加100点固定伤害，无上限</t>
   </si>
   <si>
     <t>雷电·狂暴</t>
   </si>
   <si>
-    <t>雷电术增加20%伤害系数，无上限</t>
-  </si>
-  <si>
     <t>雷电·多重</t>
   </si>
   <si>
-    <t>雷电术增加一个攻击目标，最多生效3个</t>
-  </si>
-  <si>
     <t>雷电·急速</t>
   </si>
   <si>
-    <t>雷电术减少1秒CD时间，最多生效1个</t>
-  </si>
-  <si>
     <t>雷电·弱化</t>
   </si>
   <si>
-    <t>雷电术增加弱化特效，减少对方50%伤害，持续3回合</t>
+    <t>增加弱化特效，减少对方50%伤害，持续3回合</t>
   </si>
   <si>
     <t>雷电·固伤</t>
   </si>
   <si>
-    <t>雷电术增加100点固定伤害，无上限</t>
-  </si>
-  <si>
     <t>基础剑术·狂暴</t>
   </si>
   <si>
-    <t>增加20%伤害系数，无上限</t>
-  </si>
-  <si>
     <t>基础剑术·固伤</t>
   </si>
   <si>
-    <t>增加100点固定伤害，无上限</t>
-  </si>
-  <si>
     <t>基础剑术·流血</t>
   </si>
   <si>
@@ -339,31 +321,22 @@
     <t>基础剑术·暴击</t>
   </si>
   <si>
-    <t>使用基础剑术的时候，额外增加20%暴击率，无上限</t>
+    <t>额外增加20%暴击率，无上限</t>
   </si>
   <si>
     <t>火符·狂暴</t>
   </si>
   <si>
-    <t>火符增加20%伤害系数，无上限</t>
-  </si>
-  <si>
     <t>火符·固伤</t>
   </si>
   <si>
-    <t>火符增加100点固定伤害，无上限</t>
-  </si>
-  <si>
     <t>火符·中毒</t>
   </si>
   <si>
-    <t>火符增加中毒效果，每秒造成80%道术伤害，持续5回合</t>
+    <t>增加中毒效果，每秒造成80%道术伤害，持续5回合</t>
   </si>
   <si>
     <t>火符·急速</t>
-  </si>
-  <si>
-    <t>火符减少1秒CD时间，最多生效1个</t>
   </si>
   <si>
     <t>火符·回复</t>
@@ -548,12 +521,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1344,7 +1317,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q33" sqref="Q33"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1352,7 +1325,7 @@
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.50833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
     <col min="9" max="10" width="10.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
@@ -1786,7 +1759,7 @@
         <v>20021</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1">
         <v>99</v>
@@ -1830,13 +1803,13 @@
         <v>2002</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1">
         <v>20021</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1880,13 +1853,13 @@
         <v>2002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1">
         <v>20021</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1930,13 +1903,13 @@
         <v>2002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1">
         <v>20021</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1980,13 +1953,13 @@
         <v>2002</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
         <v>20021</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H15" s="1">
         <v>99</v>
@@ -2030,13 +2003,13 @@
         <v>1001</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2">
         <v>10011</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2">
         <v>99</v>
@@ -2080,13 +2053,13 @@
         <v>1001</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2">
         <v>10011</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2">
         <v>99</v>
@@ -2130,13 +2103,13 @@
         <v>1001</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F18" s="2">
         <v>10011</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
@@ -2180,13 +2153,13 @@
         <v>1001</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2">
         <v>10011</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -2230,13 +2203,13 @@
         <v>1001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2">
         <v>10011</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2">
         <v>5</v>
@@ -2280,13 +2253,13 @@
         <v>3001</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2">
         <v>30011</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H21" s="2">
         <v>99</v>
@@ -2330,13 +2303,13 @@
         <v>3001</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F22" s="2">
         <v>30011</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2">
         <v>99</v>
@@ -2380,13 +2353,13 @@
         <v>3001</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2">
         <v>30011</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -2430,13 +2403,13 @@
         <v>3001</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2">
         <v>30011</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -2480,13 +2453,13 @@
         <v>3001</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F25" s="2">
         <v>30011</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H25" s="2">
         <v>99</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="228">
   <si>
     <t>_ID</t>
   </si>
@@ -309,6 +309,9 @@
     <t>固定伤害</t>
   </si>
   <si>
+    <t>无视防御</t>
+  </si>
+  <si>
     <t>暴击率</t>
   </si>
   <si>
@@ -364,6 +367,9 @@
   </si>
   <si>
     <t>Damage</t>
+  </si>
+  <si>
+    <t>IgnoreDef</t>
   </si>
   <si>
     <t>CritRate</t>
@@ -1918,12 +1924,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:U83"/>
+  <dimension ref="C3:V83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U$1:U$1048576"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1936,17 +1942,17 @@
     <col min="11" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
     <col min="12" max="12" customWidth="true" style="1" width="13.75" collapsed="false"/>
     <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="7.75" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="1" width="10.625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="18" max="19" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="1" width="7.375" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="1" width="11.5" collapsed="false"/>
-    <col min="22" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="14" max="15" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="19" max="20" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="7.375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="1" width="11.5" collapsed="false"/>
+    <col min="23" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21">
+    <row r="3" spans="3:22">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2004,4570 +2010,4969 @@
       <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="3:21">
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21">
+        <v>38</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22">
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="19:21">
+        <v>40</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="20:22">
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="20:22">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="20:22">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="20:22">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="20:22">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="20:22">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="20:22">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="20:22">
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="19:22">
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="19:22">
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="8:21">
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="8:21">
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="8:21">
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21">
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="8:18">
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="6:21">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="8:21">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="8:21">
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
       </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="9:21">
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="8:18">
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
       </c>
-      <c r="O6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="19:21">
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="19:21">
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="19:21">
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="19:21">
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="19:21">
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="19:21">
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="19:21">
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="18:21">
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T14" t="s">
-        <v>45</v>
-      </c>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="18:21">
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="8:20">
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16"/>
-    </row>
-    <row r="17" spans="8:20">
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" t="s">
-        <v>45</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U17"/>
-    </row>
-    <row r="18" spans="8:20">
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U18"/>
-    </row>
-    <row r="19" spans="6:20">
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" t="s">
-        <v>45</v>
-      </c>
-      <c r="S19" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U19"/>
-    </row>
-    <row r="20" spans="8:17">
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" t="s">
-        <v>45</v>
-      </c>
-      <c r="S20" t="s">
-        <v>45</v>
-      </c>
-      <c r="T20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U20"/>
-    </row>
-    <row r="21" spans="6:20">
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R21" t="s">
-        <v>45</v>
-      </c>
-      <c r="S21" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U21"/>
-    </row>
-    <row r="22" spans="8:20">
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22" t="s">
-        <v>45</v>
-      </c>
-      <c r="S22" t="s">
-        <v>45</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22"/>
-    </row>
-    <row r="23" spans="8:20">
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R23" t="s">
-        <v>45</v>
-      </c>
-      <c r="S23" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U23"/>
-    </row>
-    <row r="24" spans="9:20">
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R24" t="s">
-        <v>45</v>
-      </c>
-      <c r="S24" t="s">
-        <v>45</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U24"/>
-    </row>
-    <row r="25" spans="8:17">
-      <c r="C25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>43</v>
-      </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R25" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="S25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T25" t="s">
-        <v>45</v>
-      </c>
-      <c r="U25"/>
+        <v>47</v>
+      </c>
+      <c r="U25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T26" t="s">
-        <v>45</v>
-      </c>
-      <c r="U26"/>
+        <v>47</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O27" t="s">
         <v>47</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T27" t="s">
-        <v>45</v>
-      </c>
-      <c r="U27"/>
+        <v>47</v>
+      </c>
+      <c r="U27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P28" t="s">
         <v>47</v>
       </c>
       <c r="Q28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T28" t="s">
-        <v>45</v>
-      </c>
-      <c r="U28"/>
+        <v>47</v>
+      </c>
+      <c r="U28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q29" t="s">
         <v>47</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T29" t="s">
-        <v>45</v>
-      </c>
-      <c r="U29"/>
+        <v>47</v>
+      </c>
+      <c r="U29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T30" t="s">
-        <v>45</v>
-      </c>
-      <c r="U30"/>
+        <v>47</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
         <v>106</v>
       </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T31" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31"/>
+        <v>47</v>
+      </c>
+      <c r="U31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O32" t="s">
         <v>47</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T32" t="s">
-        <v>45</v>
-      </c>
-      <c r="U32"/>
+        <v>47</v>
+      </c>
+      <c r="U32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P33" t="s">
         <v>47</v>
       </c>
       <c r="Q33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T33" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33"/>
+        <v>47</v>
+      </c>
+      <c r="U33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q34" t="s">
         <v>47</v>
       </c>
       <c r="R34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T34" t="s">
-        <v>45</v>
-      </c>
-      <c r="U34"/>
+        <v>47</v>
+      </c>
+      <c r="U34" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
-      </c>
-      <c r="U35"/>
+        <v>47</v>
+      </c>
+      <c r="U35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
         <v>117</v>
       </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T36" t="s">
-        <v>45</v>
-      </c>
-      <c r="U36"/>
+        <v>47</v>
+      </c>
+      <c r="U36" t="s">
+        <v>48</v>
+      </c>
+      <c r="V36" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O37" t="s">
         <v>47</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T37" t="s">
-        <v>45</v>
-      </c>
-      <c r="U37"/>
+        <v>47</v>
+      </c>
+      <c r="U37" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P38" t="s">
         <v>47</v>
       </c>
       <c r="Q38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T38" t="s">
-        <v>45</v>
-      </c>
-      <c r="U38"/>
+        <v>47</v>
+      </c>
+      <c r="U38" t="s">
+        <v>48</v>
+      </c>
+      <c r="V38" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q39" t="s">
         <v>47</v>
       </c>
       <c r="R39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T39" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39"/>
+        <v>47</v>
+      </c>
+      <c r="U39" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T40" t="s">
-        <v>45</v>
-      </c>
-      <c r="U40"/>
+        <v>47</v>
+      </c>
+      <c r="U40" t="s">
+        <v>48</v>
+      </c>
+      <c r="V40" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
         <v>128</v>
       </c>
-      <c r="D41" t="s">
-        <v>126</v>
-      </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T41" t="s">
-        <v>45</v>
-      </c>
-      <c r="U41"/>
+        <v>47</v>
+      </c>
+      <c r="U41" t="s">
+        <v>48</v>
+      </c>
+      <c r="V41" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O42" t="s">
         <v>47</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T42" t="s">
-        <v>45</v>
-      </c>
-      <c r="U42"/>
+        <v>47</v>
+      </c>
+      <c r="U42" t="s">
+        <v>48</v>
+      </c>
+      <c r="V42" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P43" t="s">
         <v>47</v>
       </c>
       <c r="Q43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T43" t="s">
-        <v>45</v>
-      </c>
-      <c r="U43"/>
+        <v>47</v>
+      </c>
+      <c r="U43" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q44" t="s">
         <v>47</v>
       </c>
       <c r="R44" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U44"/>
+        <v>47</v>
+      </c>
+      <c r="U44" t="s">
+        <v>48</v>
+      </c>
+      <c r="V44" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T45" t="s">
-        <v>45</v>
-      </c>
-      <c r="U45"/>
+        <v>47</v>
+      </c>
+      <c r="U45" t="s">
+        <v>48</v>
+      </c>
+      <c r="V45" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
         <v>139</v>
       </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T46" t="s">
-        <v>45</v>
-      </c>
-      <c r="U46"/>
+        <v>47</v>
+      </c>
+      <c r="U46" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O47" t="s">
         <v>47</v>
       </c>
       <c r="P47" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T47" t="s">
-        <v>45</v>
-      </c>
-      <c r="U47"/>
+        <v>47</v>
+      </c>
+      <c r="U47" t="s">
+        <v>48</v>
+      </c>
+      <c r="V47" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="48" ht="24.0" customHeight="true">
       <c r="C48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P48" t="s">
         <v>47</v>
       </c>
       <c r="Q48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T48" t="s">
-        <v>45</v>
-      </c>
-      <c r="U48"/>
+        <v>47</v>
+      </c>
+      <c r="U48" t="s">
+        <v>48</v>
+      </c>
+      <c r="V48" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="49" ht="24.0" customHeight="true">
       <c r="C49" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q49" t="s">
         <v>47</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T49" t="s">
-        <v>45</v>
-      </c>
-      <c r="U49"/>
+        <v>47</v>
+      </c>
+      <c r="U49" t="s">
+        <v>48</v>
+      </c>
+      <c r="V49" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" ht="24.0" customHeight="true">
       <c r="C50" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T50" t="s">
-        <v>45</v>
-      </c>
-      <c r="U50"/>
+        <v>47</v>
+      </c>
+      <c r="U50" t="s">
+        <v>48</v>
+      </c>
+      <c r="V50" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="51" ht="24.0" customHeight="true">
       <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
         <v>150</v>
       </c>
-      <c r="D51" t="s">
-        <v>148</v>
-      </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T51" t="s">
-        <v>45</v>
-      </c>
-      <c r="U51"/>
+        <v>47</v>
+      </c>
+      <c r="U51" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="52" ht="24.0" customHeight="true">
       <c r="C52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T52" t="s">
-        <v>45</v>
-      </c>
-      <c r="U52"/>
+        <v>47</v>
+      </c>
+      <c r="U52" t="s">
+        <v>48</v>
+      </c>
+      <c r="V52" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" ht="24.0" customHeight="true">
       <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" t="s">
         <v>155</v>
       </c>
-      <c r="D53" t="s">
-        <v>153</v>
-      </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T53" t="s">
-        <v>45</v>
-      </c>
-      <c r="U53"/>
+        <v>47</v>
+      </c>
+      <c r="U53" t="s">
+        <v>48</v>
+      </c>
+      <c r="V53" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" ht="24.0" customHeight="true">
       <c r="C54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T54" t="s">
-        <v>45</v>
-      </c>
-      <c r="U54"/>
+        <v>47</v>
+      </c>
+      <c r="U54" t="s">
+        <v>48</v>
+      </c>
+      <c r="V54" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" ht="24.0" customHeight="true">
       <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
         <v>160</v>
       </c>
-      <c r="D55" t="s">
-        <v>158</v>
-      </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T55" t="s">
-        <v>45</v>
-      </c>
-      <c r="U55"/>
+        <v>47</v>
+      </c>
+      <c r="U55" t="s">
+        <v>48</v>
+      </c>
+      <c r="V55" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="56" ht="24.0" customHeight="true">
       <c r="C56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O56" t="s">
         <v>47</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T56" t="s">
-        <v>45</v>
-      </c>
-      <c r="U56"/>
+        <v>47</v>
+      </c>
+      <c r="U56" t="s">
+        <v>48</v>
+      </c>
+      <c r="V56" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" ht="24.0" customHeight="true">
       <c r="C57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P57" t="s">
         <v>47</v>
       </c>
       <c r="Q57" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T57" t="s">
-        <v>45</v>
-      </c>
-      <c r="U57"/>
+        <v>47</v>
+      </c>
+      <c r="U57" t="s">
+        <v>48</v>
+      </c>
+      <c r="V57" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="58" ht="24.0" customHeight="true">
       <c r="C58" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q58" t="s">
         <v>47</v>
       </c>
       <c r="R58" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T58" t="s">
-        <v>45</v>
-      </c>
-      <c r="U58"/>
+        <v>47</v>
+      </c>
+      <c r="U58" t="s">
+        <v>48</v>
+      </c>
+      <c r="V58" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="59" ht="24.0" customHeight="true">
       <c r="C59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T59" t="s">
-        <v>45</v>
-      </c>
-      <c r="U59"/>
+        <v>47</v>
+      </c>
+      <c r="U59" t="s">
+        <v>48</v>
+      </c>
+      <c r="V59" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" ht="24.0" customHeight="true">
       <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
         <v>171</v>
       </c>
-      <c r="D60" t="s">
-        <v>169</v>
-      </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T60" t="s">
-        <v>45</v>
-      </c>
-      <c r="U60"/>
+        <v>47</v>
+      </c>
+      <c r="U60" t="s">
+        <v>48</v>
+      </c>
+      <c r="V60" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="61" ht="24.0" customHeight="true">
       <c r="C61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O61" t="s">
         <v>47</v>
       </c>
       <c r="P61" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T61" t="s">
-        <v>45</v>
-      </c>
-      <c r="U61"/>
+        <v>47</v>
+      </c>
+      <c r="U61" t="s">
+        <v>48</v>
+      </c>
+      <c r="V61" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="62" ht="24.0" customHeight="true">
       <c r="C62" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P62" t="s">
         <v>47</v>
       </c>
       <c r="Q62" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T62" t="s">
-        <v>45</v>
-      </c>
-      <c r="U62"/>
+        <v>47</v>
+      </c>
+      <c r="U62" t="s">
+        <v>48</v>
+      </c>
+      <c r="V62" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="63" ht="24.0" customHeight="true">
       <c r="C63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q63" t="s">
         <v>47</v>
       </c>
       <c r="R63" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T63" t="s">
-        <v>45</v>
-      </c>
-      <c r="U63"/>
+        <v>47</v>
+      </c>
+      <c r="U63" t="s">
+        <v>48</v>
+      </c>
+      <c r="V63" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="64" ht="24.0" customHeight="true">
       <c r="C64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T64" t="s">
-        <v>45</v>
-      </c>
-      <c r="U64"/>
+        <v>47</v>
+      </c>
+      <c r="U64" t="s">
+        <v>48</v>
+      </c>
+      <c r="V64" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="65" ht="24.0" customHeight="true">
       <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" t="s">
         <v>182</v>
       </c>
-      <c r="D65" t="s">
-        <v>180</v>
-      </c>
       <c r="E65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T65" t="s">
-        <v>45</v>
-      </c>
-      <c r="U65"/>
+        <v>47</v>
+      </c>
+      <c r="U65" t="s">
+        <v>48</v>
+      </c>
+      <c r="V65" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="66" ht="24.0" customHeight="true">
       <c r="C66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T66" t="s">
-        <v>45</v>
-      </c>
-      <c r="U66"/>
+        <v>47</v>
+      </c>
+      <c r="U66" t="s">
+        <v>48</v>
+      </c>
+      <c r="V66" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="67" ht="24.0" customHeight="true">
       <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s">
         <v>187</v>
       </c>
-      <c r="D67" t="s">
-        <v>185</v>
-      </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T67" t="s">
-        <v>45</v>
-      </c>
-      <c r="U67"/>
+        <v>47</v>
+      </c>
+      <c r="U67" t="s">
+        <v>48</v>
+      </c>
+      <c r="V67" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="68" ht="24.0" customHeight="true">
       <c r="C68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T68" t="s">
-        <v>45</v>
-      </c>
-      <c r="U68"/>
+        <v>47</v>
+      </c>
+      <c r="U68" t="s">
+        <v>48</v>
+      </c>
+      <c r="V68" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="69" ht="24.0" customHeight="true">
       <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
         <v>192</v>
       </c>
-      <c r="D69" t="s">
-        <v>190</v>
-      </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T69" t="s">
-        <v>45</v>
-      </c>
-      <c r="U69"/>
+        <v>47</v>
+      </c>
+      <c r="U69" t="s">
+        <v>48</v>
+      </c>
+      <c r="V69" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="70" ht="24.0" customHeight="true">
       <c r="C70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O70" t="s">
         <v>47</v>
       </c>
       <c r="P70" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T70" t="s">
-        <v>45</v>
-      </c>
-      <c r="U70"/>
+        <v>47</v>
+      </c>
+      <c r="U70" t="s">
+        <v>48</v>
+      </c>
+      <c r="V70" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="71" ht="24.0" customHeight="true">
       <c r="C71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P71" t="s">
         <v>47</v>
       </c>
       <c r="Q71" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T71" t="s">
-        <v>45</v>
-      </c>
-      <c r="U71"/>
+        <v>47</v>
+      </c>
+      <c r="U71" t="s">
+        <v>48</v>
+      </c>
+      <c r="V71" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="72" ht="24.0" customHeight="true">
       <c r="C72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q72" t="s">
         <v>47</v>
       </c>
       <c r="R72" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T72" t="s">
-        <v>45</v>
-      </c>
-      <c r="U72"/>
+        <v>47</v>
+      </c>
+      <c r="U72" t="s">
+        <v>48</v>
+      </c>
+      <c r="V72" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="73" ht="24.0" customHeight="true">
       <c r="C73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T73" t="s">
-        <v>45</v>
-      </c>
-      <c r="U73"/>
+        <v>47</v>
+      </c>
+      <c r="U73" t="s">
+        <v>48</v>
+      </c>
+      <c r="V73" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="74" ht="24.0" customHeight="true">
       <c r="C74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" t="s">
         <v>203</v>
       </c>
-      <c r="D74" t="s">
-        <v>201</v>
-      </c>
       <c r="E74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T74" t="s">
-        <v>45</v>
-      </c>
-      <c r="U74"/>
+        <v>47</v>
+      </c>
+      <c r="U74" t="s">
+        <v>48</v>
+      </c>
+      <c r="V74" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="75" ht="24.0" customHeight="true">
       <c r="C75" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T75" t="s">
-        <v>45</v>
-      </c>
-      <c r="U75"/>
+        <v>47</v>
+      </c>
+      <c r="U75" t="s">
+        <v>48</v>
+      </c>
+      <c r="V75" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="76" ht="24.0" customHeight="true">
       <c r="C76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76" t="s">
         <v>208</v>
       </c>
-      <c r="D76" t="s">
-        <v>206</v>
-      </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T76" t="s">
-        <v>45</v>
-      </c>
-      <c r="U76"/>
+        <v>47</v>
+      </c>
+      <c r="U76" t="s">
+        <v>48</v>
+      </c>
+      <c r="V76" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="77" ht="24.0" customHeight="true">
       <c r="C77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T77" t="s">
-        <v>45</v>
-      </c>
-      <c r="U77"/>
+        <v>47</v>
+      </c>
+      <c r="U77" t="s">
+        <v>48</v>
+      </c>
+      <c r="V77" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="78" ht="24.0" customHeight="true">
       <c r="C78" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" t="s">
         <v>213</v>
       </c>
-      <c r="D78" t="s">
-        <v>211</v>
-      </c>
       <c r="E78" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S78" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T78" t="s">
-        <v>45</v>
-      </c>
-      <c r="U78"/>
+        <v>47</v>
+      </c>
+      <c r="U78" t="s">
+        <v>48</v>
+      </c>
+      <c r="V78" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="79" ht="24.0" customHeight="true">
       <c r="C79" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O79" t="s">
         <v>47</v>
       </c>
       <c r="P79" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T79" t="s">
-        <v>45</v>
-      </c>
-      <c r="U79"/>
+        <v>47</v>
+      </c>
+      <c r="U79" t="s">
+        <v>48</v>
+      </c>
+      <c r="V79" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="80" ht="24.0" customHeight="true">
       <c r="C80" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E80" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P80" t="s">
         <v>47</v>
       </c>
       <c r="Q80" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S80" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T80" t="s">
-        <v>45</v>
-      </c>
-      <c r="U80"/>
+        <v>47</v>
+      </c>
+      <c r="U80" t="s">
+        <v>48</v>
+      </c>
+      <c r="V80" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="81" ht="24.0" customHeight="true">
       <c r="C81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E81" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q81" t="s">
         <v>47</v>
       </c>
       <c r="R81" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="S81" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T81" t="s">
-        <v>45</v>
-      </c>
-      <c r="U81"/>
+        <v>47</v>
+      </c>
+      <c r="U81" t="s">
+        <v>48</v>
+      </c>
+      <c r="V81" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="82" ht="24.0" customHeight="true">
       <c r="C82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T82" t="s">
-        <v>45</v>
-      </c>
-      <c r="U82"/>
+        <v>47</v>
+      </c>
+      <c r="U82" t="s">
+        <v>48</v>
+      </c>
+      <c r="V82" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="83" ht="24.0" customHeight="true">
       <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
         <v>224</v>
       </c>
-      <c r="D83" t="s">
-        <v>222</v>
-      </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T83" t="s">
-        <v>45</v>
-      </c>
-      <c r="U83"/>
+        <v>47</v>
+      </c>
+      <c r="U83" t="s">
+        <v>48</v>
+      </c>
+      <c r="V83" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6585,10 +6990,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:U13"/>
+  <dimension ref="C3:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6601,17 +7006,17 @@
     <col min="11" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
     <col min="12" max="12" customWidth="true" style="1" width="13.75" collapsed="false"/>
     <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="7.75" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="1" width="10.625" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="18" max="19" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="20" max="20" customWidth="true" style="1" width="7.375" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="1" width="11.5" collapsed="false"/>
-    <col min="22" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="14" max="15" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="19" max="20" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="7.375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="1" width="11.5" collapsed="false"/>
+    <col min="23" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:21">
+    <row r="3" s="1" customFormat="1" spans="3:22">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6669,151 +7074,160 @@
       <c r="U3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:21">
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:22">
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:22">
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="19:22">
+      <c r="S6" s="3"/>
+      <c r="V6" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:21">
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="18:21">
-      <c r="R6" s="3"/>
-      <c r="U6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="18:18">
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="18:18">
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="18:18">
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="18:18">
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="18:18">
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="18:18">
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="18:18">
-      <c r="R13" s="3"/>
+    </row>
+    <row r="7" spans="19:19">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="19:19">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="19:19">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="19:19">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="19:19">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="19:19">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="19:19">
+      <c r="S13" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="225">
   <si>
     <t>_ID</t>
   </si>
@@ -300,6 +300,9 @@
     <t>修改攻击区域</t>
   </si>
   <si>
+    <t>持续时间</t>
+  </si>
+  <si>
     <t>增加最大敌人数量</t>
   </si>
   <si>
@@ -330,73 +333,79 @@
     <t>附带效果</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CastType</t>
+  </si>
+  <si>
+    <t>Dis</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>EnemyMax</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>IgnoreDef</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
+    <t>DamageIncrea</t>
+  </si>
+  <si>
+    <t>AttrIncrea</t>
+  </si>
+  <si>
+    <t>FinalIncrea</t>
+  </si>
+  <si>
+    <t>EffectId</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>效果参数</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>SkillId</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Des</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CastType</t>
-  </si>
-  <si>
-    <t>Dis</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>EnemyMax</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>IgnoreDef</t>
-  </si>
-  <si>
-    <t>CritRate</t>
-  </si>
-  <si>
-    <t>CritDamage</t>
-  </si>
-  <si>
-    <t>DamageIncrea</t>
-  </si>
-  <si>
-    <t>AttrIncrea</t>
-  </si>
-  <si>
-    <t>FinalIncrea</t>
-  </si>
-  <si>
-    <t>EffectId</t>
-  </si>
-  <si>
     <t>EffectParam</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>int[]</t>
   </si>
   <si>
     <t>10001</t>
@@ -531,63 +540,63 @@
     <t>1004</t>
   </si>
   <si>
+    <t>野蛮撞击·强化</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>野蛮撞击·固伤</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>野蛮撞击·致命</t>
+  </si>
+  <si>
+    <t>10019</t>
+  </si>
+  <si>
+    <t>野蛮撞击·暴伤</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>野蛮撞击·易伤</t>
+  </si>
+  <si>
+    <t>10021</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
     <t>武力盾·强化</t>
   </si>
   <si>
-    <t>10017</t>
+    <t>10022</t>
   </si>
   <si>
     <t>武力盾·固伤</t>
   </si>
   <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>1005</t>
+    <t>10023</t>
+  </si>
+  <si>
+    <t>1006</t>
   </si>
   <si>
     <t>武力精通·强化</t>
   </si>
   <si>
-    <t>10019</t>
+    <t>10024</t>
   </si>
   <si>
     <t>武力精通·固伤</t>
   </si>
   <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>野蛮撞击·强化</t>
-  </si>
-  <si>
-    <t>10021</t>
-  </si>
-  <si>
-    <t>野蛮撞击·固伤</t>
-  </si>
-  <si>
-    <t>10022</t>
-  </si>
-  <si>
-    <t>野蛮撞击·致命</t>
-  </si>
-  <si>
-    <t>10023</t>
-  </si>
-  <si>
-    <t>野蛮撞击·暴伤</t>
-  </si>
-  <si>
-    <t>10024</t>
-  </si>
-  <si>
-    <t>野蛮撞击·易伤</t>
-  </si>
-  <si>
     <t>10025</t>
   </si>
   <si>
@@ -726,63 +735,63 @@
     <t>2004</t>
   </si>
   <si>
+    <t>爆裂火焰·强化</t>
+  </si>
+  <si>
+    <t>10046</t>
+  </si>
+  <si>
+    <t>爆裂火焰·固伤</t>
+  </si>
+  <si>
+    <t>10047</t>
+  </si>
+  <si>
+    <t>爆裂火焰·致命</t>
+  </si>
+  <si>
+    <t>10048</t>
+  </si>
+  <si>
+    <t>爆裂火焰·暴伤</t>
+  </si>
+  <si>
+    <t>10049</t>
+  </si>
+  <si>
+    <t>爆裂火焰·易伤</t>
+  </si>
+  <si>
+    <t>10050</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>魔法盾·强化</t>
   </si>
   <si>
-    <t>10046</t>
+    <t>10051</t>
   </si>
   <si>
     <t>魔法盾·固伤</t>
   </si>
   <si>
-    <t>10047</t>
-  </si>
-  <si>
-    <t>2005</t>
+    <t>10052</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
   <si>
     <t>法术精通·强化</t>
   </si>
   <si>
-    <t>10048</t>
+    <t>10053</t>
   </si>
   <si>
     <t>法术精通·固伤</t>
   </si>
   <si>
-    <t>10049</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>抗拒光环·强化</t>
-  </si>
-  <si>
-    <t>10050</t>
-  </si>
-  <si>
-    <t>抗拒光环·固伤</t>
-  </si>
-  <si>
-    <t>10051</t>
-  </si>
-  <si>
-    <t>抗拒光环·致命</t>
-  </si>
-  <si>
-    <t>10052</t>
-  </si>
-  <si>
-    <t>抗拒光环·暴伤</t>
-  </si>
-  <si>
-    <t>10053</t>
-  </si>
-  <si>
-    <t>抗拒光环·易伤</t>
-  </si>
-  <si>
     <t>10054</t>
   </si>
   <si>
@@ -837,121 +846,103 @@
     <t>3002</t>
   </si>
   <si>
+    <t>火符术·强化</t>
+  </si>
+  <si>
+    <t>10062</t>
+  </si>
+  <si>
+    <t>火符术·固伤</t>
+  </si>
+  <si>
+    <t>10063</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
     <t>施毒术·强化</t>
   </si>
   <si>
-    <t>10062</t>
+    <t>10064</t>
   </si>
   <si>
     <t>施毒术·固伤</t>
   </si>
   <si>
-    <t>10063</t>
-  </si>
-  <si>
-    <t>3003</t>
+    <t>10065</t>
+  </si>
+  <si>
+    <t>施毒术·致命</t>
+  </si>
+  <si>
+    <t>10066</t>
+  </si>
+  <si>
+    <t>施毒术·暴伤</t>
+  </si>
+  <si>
+    <t>10067</t>
+  </si>
+  <si>
+    <t>施毒术·易伤</t>
+  </si>
+  <si>
+    <t>10068</t>
+  </si>
+  <si>
+    <t>3004</t>
   </si>
   <si>
     <t>召唤骷髅·强化</t>
   </si>
   <si>
-    <t>10064</t>
+    <t>10069</t>
   </si>
   <si>
     <t>召唤骷髅·固伤</t>
   </si>
   <si>
-    <t>10065</t>
-  </si>
-  <si>
-    <t>召唤骷髅·致命</t>
-  </si>
-  <si>
-    <t>10066</t>
-  </si>
-  <si>
-    <t>召唤骷髅·暴伤</t>
-  </si>
-  <si>
-    <t>10067</t>
-  </si>
-  <si>
-    <t>召唤骷髅·易伤</t>
-  </si>
-  <si>
-    <t>10068</t>
-  </si>
-  <si>
-    <t>3004</t>
+    <t>10070</t>
+  </si>
+  <si>
+    <t>3005</t>
   </si>
   <si>
     <t>道力盾·强化</t>
   </si>
   <si>
-    <t>10069</t>
+    <t>10071</t>
   </si>
   <si>
     <t>道力盾·固伤</t>
   </si>
   <si>
-    <t>10070</t>
-  </si>
-  <si>
-    <t>3005</t>
+    <t>10072</t>
+  </si>
+  <si>
+    <t>3006</t>
   </si>
   <si>
     <t>道力精通·强化</t>
   </si>
   <si>
-    <t>10071</t>
+    <t>10073</t>
   </si>
   <si>
     <t>道力精通·固伤</t>
   </si>
   <si>
-    <t>10072</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>禁锢术·强化</t>
-  </si>
-  <si>
-    <t>10073</t>
-  </si>
-  <si>
-    <t>禁锢术·固伤</t>
-  </si>
-  <si>
     <t>10074</t>
   </si>
   <si>
-    <t>禁锢术·致命</t>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>召唤神兽·强化</t>
   </si>
   <si>
     <t>10075</t>
-  </si>
-  <si>
-    <t>禁锢术·暴伤</t>
-  </si>
-  <si>
-    <t>10076</t>
-  </si>
-  <si>
-    <t>禁锢术·易伤</t>
-  </si>
-  <si>
-    <t>10077</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>召唤神兽·强化</t>
-  </si>
-  <si>
-    <t>10078</t>
   </si>
   <si>
     <t>召唤神兽·固伤</t>
@@ -1133,12 +1124,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1924,12 +1915,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:V83"/>
+  <dimension ref="C3:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1939,16 +1930,15 @@
     <col min="6" max="6" customWidth="true" style="1" width="14.125" collapsed="false"/>
     <col min="7" max="9" customWidth="true" style="1" width="10.375" collapsed="false"/>
     <col min="10" max="10" customWidth="true" style="1" width="11.75" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.75" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="14" max="15" customWidth="true" style="1" width="7.75" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="10.625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="19" max="20" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="1" width="7.375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="1" width="11.5" collapsed="false"/>
+    <col min="11" max="12" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="15" max="16" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="20" max="21" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="1" width="7.375" collapsed="false"/>
     <col min="23" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
@@ -2138,4840 +2128,4654 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="20:22">
+    <row r="6" s="3" customFormat="1" spans="21:21">
       <c r="C6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="21:21">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="21:21">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="21:21">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="21:21">
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="21:21">
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
         <v>48</v>
       </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="21:21">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="21:21">
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="20:21">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="20:21">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="8:22">
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22">
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22">
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="6:22">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="8:19">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="6:22">
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="20:22">
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="20:22">
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22">
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="20:22">
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T22" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="8:22">
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
-      </c>
-      <c r="S9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="20:22">
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="9:22">
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
         <v>61</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="20:22">
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="8:19">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="20:22">
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" t="s">
-        <v>47</v>
-      </c>
-      <c r="S12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U12" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="20:22">
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="19:22">
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="19:22">
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>47</v>
-      </c>
-      <c r="R15" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U15" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="8:21">
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T16" t="s">
-        <v>47</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="8:21">
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" t="s">
-        <v>47</v>
-      </c>
-      <c r="T17" t="s">
-        <v>47</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="8:21">
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S18" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18" t="s">
-        <v>47</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="6:21">
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" t="s">
-        <v>47</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="8:18">
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S20" t="s">
-        <v>47</v>
-      </c>
-      <c r="T20" t="s">
-        <v>47</v>
-      </c>
-      <c r="U20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="6:21">
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" t="s">
-        <v>47</v>
-      </c>
-      <c r="T21" t="s">
-        <v>47</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="8:21">
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" t="s">
-        <v>47</v>
-      </c>
-      <c r="T22" t="s">
-        <v>47</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="8:21">
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S23" t="s">
-        <v>47</v>
-      </c>
-      <c r="T23" t="s">
-        <v>47</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="9:21">
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" t="s">
-        <v>47</v>
-      </c>
-      <c r="T24" t="s">
-        <v>47</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="8:18">
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" t="s">
-        <v>49</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
+        <v>50</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S25" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
         <v>99</v>
       </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N28" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q37" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R38" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O41" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R43" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O46" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T46" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q47" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.0" customHeight="true">
       <c r="C48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R48" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T48" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="24.0" customHeight="true">
       <c r="C49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" ht="24.0" customHeight="true">
       <c r="C50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N50" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="24.0" customHeight="true">
       <c r="C51" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="24.0" customHeight="true">
       <c r="C52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="24.0" customHeight="true">
       <c r="C53" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R53" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T53" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="24.0" customHeight="true">
       <c r="C54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="24.0" customHeight="true">
       <c r="C55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T55" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="24.0" customHeight="true">
       <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
         <v>164</v>
       </c>
-      <c r="D56" t="s">
-        <v>160</v>
-      </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="24.0" customHeight="true">
       <c r="C57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N57" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T57" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.0" customHeight="true">
       <c r="C58" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T58" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V58" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" ht="24.0" customHeight="true">
       <c r="C59" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N59" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.0" customHeight="true">
       <c r="C60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O60" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="24.0" customHeight="true">
       <c r="C61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q61" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T61" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="24.0" customHeight="true">
       <c r="C62" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R62" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T62" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.0" customHeight="true">
       <c r="C63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V63" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="24.0" customHeight="true">
       <c r="C64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N64" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T64" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" ht="24.0" customHeight="true">
       <c r="C65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O65" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T65" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="24.0" customHeight="true">
       <c r="C66" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N66" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T66" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" ht="24.0" customHeight="true">
       <c r="C67" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K67" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O67" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T67" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V67" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="24.0" customHeight="true">
       <c r="C68" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N68" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T68" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V68" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="24.0" customHeight="true">
       <c r="C69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K69" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O69" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V69" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.0" customHeight="true">
       <c r="C70" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K70" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q70" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T70" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V70" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" ht="24.0" customHeight="true">
       <c r="C71" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R71" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T71" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V71" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="24.0" customHeight="true">
       <c r="C72" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S72" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="T72" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V72" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" ht="24.0" customHeight="true">
       <c r="C73" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N73" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V73" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="24.0" customHeight="true">
       <c r="C74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O74" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T74" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="24.0" customHeight="true">
       <c r="C75" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N75" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T75" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="24.0" customHeight="true">
       <c r="C76" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O76" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T76" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V76" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="24.0" customHeight="true">
       <c r="C77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E77" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K77" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N77" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T77" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V77" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="24.0" customHeight="true">
       <c r="C78" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K78" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O78" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V78" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" ht="24.0" customHeight="true">
       <c r="C79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D79" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E79" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K79" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N79" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V79" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" ht="24.0" customHeight="true">
       <c r="C80" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E80" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O80" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T80" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" ht="24.0" customHeight="true">
-      <c r="C81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D81" t="s">
-        <v>213</v>
-      </c>
-      <c r="E81" t="s">
-        <v>222</v>
-      </c>
-      <c r="F81" t="s">
-        <v>61</v>
-      </c>
-      <c r="G81" t="s">
-        <v>46</v>
-      </c>
-      <c r="H81" t="s">
-        <v>47</v>
-      </c>
-      <c r="I81" t="s">
-        <v>47</v>
-      </c>
-      <c r="J81" t="s">
-        <v>47</v>
-      </c>
-      <c r="K81" t="s">
-        <v>48</v>
-      </c>
-      <c r="L81" t="s">
-        <v>47</v>
-      </c>
-      <c r="M81" t="s">
-        <v>47</v>
-      </c>
-      <c r="N81" t="s">
-        <v>47</v>
-      </c>
-      <c r="O81" t="s">
-        <v>47</v>
-      </c>
-      <c r="P81" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>47</v>
-      </c>
-      <c r="R81" t="s">
-        <v>49</v>
-      </c>
-      <c r="S81" t="s">
-        <v>47</v>
-      </c>
-      <c r="T81" t="s">
-        <v>47</v>
-      </c>
-      <c r="U81" t="s">
-        <v>48</v>
-      </c>
-      <c r="V81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" ht="24.0" customHeight="true">
-      <c r="C82" t="s">
-        <v>223</v>
-      </c>
-      <c r="D82" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" t="s">
-        <v>225</v>
-      </c>
-      <c r="F82" t="s">
-        <v>45</v>
-      </c>
-      <c r="G82" t="s">
-        <v>46</v>
-      </c>
-      <c r="H82" t="s">
-        <v>47</v>
-      </c>
-      <c r="I82" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" t="s">
-        <v>47</v>
-      </c>
-      <c r="K82" t="s">
-        <v>48</v>
-      </c>
-      <c r="L82" t="s">
-        <v>47</v>
-      </c>
-      <c r="M82" t="s">
-        <v>49</v>
-      </c>
-      <c r="N82" t="s">
-        <v>47</v>
-      </c>
-      <c r="O82" t="s">
-        <v>47</v>
-      </c>
-      <c r="P82" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>47</v>
-      </c>
-      <c r="R82" t="s">
-        <v>47</v>
-      </c>
-      <c r="S82" t="s">
-        <v>47</v>
-      </c>
-      <c r="T82" t="s">
-        <v>47</v>
-      </c>
-      <c r="U82" t="s">
-        <v>48</v>
-      </c>
-      <c r="V82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" ht="24.0" customHeight="true">
-      <c r="C83" t="s">
-        <v>226</v>
-      </c>
-      <c r="D83" t="s">
-        <v>224</v>
-      </c>
-      <c r="E83" t="s">
-        <v>227</v>
-      </c>
-      <c r="F83" t="s">
-        <v>52</v>
-      </c>
-      <c r="G83" t="s">
-        <v>46</v>
-      </c>
-      <c r="H83" t="s">
-        <v>47</v>
-      </c>
-      <c r="I83" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83" t="s">
-        <v>47</v>
-      </c>
-      <c r="K83" t="s">
-        <v>48</v>
-      </c>
-      <c r="L83" t="s">
-        <v>47</v>
-      </c>
-      <c r="M83" t="s">
-        <v>47</v>
-      </c>
-      <c r="N83" t="s">
-        <v>49</v>
-      </c>
-      <c r="O83" t="s">
-        <v>47</v>
-      </c>
-      <c r="P83" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>47</v>
-      </c>
-      <c r="R83" t="s">
-        <v>47</v>
-      </c>
-      <c r="S83" t="s">
-        <v>47</v>
-      </c>
-      <c r="T83" t="s">
-        <v>47</v>
-      </c>
-      <c r="U83" t="s">
-        <v>48</v>
-      </c>
-      <c r="V83" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6990,10 +6794,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:V13"/>
+  <dimension ref="C3:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7003,20 +6807,20 @@
     <col min="6" max="6" customWidth="true" style="1" width="22.125" collapsed="false"/>
     <col min="7" max="9" customWidth="true" style="1" width="10.375" collapsed="false"/>
     <col min="10" max="10" customWidth="true" style="1" width="11.75" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="13.75" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="14" max="15" customWidth="true" style="1" width="7.75" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="10.625" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="19" max="20" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" style="1" width="7.375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="1" width="11.5" collapsed="false"/>
-    <col min="23" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="11" max="12" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="15" max="16" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="20" max="21" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" style="1" width="7.375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" style="1" width="11.5" collapsed="false"/>
+    <col min="24" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:22">
+    <row r="3" s="1" customFormat="1" spans="3:23">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7077,8 +6881,11 @@
       <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:22">
+      <c r="W3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:23">
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
@@ -7139,8 +6946,11 @@
       <c r="V4" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:22">
+      <c r="W4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:23">
       <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
@@ -7201,33 +7011,33 @@
       <c r="V5" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="19:22">
-      <c r="S6" s="3"/>
-      <c r="V6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="19:19">
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="19:19">
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="19:19">
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="19:19">
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="19:19">
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="19:19">
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="19:19">
-      <c r="S13" s="3"/>
+      <c r="W5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="20:20">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="20:20">
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="20:20">
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="20:20">
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="20:20">
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="20:20">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="20:20">
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="20:20">
+      <c r="T13" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="229">
   <si>
     <t>_ID</t>
   </si>
@@ -306,6 +306,12 @@
     <t>增加最大敌人数量</t>
   </si>
   <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
     <t>增加伤害比例</t>
   </si>
   <si>
@@ -364,6 +370,12 @@
   </si>
   <si>
     <t>EnemyMax</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Column</t>
   </si>
   <si>
     <t>Percent</t>
@@ -1915,12 +1927,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:V80"/>
+  <dimension ref="C3:X80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3:L5"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1931,18 +1943,18 @@
     <col min="7" max="9" customWidth="true" style="1" width="10.375" collapsed="false"/>
     <col min="10" max="10" customWidth="true" style="1" width="11.75" collapsed="false"/>
     <col min="11" max="12" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.75" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="15" max="16" customWidth="true" style="1" width="7.75" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="1" width="10.625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="20" max="21" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="1" width="7.375" collapsed="false"/>
-    <col min="23" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="13" max="15" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="22" max="23" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" style="1" width="7.375" collapsed="false"/>
+    <col min="25" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:22">
+    <row r="3" spans="3:24">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2003,4779 +2015,5247 @@
       <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="3:22">
+      <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="3:22">
+        <v>41</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24">
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="21:21">
+        <v>44</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="14:23">
       <c r="C6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="14:23">
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="14:23">
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="J6" t="s">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="14:23">
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="14:23">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="14:23">
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="21:21">
-      <c r="C7" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="14:23">
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="14:23">
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="14:23">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="14:23">
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="8:24">
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="P7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="21:21">
-      <c r="C8" t="s">
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="8:24">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="8:24">
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="6:24">
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="8:21">
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="6:24">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="21:21">
-      <c r="C9" t="s">
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="8:24">
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="21:21">
-      <c r="C10" t="s">
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="8:24">
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" t="s">
-        <v>52</v>
-      </c>
-      <c r="T10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="21:21">
-      <c r="C11" t="s">
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V23" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="9:24">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="21:21">
-      <c r="C12" t="s">
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V24" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" t="s">
+        <v>54</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="8:21">
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" t="s">
-        <v>50</v>
-      </c>
-      <c r="T12" t="s">
-        <v>50</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="21:21">
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="20:21">
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" t="s">
-        <v>50</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="20:21">
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" t="s">
-        <v>52</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="8:22">
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" t="s">
-        <v>50</v>
-      </c>
-      <c r="U16" t="s">
-        <v>50</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="8:22">
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T17" t="s">
-        <v>50</v>
-      </c>
-      <c r="U17" t="s">
-        <v>50</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="8:22">
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T18" t="s">
-        <v>50</v>
-      </c>
-      <c r="U18" t="s">
-        <v>50</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="6:22">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T19" t="s">
-        <v>50</v>
-      </c>
-      <c r="U19" t="s">
-        <v>50</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="8:19">
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T20" t="s">
-        <v>50</v>
-      </c>
-      <c r="U20" t="s">
-        <v>50</v>
-      </c>
-      <c r="V20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="6:22">
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T21" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" t="s">
-        <v>50</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="8:22">
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T22" t="s">
-        <v>50</v>
-      </c>
-      <c r="U22" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="8:22">
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" t="s">
-        <v>50</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T23" t="s">
-        <v>50</v>
-      </c>
-      <c r="U23" t="s">
-        <v>50</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22">
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T24" t="s">
-        <v>50</v>
-      </c>
-      <c r="U24" t="s">
-        <v>50</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="8:19">
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" t="s">
-        <v>64</v>
-      </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" t="s">
-        <v>50</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" t="s">
+        <v>54</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T25" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W25" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W26" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q27" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W27" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W28" t="s">
+        <v>54</v>
+      </c>
+      <c r="X28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q29" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W29" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W30" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W31" t="s">
+        <v>54</v>
+      </c>
+      <c r="X31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
         <v>113</v>
       </c>
-      <c r="D32" t="s">
-        <v>109</v>
-      </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W32" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W33" t="s">
+        <v>54</v>
+      </c>
+      <c r="X33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U34" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W35" t="s">
+        <v>54</v>
+      </c>
+      <c r="X35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q36" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V36" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W36" t="s">
+        <v>54</v>
+      </c>
+      <c r="X36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="D37" t="s">
-        <v>120</v>
-      </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V37" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W37" t="s">
+        <v>54</v>
+      </c>
+      <c r="X37" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V38" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W38" t="s">
+        <v>54</v>
+      </c>
+      <c r="X38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V39" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W39" t="s">
+        <v>54</v>
+      </c>
+      <c r="X39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V40" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X40" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V41" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W41" t="s">
+        <v>54</v>
+      </c>
+      <c r="X41" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
         <v>135</v>
       </c>
-      <c r="D42" t="s">
-        <v>131</v>
-      </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V42" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W42" t="s">
+        <v>54</v>
+      </c>
+      <c r="X42" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T43" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V43" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W43" t="s">
+        <v>54</v>
+      </c>
+      <c r="X43" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U44" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V44" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W44" t="s">
+        <v>54</v>
+      </c>
+      <c r="X44" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U45" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V45" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W45" t="s">
+        <v>54</v>
+      </c>
+      <c r="X45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V46" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W46" t="s">
+        <v>54</v>
+      </c>
+      <c r="X46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
         <v>146</v>
       </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S47" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V47" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W47" t="s">
+        <v>54</v>
+      </c>
+      <c r="X47" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="48" ht="24.0" customHeight="true">
       <c r="C48" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T48" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U48" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V48" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W48" t="s">
+        <v>54</v>
+      </c>
+      <c r="X48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="24.0" customHeight="true">
       <c r="C49" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U49" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V49" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W49" t="s">
+        <v>54</v>
+      </c>
+      <c r="X49" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.0" customHeight="true">
       <c r="C50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U50" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V50" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W50" t="s">
+        <v>54</v>
+      </c>
+      <c r="X50" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" ht="24.0" customHeight="true">
       <c r="C51" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V51" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W51" t="s">
+        <v>54</v>
+      </c>
+      <c r="X51" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="52" ht="24.0" customHeight="true">
       <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
         <v>157</v>
       </c>
-      <c r="D52" t="s">
-        <v>153</v>
-      </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S52" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U52" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V52" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W52" t="s">
+        <v>54</v>
+      </c>
+      <c r="X52" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53" ht="24.0" customHeight="true">
       <c r="C53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T53" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V53" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W53" t="s">
+        <v>54</v>
+      </c>
+      <c r="X53" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="24.0" customHeight="true">
       <c r="C54" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T54" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U54" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V54" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W54" t="s">
+        <v>54</v>
+      </c>
+      <c r="X54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" ht="24.0" customHeight="true">
       <c r="C55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V55" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W55" t="s">
+        <v>54</v>
+      </c>
+      <c r="X55" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" ht="24.0" customHeight="true">
       <c r="C56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q56" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V56" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W56" t="s">
+        <v>54</v>
+      </c>
+      <c r="X56" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" ht="24.0" customHeight="true">
       <c r="C57" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F57" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K57" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V57" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W57" t="s">
+        <v>54</v>
+      </c>
+      <c r="X57" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="24.0" customHeight="true">
       <c r="C58" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q58" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V58" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W58" t="s">
+        <v>54</v>
+      </c>
+      <c r="X58" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="24.0" customHeight="true">
       <c r="C59" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E59" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V59" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W59" t="s">
+        <v>54</v>
+      </c>
+      <c r="X59" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="24.0" customHeight="true">
       <c r="C60" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q60" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V60" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W60" t="s">
+        <v>54</v>
+      </c>
+      <c r="X60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="24.0" customHeight="true">
       <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" t="s">
         <v>178</v>
       </c>
-      <c r="D61" t="s">
-        <v>174</v>
-      </c>
       <c r="E61" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K61" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S61" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V61" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W61" t="s">
+        <v>54</v>
+      </c>
+      <c r="X61" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="24.0" customHeight="true">
       <c r="C62" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K62" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T62" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V62" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W62" t="s">
+        <v>54</v>
+      </c>
+      <c r="X62" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="24.0" customHeight="true">
       <c r="C63" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K63" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T63" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U63" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V63" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W63" t="s">
+        <v>54</v>
+      </c>
+      <c r="X63" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="24.0" customHeight="true">
       <c r="C64" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K64" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U64" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V64" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W64" t="s">
+        <v>54</v>
+      </c>
+      <c r="X64" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="65" ht="24.0" customHeight="true">
       <c r="C65" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K65" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q65" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U65" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V65" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W65" t="s">
+        <v>54</v>
+      </c>
+      <c r="X65" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66" ht="24.0" customHeight="true">
       <c r="C66" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V66" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W66" t="s">
+        <v>54</v>
+      </c>
+      <c r="X66" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="67" ht="24.0" customHeight="true">
       <c r="C67" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K67" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q67" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V67" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W67" t="s">
+        <v>54</v>
+      </c>
+      <c r="X67" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" ht="24.0" customHeight="true">
       <c r="C68" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E68" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K68" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V68" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W68" t="s">
+        <v>54</v>
+      </c>
+      <c r="X68" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="69" ht="24.0" customHeight="true">
       <c r="C69" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K69" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q69" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V69" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W69" t="s">
+        <v>54</v>
+      </c>
+      <c r="X69" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.0" customHeight="true">
       <c r="C70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" t="s">
         <v>199</v>
       </c>
-      <c r="D70" t="s">
-        <v>195</v>
-      </c>
       <c r="E70" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S70" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="T70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U70" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V70" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W70" t="s">
+        <v>54</v>
+      </c>
+      <c r="X70" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="71" ht="24.0" customHeight="true">
       <c r="C71" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K71" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T71" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U71" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V71" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W71" t="s">
+        <v>54</v>
+      </c>
+      <c r="X71" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="24.0" customHeight="true">
       <c r="C72" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K72" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T72" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V72" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W72" t="s">
+        <v>54</v>
+      </c>
+      <c r="X72" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="73" ht="24.0" customHeight="true">
       <c r="C73" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K73" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P73" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U73" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V73" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W73" t="s">
+        <v>54</v>
+      </c>
+      <c r="X73" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="74" ht="24.0" customHeight="true">
       <c r="C74" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K74" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U74" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V74" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W74" t="s">
+        <v>54</v>
+      </c>
+      <c r="X74" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" ht="24.0" customHeight="true">
       <c r="C75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P75" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U75" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V75" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W75" t="s">
+        <v>54</v>
+      </c>
+      <c r="X75" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="24.0" customHeight="true">
       <c r="C76" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K76" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q76" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V76" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W76" t="s">
+        <v>54</v>
+      </c>
+      <c r="X76" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="24.0" customHeight="true">
       <c r="C77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P77" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U77" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V77" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W77" t="s">
+        <v>54</v>
+      </c>
+      <c r="X77" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="24.0" customHeight="true">
       <c r="C78" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q78" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V78" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W78" t="s">
+        <v>54</v>
+      </c>
+      <c r="X78" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="79" ht="24.0" customHeight="true">
       <c r="C79" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K79" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P79" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U79" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V79" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W79" t="s">
+        <v>54</v>
+      </c>
+      <c r="X79" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="80" ht="24.0" customHeight="true">
       <c r="C80" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E80" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G80" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K80" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q80" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="T80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U80" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V80" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="W80" t="s">
+        <v>54</v>
+      </c>
+      <c r="X80" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6794,10 +7274,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:W13"/>
+  <dimension ref="C3:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N$1:O$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6808,19 +7288,19 @@
     <col min="7" max="9" customWidth="true" style="1" width="10.375" collapsed="false"/>
     <col min="10" max="10" customWidth="true" style="1" width="11.75" collapsed="false"/>
     <col min="11" max="12" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="13.75" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="10.375" collapsed="false"/>
-    <col min="15" max="16" customWidth="true" style="1" width="7.75" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" style="1" width="7.5" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" style="1" width="10.625" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" style="1" width="12.625" collapsed="false"/>
-    <col min="20" max="21" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" style="1" width="7.375" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" style="1" width="11.5" collapsed="false"/>
-    <col min="24" max="16384" style="1" width="9.0" collapsed="false"/>
+    <col min="13" max="15" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="22" max="23" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" style="1" width="7.375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" style="1" width="11.5" collapsed="false"/>
+    <col min="26" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:23">
+    <row r="3" s="1" customFormat="1" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6882,162 +7362,180 @@
         <v>19</v>
       </c>
       <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:25">
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:23">
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:23">
+      <c r="Y4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:25">
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="20:20">
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="20:20">
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="20:20">
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="20:20">
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="20:20">
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="20:20">
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="20:20">
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="20:20">
-      <c r="T13" s="3"/>
+      <c r="X5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="22:22">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="22:22">
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="22:22">
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="22:22">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="22:22">
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="22:22">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="22:22">
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="22:22">
+      <c r="V13" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -411,13 +411,73 @@
     <t>string</t>
   </si>
   <si>
+    <t>效果参数</t>
+  </si>
+  <si>
+    <t>EffectParam</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>火墙·多行</t>
+  </si>
+  <si>
+    <t>增加一行范围</t>
+  </si>
+  <si>
+    <t>火墙·多列</t>
+  </si>
+  <si>
+    <t>增加一列范围</t>
+  </si>
+  <si>
+    <t>爆裂火焰·多行</t>
+  </si>
+  <si>
+    <t>爆裂火焰·多列</t>
+  </si>
+  <si>
+    <t>冰咆哮·多行</t>
+  </si>
+  <si>
+    <t>冰咆哮·多列</t>
+  </si>
+  <si>
+    <t>小火球·多重</t>
+  </si>
+  <si>
+    <t>增加一个攻击目标</t>
+  </si>
+  <si>
+    <t>雷电术·多重</t>
+  </si>
+  <si>
+    <t>刺杀·远攻</t>
+  </si>
+  <si>
+    <t>增加一格攻击范围</t>
+  </si>
+  <si>
+    <t>召唤骷髅·复制</t>
+  </si>
+  <si>
+    <t>多召唤一个骷髅</t>
+  </si>
+  <si>
+    <t>召唤神兽·复制</t>
+  </si>
+  <si>
+    <t>多召唤一只神兽</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
     <t>1001</t>
   </si>
   <si>
-    <t>基础剑术·强化</t>
+    <t>基础剑术·系数加强</t>
   </si>
   <si>
     <t>增加20技能系数</t>
@@ -438,7 +498,7 @@
     <t>10002</t>
   </si>
   <si>
-    <t>基础剑术·固伤</t>
+    <t>基础剑术·伤害加强</t>
   </si>
   <si>
     <t>增加20*技能等级*装备等级点技能固伤</t>
@@ -447,7 +507,7 @@
     <t>10003</t>
   </si>
   <si>
-    <t>基础剑术·致命</t>
+    <t>基础剑术·暴击</t>
   </si>
   <si>
     <t>增加20%暴击率</t>
@@ -477,19 +537,19 @@
     <t>1002</t>
   </si>
   <si>
-    <t>刺杀剑术·强化</t>
+    <t>刺杀剑术·系数加强</t>
   </si>
   <si>
     <t>10007</t>
   </si>
   <si>
-    <t>刺杀剑术·固伤</t>
+    <t>刺杀剑术·伤害加强</t>
   </si>
   <si>
     <t>10008</t>
   </si>
   <si>
-    <t>刺杀剑术·致命</t>
+    <t>刺杀剑术·暴击</t>
   </si>
   <si>
     <t>10009</t>
@@ -510,19 +570,19 @@
     <t>1003</t>
   </si>
   <si>
-    <t>半月弯刀·强化</t>
+    <t>半月弯刀·系数加强</t>
   </si>
   <si>
     <t>10012</t>
   </si>
   <si>
-    <t>半月弯刀·固伤</t>
+    <t>半月弯刀·伤害加强</t>
   </si>
   <si>
     <t>10013</t>
   </si>
   <si>
-    <t>半月弯刀·致命</t>
+    <t>半月弯刀·暴击</t>
   </si>
   <si>
     <t>10014</t>
@@ -543,19 +603,19 @@
     <t>1004</t>
   </si>
   <si>
-    <t>野蛮撞击·强化</t>
+    <t>野蛮撞击·系数加强</t>
   </si>
   <si>
     <t>10017</t>
   </si>
   <si>
-    <t>野蛮撞击·固伤</t>
+    <t>野蛮撞击·伤害加强</t>
   </si>
   <si>
     <t>10018</t>
   </si>
   <si>
-    <t>野蛮撞击·致命</t>
+    <t>野蛮撞击·暴击</t>
   </si>
   <si>
     <t>10019</t>
@@ -576,13 +636,13 @@
     <t>1005</t>
   </si>
   <si>
-    <t>武力盾·强化</t>
+    <t>武力盾·系数加强</t>
   </si>
   <si>
     <t>10022</t>
   </si>
   <si>
-    <t>武力盾·固伤</t>
+    <t>武力盾·伤害加强</t>
   </si>
   <si>
     <t>10023</t>
@@ -591,13 +651,13 @@
     <t>1006</t>
   </si>
   <si>
-    <t>武力精通·强化</t>
+    <t>武力精通·系数加强</t>
   </si>
   <si>
     <t>10024</t>
   </si>
   <si>
-    <t>武力精通·固伤</t>
+    <t>武力精通·伤害加强</t>
   </si>
   <si>
     <t>10025</t>
@@ -606,19 +666,19 @@
     <t>1007</t>
   </si>
   <si>
-    <t>烈火剑法·强化</t>
+    <t>烈火剑法·系数加强</t>
   </si>
   <si>
     <t>10026</t>
   </si>
   <si>
-    <t>烈火剑法·固伤</t>
+    <t>烈火剑法·伤害加强</t>
   </si>
   <si>
     <t>10027</t>
   </si>
   <si>
-    <t>烈火剑法·致命</t>
+    <t>烈火剑法·暴击</t>
   </si>
   <si>
     <t>10028</t>
@@ -639,19 +699,19 @@
     <t>2001</t>
   </si>
   <si>
-    <t>小火球·强化</t>
+    <t>小火球·系数加强</t>
   </si>
   <si>
     <t>10031</t>
   </si>
   <si>
-    <t>小火球·固伤</t>
+    <t>小火球·伤害加强</t>
   </si>
   <si>
     <t>10032</t>
   </si>
   <si>
-    <t>小火球·致命</t>
+    <t>小火球·暴击</t>
   </si>
   <si>
     <t>10033</t>
@@ -672,19 +732,19 @@
     <t>2002</t>
   </si>
   <si>
-    <t>雷电术·强化</t>
+    <t>雷电术·系数加强</t>
   </si>
   <si>
     <t>10036</t>
   </si>
   <si>
-    <t>雷电术·固伤</t>
+    <t>雷电术·伤害加强</t>
   </si>
   <si>
     <t>10037</t>
   </si>
   <si>
-    <t>雷电术·致命</t>
+    <t>雷电术·暴击</t>
   </si>
   <si>
     <t>10038</t>
@@ -705,19 +765,19 @@
     <t>2003</t>
   </si>
   <si>
-    <t>火墙·强化</t>
+    <t>火墙·系数加强</t>
   </si>
   <si>
     <t>10041</t>
   </si>
   <si>
-    <t>火墙·固伤</t>
+    <t>火墙·伤害加强</t>
   </si>
   <si>
     <t>10042</t>
   </si>
   <si>
-    <t>火墙·致命</t>
+    <t>火墙·暴击</t>
   </si>
   <si>
     <t>10043</t>
@@ -738,19 +798,19 @@
     <t>2004</t>
   </si>
   <si>
-    <t>爆裂火焰·强化</t>
+    <t>爆裂火焰·系数加强</t>
   </si>
   <si>
     <t>10046</t>
   </si>
   <si>
-    <t>爆裂火焰·固伤</t>
+    <t>爆裂火焰·伤害加强</t>
   </si>
   <si>
     <t>10047</t>
   </si>
   <si>
-    <t>爆裂火焰·致命</t>
+    <t>爆裂火焰·暴击</t>
   </si>
   <si>
     <t>10048</t>
@@ -771,13 +831,13 @@
     <t>2005</t>
   </si>
   <si>
-    <t>魔法盾·强化</t>
+    <t>魔法盾·系数加强</t>
   </si>
   <si>
     <t>10051</t>
   </si>
   <si>
-    <t>魔法盾·固伤</t>
+    <t>魔法盾·伤害加强</t>
   </si>
   <si>
     <t>10052</t>
@@ -786,13 +846,13 @@
     <t>2006</t>
   </si>
   <si>
-    <t>法术精通·强化</t>
+    <t>法术精通·系数加强</t>
   </si>
   <si>
     <t>10053</t>
   </si>
   <si>
-    <t>法术精通·固伤</t>
+    <t>法术精通·伤害加强</t>
   </si>
   <si>
     <t>10054</t>
@@ -801,19 +861,19 @@
     <t>2007</t>
   </si>
   <si>
-    <t>冰咆哮·强化</t>
+    <t>冰咆哮·系数加强</t>
   </si>
   <si>
     <t>10055</t>
   </si>
   <si>
-    <t>冰咆哮·固伤</t>
+    <t>冰咆哮·伤害加强</t>
   </si>
   <si>
     <t>10056</t>
   </si>
   <si>
-    <t>冰咆哮·致命</t>
+    <t>冰咆哮·暴击</t>
   </si>
   <si>
     <t>10057</t>
@@ -834,13 +894,13 @@
     <t>3001</t>
   </si>
   <si>
-    <t>治疗术·强化</t>
+    <t>治疗术·系数加强</t>
   </si>
   <si>
     <t>10060</t>
   </si>
   <si>
-    <t>治疗术·固伤</t>
+    <t>治疗术·伤害加强</t>
   </si>
   <si>
     <t>10061</t>
@@ -849,13 +909,13 @@
     <t>3002</t>
   </si>
   <si>
-    <t>火符术·强化</t>
+    <t>火符术·系数加强</t>
   </si>
   <si>
     <t>10062</t>
   </si>
   <si>
-    <t>火符术·固伤</t>
+    <t>火符术·伤害加强</t>
   </si>
   <si>
     <t>10063</t>
@@ -864,19 +924,19 @@
     <t>3003</t>
   </si>
   <si>
-    <t>施毒术·强化</t>
+    <t>施毒术·系数加强</t>
   </si>
   <si>
     <t>10064</t>
   </si>
   <si>
-    <t>施毒术·固伤</t>
+    <t>施毒术·伤害加强</t>
   </si>
   <si>
     <t>10065</t>
   </si>
   <si>
-    <t>施毒术·致命</t>
+    <t>施毒术·暴击</t>
   </si>
   <si>
     <t>10066</t>
@@ -897,13 +957,13 @@
     <t>3004</t>
   </si>
   <si>
-    <t>召唤骷髅·强化</t>
+    <t>召唤骷髅·系数加强</t>
   </si>
   <si>
     <t>10069</t>
   </si>
   <si>
-    <t>召唤骷髅·固伤</t>
+    <t>召唤骷髅·伤害加强</t>
   </si>
   <si>
     <t>10070</t>
@@ -912,13 +972,13 @@
     <t>3005</t>
   </si>
   <si>
-    <t>道力盾·强化</t>
+    <t>道力盾·系数加强</t>
   </si>
   <si>
     <t>10071</t>
   </si>
   <si>
-    <t>道力盾·固伤</t>
+    <t>道力盾·伤害加强</t>
   </si>
   <si>
     <t>10072</t>
@@ -927,13 +987,13 @@
     <t>3006</t>
   </si>
   <si>
-    <t>道力精通·强化</t>
+    <t>道力精通·系数加强</t>
   </si>
   <si>
     <t>10073</t>
   </si>
   <si>
-    <t>道力精通·固伤</t>
+    <t>道力精通·伤害加强</t>
   </si>
   <si>
     <t>10074</t>
@@ -942,73 +1002,13 @@
     <t>3007</t>
   </si>
   <si>
-    <t>召唤神兽·强化</t>
+    <t>召唤神兽·系数加强</t>
   </si>
   <si>
     <t>10075</t>
   </si>
   <si>
-    <t>召唤神兽·固伤</t>
-  </si>
-  <si>
-    <t>效果参数</t>
-  </si>
-  <si>
-    <t>EffectParam</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>火墙·多行</t>
-  </si>
-  <si>
-    <t>增加一行范围</t>
-  </si>
-  <si>
-    <t>火墙·多列</t>
-  </si>
-  <si>
-    <t>增加一列范围</t>
-  </si>
-  <si>
-    <t>爆裂火焰·多行</t>
-  </si>
-  <si>
-    <t>爆裂火焰·多列</t>
-  </si>
-  <si>
-    <t>冰咆哮·多行</t>
-  </si>
-  <si>
-    <t>冰咆哮·多列</t>
-  </si>
-  <si>
-    <t>小火球·多重</t>
-  </si>
-  <si>
-    <t>增加一个攻击目标</t>
-  </si>
-  <si>
-    <t>雷电术·多重</t>
-  </si>
-  <si>
-    <t>刺杀·远攻</t>
-  </si>
-  <si>
-    <t>增加一格攻击范围</t>
-  </si>
-  <si>
-    <t>召唤骷髅·复制</t>
-  </si>
-  <si>
-    <t>多召唤一个骷髅</t>
-  </si>
-  <si>
-    <t>召唤神兽·复制</t>
-  </si>
-  <si>
-    <t>多召唤一只神兽</t>
+    <t>召唤神兽·伤害加强</t>
   </si>
 </sst>
 </file>
@@ -1981,28 +1981,28 @@
   <dimension ref="C3:X80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="7.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="1" max="4" style="1" width="9.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.125" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="1" width="11.75" collapsed="false"/>
+    <col min="11" max="12" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="13" max="15" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="22" max="23" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" style="1" width="7.375" collapsed="false"/>
+    <col min="25" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:24">
@@ -2209,5104 +2209,5104 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="3:24">
+    <row r="6" s="3" customFormat="1" spans="14:23">
       <c r="C6" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="14:23">
       <c r="C7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="14:23">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="14:23">
       <c r="C9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="14:23">
       <c r="C10" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="14:23">
       <c r="C11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="14:23">
       <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="14:23">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s">
+        <v>71</v>
+      </c>
+      <c r="V13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="14:23">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="14:23">
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="8:24">
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G16" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T12" t="s">
-        <v>51</v>
-      </c>
-      <c r="U12" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" t="s">
-        <v>51</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="3:24">
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" t="s">
-        <v>51</v>
-      </c>
-      <c r="V13" t="s">
-        <v>51</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="3:24">
-      <c r="C14" t="s">
+      <c r="H16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P14" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" t="s">
-        <v>51</v>
-      </c>
-      <c r="T14" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" t="s">
-        <v>51</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="3:24">
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s">
+        <v>71</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="8:24">
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S15" t="s">
-        <v>51</v>
-      </c>
-      <c r="T15" t="s">
-        <v>51</v>
-      </c>
-      <c r="U15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="3:24">
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="8:24">
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
         <v>79</v>
       </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V16" t="s">
-        <v>51</v>
-      </c>
-      <c r="W16" t="s">
-        <v>51</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="3:24">
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>53</v>
-      </c>
-      <c r="R17" t="s">
-        <v>51</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V17" t="s">
-        <v>51</v>
-      </c>
-      <c r="W17" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24">
-      <c r="C18" t="s">
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="6:24">
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V18" t="s">
-        <v>51</v>
-      </c>
-      <c r="W18" t="s">
-        <v>51</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24">
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s">
+        <v>71</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="8:21">
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V19" t="s">
-        <v>51</v>
-      </c>
-      <c r="W19" t="s">
-        <v>51</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24">
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="N20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V20" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W20" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:24">
       <c r="C21" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="8:24">
       <c r="C22" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="N22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="8:24">
       <c r="C23" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="N23" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W23" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="9:24">
       <c r="C24" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V24" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W24" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="8:21">
       <c r="C25" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="N25" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
       </c>
       <c r="P25" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V25" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W25" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q29" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W29" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W30" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W33" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U34" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W34" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W36" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W37" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T38" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W38" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U39" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W39" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P40" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W40" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q41" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T43" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U44" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W44" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P45" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W45" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q46" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W46" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S47" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W47" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" ht="24.0" customHeight="true">
       <c r="C48" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T48" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W48" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" ht="24.0" customHeight="true">
       <c r="C49" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U49" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W49" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" ht="24.0" customHeight="true">
       <c r="C50" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P50" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W50" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" ht="24.0" customHeight="true">
       <c r="C51" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q51" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" ht="24.0" customHeight="true">
       <c r="C52" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K52" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S52" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W52" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" ht="24.0" customHeight="true">
       <c r="C53" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T53" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W53" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" ht="24.0" customHeight="true">
       <c r="C54" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K54" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U54" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W54" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" ht="24.0" customHeight="true">
       <c r="C55" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P55" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W55" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" ht="24.0" customHeight="true">
       <c r="C56" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q56" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W56" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" ht="24.0" customHeight="true">
       <c r="C57" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K57" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P57" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W57" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" ht="24.0" customHeight="true">
       <c r="C58" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q58" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W58" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X58" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" ht="24.0" customHeight="true">
       <c r="C59" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P59" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W59" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" ht="24.0" customHeight="true">
       <c r="C60" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q60" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W60" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" ht="24.0" customHeight="true">
       <c r="C61" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K61" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S61" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W61" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" ht="24.0" customHeight="true">
       <c r="C62" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T62" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W62" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" ht="24.0" customHeight="true">
       <c r="C63" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K63" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U63" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" ht="24.0" customHeight="true">
       <c r="C64" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K64" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P64" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W64" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" ht="24.0" customHeight="true">
       <c r="C65" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K65" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q65" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W65" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" ht="24.0" customHeight="true">
       <c r="C66" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K66" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P66" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W66" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" ht="24.0" customHeight="true">
       <c r="C67" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q67" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W67" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" ht="24.0" customHeight="true">
       <c r="C68" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K68" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P68" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W68" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" ht="24.0" customHeight="true">
       <c r="C69" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E69" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q69" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W69" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" ht="24.0" customHeight="true">
       <c r="C70" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K70" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S70" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="T70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W70" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" ht="24.0" customHeight="true">
       <c r="C71" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K71" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T71" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="U71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W71" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X71" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="72" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" ht="24.0" customHeight="true">
       <c r="C72" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K72" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U72" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="V72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W72" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" ht="24.0" customHeight="true">
       <c r="C73" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G73" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K73" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P73" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W73" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" ht="24.0" customHeight="true">
       <c r="C74" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K74" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q74" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" ht="24.0" customHeight="true">
       <c r="C75" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F75" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K75" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P75" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W75" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" ht="24.0" customHeight="true">
       <c r="C76" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q76" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W76" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" ht="24.0" customHeight="true">
       <c r="C77" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="F77" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P77" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W77" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X77" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" ht="24.0" customHeight="true">
       <c r="C78" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K78" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q78" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W78" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" ht="24.0" customHeight="true">
       <c r="C79" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K79" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P79" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="Q79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W79" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" ht="24" customHeight="1" spans="3:24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" ht="24.0" customHeight="true">
       <c r="C80" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E80" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="Q80" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="R80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="S80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="U80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="X80" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7325,30 +7325,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:Y16"/>
+  <dimension ref="C3:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="7.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="1" max="4" style="1" width="9.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="22.125" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="1" width="11.75" collapsed="false"/>
+    <col min="11" max="12" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="13" max="15" customWidth="true" style="1" width="13.75" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" style="1" width="10.375" collapsed="false"/>
+    <col min="17" max="18" customWidth="true" style="1" width="7.75" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" style="1" width="7.5" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="1" width="10.625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="false"/>
+    <col min="22" max="23" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" style="1" width="7.375" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" style="1" width="11.5" collapsed="false"/>
+    <col min="26" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" spans="3:25">
@@ -7419,7 +7419,7 @@
         <v>21</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:25">
@@ -7490,7 +7490,7 @@
         <v>43</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>227</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:25">
@@ -7561,12 +7561,10 @@
         <v>44</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -7574,10 +7572,10 @@
         <v>2003</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -7591,7 +7589,6 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -7628,12 +7625,8 @@
       <c r="W6" s="1">
         <v>0</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    </row>
+    <row r="7" spans="3:23">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -7641,10 +7634,10 @@
         <v>2003</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -7658,7 +7651,6 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1"/>
       <c r="L7" s="1">
         <v>0</v>
       </c>
@@ -7695,12 +7687,8 @@
       <c r="W7" s="1">
         <v>0</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    </row>
+    <row r="8" spans="3:23">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -7708,10 +7696,10 @@
         <v>2004</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>233</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -7725,7 +7713,6 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
       <c r="L8" s="1">
         <v>0</v>
       </c>
@@ -7762,12 +7749,8 @@
       <c r="W8" s="1">
         <v>0</v>
       </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    </row>
+    <row r="9" spans="3:23">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -7775,10 +7758,10 @@
         <v>2004</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -7792,7 +7775,6 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1"/>
       <c r="L9" s="1">
         <v>0</v>
       </c>
@@ -7829,12 +7811,8 @@
       <c r="W9" s="1">
         <v>0</v>
       </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    </row>
+    <row r="10" spans="3:23">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -7842,10 +7820,10 @@
         <v>2007</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -7859,7 +7837,6 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1"/>
       <c r="L10" s="1">
         <v>0</v>
       </c>
@@ -7896,12 +7873,8 @@
       <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    </row>
+    <row r="11" spans="3:23">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -7909,10 +7882,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -7926,7 +7899,6 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1">
         <v>0</v>
       </c>
@@ -7963,12 +7935,8 @@
       <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    </row>
+    <row r="12" spans="3:23">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -7976,10 +7944,10 @@
         <v>2001</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -7993,7 +7961,6 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1"/>
       <c r="L12" s="1">
         <v>0</v>
       </c>
@@ -8030,12 +7997,8 @@
       <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    </row>
+    <row r="13" spans="3:23">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -8043,10 +8006,10 @@
         <v>2002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -8060,7 +8023,6 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1"/>
       <c r="L13" s="1">
         <v>0</v>
       </c>
@@ -8097,12 +8059,8 @@
       <c r="W13" s="1">
         <v>0</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    </row>
+    <row r="14" spans="3:23">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -8110,10 +8068,10 @@
         <v>1002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -8127,7 +8085,6 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="1">
         <v>0</v>
       </c>
@@ -8164,12 +8121,8 @@
       <c r="W14" s="1">
         <v>0</v>
       </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    </row>
+    <row r="15" spans="3:23">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -8177,10 +8130,10 @@
         <v>3004</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -8194,7 +8147,6 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1"/>
       <c r="L15" s="1">
         <v>0</v>
       </c>
@@ -8231,12 +8183,8 @@
       <c r="W15" s="1">
         <v>0</v>
       </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    </row>
+    <row r="16" spans="3:23">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -8244,10 +8192,10 @@
         <v>3007</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -8261,7 +8209,6 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1"/>
       <c r="L16" s="1">
         <v>0</v>
       </c>
@@ -8298,8 +8245,6 @@
       <c r="W16" s="1">
         <v>0</v>
       </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="230">
   <si>
     <t>_ID</t>
   </si>
@@ -471,6 +471,15 @@
     <t>多召唤一只神兽</t>
   </si>
   <si>
+    <t>雷电术·鹰眼</t>
+  </si>
+  <si>
+    <t>增加一格攻击距离</t>
+  </si>
+  <si>
+    <t>小火球·鹰眼</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
@@ -480,7 +489,7 @@
     <t>基础剑术·系数加强</t>
   </si>
   <si>
-    <t>增加20技能系数</t>
+    <t>增加20%技能系数</t>
   </si>
   <si>
     <t>99</t>
@@ -501,7 +510,10 @@
     <t>基础剑术·伤害加强</t>
   </si>
   <si>
-    <t>增加20*技能等级*装备等级点技能固伤</t>
+    <t>增加2000*技能等级点伤害</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
   <si>
     <t>10003</t>
@@ -642,379 +654,319 @@
     <t>10022</t>
   </si>
   <si>
-    <t>武力盾·伤害加强</t>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>武力精通·系数加强</t>
   </si>
   <si>
     <t>10023</t>
   </si>
   <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>武力精通·系数加强</t>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>烈火剑法·系数加强</t>
   </si>
   <si>
     <t>10024</t>
   </si>
   <si>
-    <t>武力精通·伤害加强</t>
+    <t>烈火剑法·伤害加强</t>
   </si>
   <si>
     <t>10025</t>
   </si>
   <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>烈火剑法·系数加强</t>
+    <t>烈火剑法·暴击</t>
   </si>
   <si>
     <t>10026</t>
   </si>
   <si>
-    <t>烈火剑法·伤害加强</t>
+    <t>烈火剑法·暴伤</t>
   </si>
   <si>
     <t>10027</t>
   </si>
   <si>
-    <t>烈火剑法·暴击</t>
+    <t>烈火剑法·易伤</t>
   </si>
   <si>
     <t>10028</t>
   </si>
   <si>
-    <t>烈火剑法·暴伤</t>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>小火球·系数加强</t>
   </si>
   <si>
     <t>10029</t>
   </si>
   <si>
-    <t>烈火剑法·易伤</t>
+    <t>小火球·伤害加强</t>
   </si>
   <si>
     <t>10030</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>小火球·系数加强</t>
+    <t>小火球·暴击</t>
   </si>
   <si>
     <t>10031</t>
   </si>
   <si>
-    <t>小火球·伤害加强</t>
+    <t>小火球·暴伤</t>
   </si>
   <si>
     <t>10032</t>
   </si>
   <si>
-    <t>小火球·暴击</t>
+    <t>小火球·易伤</t>
   </si>
   <si>
     <t>10033</t>
   </si>
   <si>
-    <t>小火球·暴伤</t>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>雷电术·系数加强</t>
   </si>
   <si>
     <t>10034</t>
   </si>
   <si>
-    <t>小火球·易伤</t>
+    <t>雷电术·伤害加强</t>
   </si>
   <si>
     <t>10035</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>雷电术·系数加强</t>
+    <t>雷电术·暴击</t>
   </si>
   <si>
     <t>10036</t>
   </si>
   <si>
-    <t>雷电术·伤害加强</t>
+    <t>雷电术·暴伤</t>
   </si>
   <si>
     <t>10037</t>
   </si>
   <si>
-    <t>雷电术·暴击</t>
+    <t>雷电术·易伤</t>
   </si>
   <si>
     <t>10038</t>
   </si>
   <si>
-    <t>雷电术·暴伤</t>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>火墙·系数加强</t>
   </si>
   <si>
     <t>10039</t>
   </si>
   <si>
-    <t>雷电术·易伤</t>
+    <t>火墙·伤害加强</t>
   </si>
   <si>
     <t>10040</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>火墙·系数加强</t>
+    <t>火墙·暴击</t>
   </si>
   <si>
     <t>10041</t>
   </si>
   <si>
-    <t>火墙·伤害加强</t>
+    <t>火墙·暴伤</t>
   </si>
   <si>
     <t>10042</t>
   </si>
   <si>
-    <t>火墙·暴击</t>
+    <t>火墙·易伤</t>
   </si>
   <si>
     <t>10043</t>
   </si>
   <si>
-    <t>火墙·暴伤</t>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>爆裂火焰·系数加强</t>
   </si>
   <si>
     <t>10044</t>
   </si>
   <si>
-    <t>火墙·易伤</t>
+    <t>爆裂火焰·伤害加强</t>
   </si>
   <si>
     <t>10045</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>爆裂火焰·系数加强</t>
+    <t>爆裂火焰·暴击</t>
   </si>
   <si>
     <t>10046</t>
   </si>
   <si>
-    <t>爆裂火焰·伤害加强</t>
+    <t>爆裂火焰·暴伤</t>
   </si>
   <si>
     <t>10047</t>
   </si>
   <si>
-    <t>爆裂火焰·暴击</t>
+    <t>爆裂火焰·易伤</t>
   </si>
   <si>
     <t>10048</t>
   </si>
   <si>
-    <t>爆裂火焰·暴伤</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>魔法盾·系数加强</t>
   </si>
   <si>
     <t>10049</t>
   </si>
   <si>
-    <t>爆裂火焰·易伤</t>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>法术精通·系数加强</t>
   </si>
   <si>
     <t>10050</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>魔法盾·系数加强</t>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>冰咆哮·系数加强</t>
   </si>
   <si>
     <t>10051</t>
   </si>
   <si>
-    <t>魔法盾·伤害加强</t>
+    <t>冰咆哮·伤害加强</t>
   </si>
   <si>
     <t>10052</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>法术精通·系数加强</t>
+    <t>冰咆哮·暴击</t>
   </si>
   <si>
     <t>10053</t>
   </si>
   <si>
-    <t>法术精通·伤害加强</t>
+    <t>冰咆哮·暴伤</t>
   </si>
   <si>
     <t>10054</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>冰咆哮·系数加强</t>
+    <t>冰咆哮·易伤</t>
   </si>
   <si>
     <t>10055</t>
   </si>
   <si>
-    <t>冰咆哮·伤害加强</t>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>治疗术·系数加强</t>
   </si>
   <si>
     <t>10056</t>
   </si>
   <si>
-    <t>冰咆哮·暴击</t>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>火符术·系数加强</t>
   </si>
   <si>
     <t>10057</t>
   </si>
   <si>
-    <t>冰咆哮·暴伤</t>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>施毒术·系数加强</t>
   </si>
   <si>
     <t>10058</t>
   </si>
   <si>
-    <t>冰咆哮·易伤</t>
+    <t>施毒术·伤害加强</t>
   </si>
   <si>
     <t>10059</t>
   </si>
   <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>治疗术·系数加强</t>
+    <t>施毒术·暴击</t>
   </si>
   <si>
     <t>10060</t>
   </si>
   <si>
-    <t>治疗术·伤害加强</t>
+    <t>施毒术·暴伤</t>
   </si>
   <si>
     <t>10061</t>
   </si>
   <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>火符术·系数加强</t>
+    <t>施毒术·易伤</t>
   </si>
   <si>
     <t>10062</t>
   </si>
   <si>
-    <t>火符术·伤害加强</t>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>召唤骷髅·系数加强</t>
   </si>
   <si>
     <t>10063</t>
   </si>
   <si>
-    <t>3003</t>
-  </si>
-  <si>
-    <t>施毒术·系数加强</t>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>道力盾·系数加强</t>
   </si>
   <si>
     <t>10064</t>
   </si>
   <si>
-    <t>施毒术·伤害加强</t>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>道力精通·系数加强</t>
   </si>
   <si>
     <t>10065</t>
   </si>
   <si>
-    <t>施毒术·暴击</t>
-  </si>
-  <si>
-    <t>10066</t>
-  </si>
-  <si>
-    <t>施毒术·暴伤</t>
-  </si>
-  <si>
-    <t>10067</t>
-  </si>
-  <si>
-    <t>施毒术·易伤</t>
-  </si>
-  <si>
-    <t>10068</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>召唤骷髅·系数加强</t>
-  </si>
-  <si>
-    <t>10069</t>
-  </si>
-  <si>
-    <t>召唤骷髅·伤害加强</t>
-  </si>
-  <si>
-    <t>10070</t>
-  </si>
-  <si>
-    <t>3005</t>
-  </si>
-  <si>
-    <t>道力盾·系数加强</t>
-  </si>
-  <si>
-    <t>10071</t>
-  </si>
-  <si>
-    <t>道力盾·伤害加强</t>
-  </si>
-  <si>
-    <t>10072</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>道力精通·系数加强</t>
-  </si>
-  <si>
-    <t>10073</t>
-  </si>
-  <si>
-    <t>道力精通·伤害加强</t>
-  </si>
-  <si>
-    <t>10074</t>
-  </si>
-  <si>
     <t>3007</t>
   </si>
   <si>
     <t>召唤神兽·系数加强</t>
-  </si>
-  <si>
-    <t>10075</t>
-  </si>
-  <si>
-    <t>召唤神兽·伤害加强</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1043,34 +995,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1084,14 +1008,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,6 +1047,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1181,7 +1112,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,55 +1165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,31 +1189,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,6 +1225,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1339,7 +1249,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,7 +1297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,6 +1333,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1404,21 +1356,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1451,6 +1388,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,148 +1459,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1662,52 +1614,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1978,12 +1930,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:X80"/>
+  <dimension ref="C3:X70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2211,5102 +2163,4422 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="14:23">
       <c r="C6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="14:23">
       <c r="C7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="14:23">
       <c r="C8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="14:23">
       <c r="C9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="14:23">
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="14:23">
       <c r="C11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="14:23">
       <c r="C12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="14:23">
       <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="14:23">
       <c r="C14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="14:23">
       <c r="C15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="8:24">
       <c r="C16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="8:24">
       <c r="C17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="8:24">
       <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="6:24">
       <c r="C19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="8:21">
       <c r="C20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="6:24">
       <c r="C21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="8:24">
       <c r="C22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="8:24">
       <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
         <v>113</v>
       </c>
-      <c r="D23" t="s">
-        <v>109</v>
-      </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="9:24">
       <c r="C24" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="8:21">
       <c r="C25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="24.0" customHeight="true">
       <c r="C26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="24.0" customHeight="true">
       <c r="C27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s">
         <v>76</v>
       </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" t="s">
-        <v>71</v>
-      </c>
-      <c r="M27" t="s">
-        <v>71</v>
-      </c>
-      <c r="N27" t="s">
-        <v>71</v>
-      </c>
-      <c r="O27" t="s">
-        <v>71</v>
-      </c>
-      <c r="P27" t="s">
-        <v>71</v>
-      </c>
       <c r="Q27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" ht="24.0" customHeight="true">
       <c r="C28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" ht="24.0" customHeight="true">
       <c r="C29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q29" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="24.0" customHeight="true">
       <c r="C30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
         <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" ht="24.0" customHeight="true">
       <c r="C31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
         <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" t="s">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s">
         <v>76</v>
       </c>
-      <c r="G31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" t="s">
-        <v>71</v>
-      </c>
-      <c r="N31" t="s">
-        <v>71</v>
-      </c>
-      <c r="O31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P31" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>73</v>
-      </c>
-      <c r="R31" t="s">
-        <v>71</v>
-      </c>
-      <c r="S31" t="s">
-        <v>71</v>
-      </c>
-      <c r="T31" t="s">
-        <v>71</v>
-      </c>
       <c r="U31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" ht="24.0" customHeight="true">
       <c r="C32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="24.0" customHeight="true">
       <c r="C33" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P33" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="24.0" customHeight="true">
       <c r="C34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q34" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" ht="24.0" customHeight="true">
       <c r="C35" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
         <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" ht="24.0" customHeight="true">
       <c r="C36" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
         <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" t="s">
+        <v>74</v>
+      </c>
+      <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>74</v>
+      </c>
+      <c r="R36" t="s">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s">
         <v>76</v>
       </c>
-      <c r="G36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" t="s">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L36" t="s">
-        <v>71</v>
-      </c>
-      <c r="M36" t="s">
-        <v>71</v>
-      </c>
-      <c r="N36" t="s">
-        <v>71</v>
-      </c>
-      <c r="O36" t="s">
-        <v>71</v>
-      </c>
-      <c r="P36" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>73</v>
-      </c>
-      <c r="R36" t="s">
-        <v>71</v>
-      </c>
-      <c r="S36" t="s">
-        <v>71</v>
-      </c>
-      <c r="T36" t="s">
-        <v>71</v>
-      </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" ht="24.0" customHeight="true">
       <c r="C37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
         <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" ht="24.0" customHeight="true">
       <c r="C38" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="true">
       <c r="C39" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q39" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" ht="24.0" customHeight="true">
       <c r="C40" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
         <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" ht="24.0" customHeight="true">
       <c r="C41" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
         <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>74</v>
+      </c>
+      <c r="R41" t="s">
+        <v>74</v>
+      </c>
+      <c r="S41" t="s">
+        <v>74</v>
+      </c>
+      <c r="T41" t="s">
         <v>76</v>
       </c>
-      <c r="G41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" t="s">
-        <v>71</v>
-      </c>
-      <c r="K41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L41" t="s">
-        <v>71</v>
-      </c>
-      <c r="M41" t="s">
-        <v>71</v>
-      </c>
-      <c r="N41" t="s">
-        <v>71</v>
-      </c>
-      <c r="O41" t="s">
-        <v>71</v>
-      </c>
-      <c r="P41" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>73</v>
-      </c>
-      <c r="R41" t="s">
-        <v>71</v>
-      </c>
-      <c r="S41" t="s">
-        <v>71</v>
-      </c>
-      <c r="T41" t="s">
-        <v>71</v>
-      </c>
       <c r="U41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" ht="24.0" customHeight="true">
       <c r="C42" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
         <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="24.0" customHeight="true">
       <c r="C43" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" ht="24.0" customHeight="true">
       <c r="C44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q44" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" ht="24.0" customHeight="true">
       <c r="C45" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
         <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="24.0" customHeight="true">
       <c r="C46" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
         <v>163</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>74</v>
+      </c>
+      <c r="R46" t="s">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s">
+        <v>74</v>
+      </c>
+      <c r="T46" t="s">
         <v>76</v>
       </c>
-      <c r="G46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-      <c r="J46" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" t="s">
-        <v>72</v>
-      </c>
-      <c r="L46" t="s">
-        <v>71</v>
-      </c>
-      <c r="M46" t="s">
-        <v>71</v>
-      </c>
-      <c r="N46" t="s">
-        <v>71</v>
-      </c>
-      <c r="O46" t="s">
-        <v>71</v>
-      </c>
-      <c r="P46" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s">
-        <v>71</v>
-      </c>
-      <c r="S46" t="s">
-        <v>71</v>
-      </c>
-      <c r="T46" t="s">
-        <v>71</v>
-      </c>
       <c r="U46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="24.0" customHeight="true">
       <c r="C47" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
         <v>163</v>
       </c>
       <c r="E47" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="24.0" customHeight="true">
       <c r="C48" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P48" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="24.0" customHeight="true">
       <c r="C49" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q49" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="24.0" customHeight="true">
       <c r="C50" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D50" t="s">
         <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" ht="24.0" customHeight="true">
       <c r="C51" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
         <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" t="s">
+        <v>74</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>74</v>
+      </c>
+      <c r="R51" t="s">
+        <v>74</v>
+      </c>
+      <c r="S51" t="s">
+        <v>74</v>
+      </c>
+      <c r="T51" t="s">
         <v>76</v>
       </c>
-      <c r="G51" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" t="s">
-        <v>71</v>
-      </c>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" t="s">
-        <v>71</v>
-      </c>
-      <c r="K51" t="s">
-        <v>72</v>
-      </c>
-      <c r="L51" t="s">
-        <v>71</v>
-      </c>
-      <c r="M51" t="s">
-        <v>71</v>
-      </c>
-      <c r="N51" t="s">
-        <v>71</v>
-      </c>
-      <c r="O51" t="s">
-        <v>71</v>
-      </c>
-      <c r="P51" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>73</v>
-      </c>
-      <c r="R51" t="s">
-        <v>71</v>
-      </c>
-      <c r="S51" t="s">
-        <v>71</v>
-      </c>
-      <c r="T51" t="s">
-        <v>71</v>
-      </c>
       <c r="U51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" ht="24.0" customHeight="true">
       <c r="C52" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
         <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U52" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" ht="24.0" customHeight="true">
       <c r="C53" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X53" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" ht="24.0" customHeight="true">
       <c r="C54" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E54" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X54" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" ht="24.0" customHeight="true">
       <c r="C55" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" ht="24.0" customHeight="true">
       <c r="C56" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q56" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="R56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X56" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="24.0" customHeight="true">
       <c r="C57" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" ht="24.0" customHeight="true">
       <c r="C58" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N58" t="s">
+        <v>74</v>
+      </c>
+      <c r="O58" t="s">
+        <v>74</v>
+      </c>
+      <c r="P58" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>74</v>
+      </c>
+      <c r="R58" t="s">
+        <v>74</v>
+      </c>
+      <c r="S58" t="s">
+        <v>74</v>
+      </c>
+      <c r="T58" t="s">
         <v>76</v>
       </c>
-      <c r="G58" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-      <c r="I58" t="s">
-        <v>71</v>
-      </c>
-      <c r="J58" t="s">
-        <v>71</v>
-      </c>
-      <c r="K58" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58" t="s">
-        <v>71</v>
-      </c>
-      <c r="M58" t="s">
-        <v>71</v>
-      </c>
-      <c r="N58" t="s">
-        <v>71</v>
-      </c>
-      <c r="O58" t="s">
-        <v>71</v>
-      </c>
-      <c r="P58" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>73</v>
-      </c>
-      <c r="R58" t="s">
-        <v>71</v>
-      </c>
-      <c r="S58" t="s">
-        <v>71</v>
-      </c>
-      <c r="T58" t="s">
-        <v>71</v>
-      </c>
       <c r="U58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" ht="24.0" customHeight="true">
       <c r="C59" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U59" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" ht="24.0" customHeight="true">
       <c r="C60" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F60" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" t="s">
+        <v>75</v>
+      </c>
+      <c r="L60" t="s">
+        <v>74</v>
+      </c>
+      <c r="M60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N60" t="s">
+        <v>74</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="s">
         <v>76</v>
       </c>
-      <c r="G60" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I60" t="s">
-        <v>71</v>
-      </c>
-      <c r="J60" t="s">
-        <v>71</v>
-      </c>
-      <c r="K60" t="s">
-        <v>72</v>
-      </c>
-      <c r="L60" t="s">
-        <v>71</v>
-      </c>
-      <c r="M60" t="s">
-        <v>71</v>
-      </c>
-      <c r="N60" t="s">
-        <v>71</v>
-      </c>
-      <c r="O60" t="s">
-        <v>71</v>
-      </c>
-      <c r="P60" t="s">
-        <v>71</v>
-      </c>
       <c r="Q60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X60" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" ht="24.0" customHeight="true">
       <c r="C61" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P61" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="24.0" customHeight="true">
       <c r="C62" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="24.0" customHeight="true">
       <c r="C63" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q63" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="R63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" ht="24.0" customHeight="true">
       <c r="C64" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F64" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S64" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="T64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W64" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" ht="24.0" customHeight="true">
       <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
         <v>208</v>
       </c>
-      <c r="D65" t="s">
-        <v>206</v>
-      </c>
       <c r="E65" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" t="s">
+        <v>74</v>
+      </c>
+      <c r="M65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N65" t="s">
+        <v>74</v>
+      </c>
+      <c r="O65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>74</v>
+      </c>
+      <c r="R65" t="s">
+        <v>74</v>
+      </c>
+      <c r="S65" t="s">
+        <v>74</v>
+      </c>
+      <c r="T65" t="s">
         <v>76</v>
       </c>
-      <c r="G65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" t="s">
-        <v>71</v>
-      </c>
-      <c r="I65" t="s">
-        <v>71</v>
-      </c>
-      <c r="J65" t="s">
-        <v>71</v>
-      </c>
-      <c r="K65" t="s">
-        <v>72</v>
-      </c>
-      <c r="L65" t="s">
-        <v>71</v>
-      </c>
-      <c r="M65" t="s">
-        <v>71</v>
-      </c>
-      <c r="N65" t="s">
-        <v>71</v>
-      </c>
-      <c r="O65" t="s">
-        <v>71</v>
-      </c>
-      <c r="P65" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>73</v>
-      </c>
-      <c r="R65" t="s">
-        <v>71</v>
-      </c>
-      <c r="S65" t="s">
-        <v>71</v>
-      </c>
-      <c r="T65" t="s">
-        <v>71</v>
-      </c>
       <c r="U65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X65" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" ht="24.0" customHeight="true">
       <c r="C66" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U66" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="V66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" ht="24.0" customHeight="true">
       <c r="C67" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67" t="s">
+        <v>74</v>
+      </c>
+      <c r="N67" t="s">
+        <v>74</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="s">
         <v>76</v>
       </c>
-      <c r="G67" t="s">
-        <v>70</v>
-      </c>
-      <c r="H67" t="s">
-        <v>71</v>
-      </c>
-      <c r="I67" t="s">
-        <v>71</v>
-      </c>
-      <c r="J67" t="s">
-        <v>71</v>
-      </c>
-      <c r="K67" t="s">
-        <v>72</v>
-      </c>
-      <c r="L67" t="s">
-        <v>71</v>
-      </c>
-      <c r="M67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N67" t="s">
-        <v>71</v>
-      </c>
-      <c r="O67" t="s">
-        <v>71</v>
-      </c>
-      <c r="P67" t="s">
-        <v>71</v>
-      </c>
       <c r="Q67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" ht="24.0" customHeight="true">
       <c r="C68" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P68" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X68" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" ht="24.0" customHeight="true">
       <c r="C69" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F69" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" t="s">
+        <v>75</v>
+      </c>
+      <c r="L69" t="s">
+        <v>74</v>
+      </c>
+      <c r="M69" t="s">
+        <v>74</v>
+      </c>
+      <c r="N69" t="s">
+        <v>74</v>
+      </c>
+      <c r="O69" t="s">
+        <v>74</v>
+      </c>
+      <c r="P69" t="s">
         <v>76</v>
       </c>
-      <c r="G69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H69" t="s">
-        <v>71</v>
-      </c>
-      <c r="I69" t="s">
-        <v>71</v>
-      </c>
-      <c r="J69" t="s">
-        <v>71</v>
-      </c>
-      <c r="K69" t="s">
-        <v>72</v>
-      </c>
-      <c r="L69" t="s">
-        <v>71</v>
-      </c>
-      <c r="M69" t="s">
-        <v>71</v>
-      </c>
-      <c r="N69" t="s">
-        <v>71</v>
-      </c>
-      <c r="O69" t="s">
-        <v>71</v>
-      </c>
-      <c r="P69" t="s">
-        <v>71</v>
-      </c>
       <c r="Q69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X69" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" ht="24.0" customHeight="true">
       <c r="C70" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P70" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" ht="24.0" customHeight="true">
-      <c r="C71" t="s">
-        <v>222</v>
-      </c>
-      <c r="D71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E71" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" t="s">
-        <v>71</v>
-      </c>
-      <c r="I71" t="s">
-        <v>71</v>
-      </c>
-      <c r="J71" t="s">
-        <v>71</v>
-      </c>
-      <c r="K71" t="s">
-        <v>72</v>
-      </c>
-      <c r="L71" t="s">
-        <v>71</v>
-      </c>
-      <c r="M71" t="s">
-        <v>71</v>
-      </c>
-      <c r="N71" t="s">
-        <v>71</v>
-      </c>
-      <c r="O71" t="s">
-        <v>71</v>
-      </c>
-      <c r="P71" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>71</v>
-      </c>
-      <c r="R71" t="s">
-        <v>71</v>
-      </c>
-      <c r="S71" t="s">
-        <v>71</v>
-      </c>
-      <c r="T71" t="s">
-        <v>73</v>
-      </c>
-      <c r="U71" t="s">
-        <v>71</v>
-      </c>
-      <c r="V71" t="s">
-        <v>71</v>
-      </c>
-      <c r="W71" t="s">
-        <v>71</v>
-      </c>
-      <c r="X71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" ht="24.0" customHeight="true">
-      <c r="C72" t="s">
-        <v>224</v>
-      </c>
-      <c r="D72" t="s">
-        <v>216</v>
-      </c>
-      <c r="E72" t="s">
-        <v>225</v>
-      </c>
-      <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" t="s">
-        <v>71</v>
-      </c>
-      <c r="I72" t="s">
-        <v>71</v>
-      </c>
-      <c r="J72" t="s">
-        <v>71</v>
-      </c>
-      <c r="K72" t="s">
-        <v>72</v>
-      </c>
-      <c r="L72" t="s">
-        <v>71</v>
-      </c>
-      <c r="M72" t="s">
-        <v>71</v>
-      </c>
-      <c r="N72" t="s">
-        <v>71</v>
-      </c>
-      <c r="O72" t="s">
-        <v>71</v>
-      </c>
-      <c r="P72" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>71</v>
-      </c>
-      <c r="R72" t="s">
-        <v>71</v>
-      </c>
-      <c r="S72" t="s">
-        <v>71</v>
-      </c>
-      <c r="T72" t="s">
-        <v>71</v>
-      </c>
-      <c r="U72" t="s">
-        <v>73</v>
-      </c>
-      <c r="V72" t="s">
-        <v>71</v>
-      </c>
-      <c r="W72" t="s">
-        <v>71</v>
-      </c>
-      <c r="X72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" ht="24.0" customHeight="true">
-      <c r="C73" t="s">
-        <v>226</v>
-      </c>
-      <c r="D73" t="s">
-        <v>227</v>
-      </c>
-      <c r="E73" t="s">
-        <v>228</v>
-      </c>
-      <c r="F73" t="s">
-        <v>69</v>
-      </c>
-      <c r="G73" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" t="s">
-        <v>71</v>
-      </c>
-      <c r="I73" t="s">
-        <v>71</v>
-      </c>
-      <c r="J73" t="s">
-        <v>71</v>
-      </c>
-      <c r="K73" t="s">
-        <v>72</v>
-      </c>
-      <c r="L73" t="s">
-        <v>71</v>
-      </c>
-      <c r="M73" t="s">
-        <v>71</v>
-      </c>
-      <c r="N73" t="s">
-        <v>71</v>
-      </c>
-      <c r="O73" t="s">
-        <v>71</v>
-      </c>
-      <c r="P73" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>71</v>
-      </c>
-      <c r="R73" t="s">
-        <v>71</v>
-      </c>
-      <c r="S73" t="s">
-        <v>71</v>
-      </c>
-      <c r="T73" t="s">
-        <v>71</v>
-      </c>
-      <c r="U73" t="s">
-        <v>71</v>
-      </c>
-      <c r="V73" t="s">
-        <v>71</v>
-      </c>
-      <c r="W73" t="s">
-        <v>71</v>
-      </c>
-      <c r="X73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" ht="24.0" customHeight="true">
-      <c r="C74" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74" t="s">
-        <v>227</v>
-      </c>
-      <c r="E74" t="s">
-        <v>230</v>
-      </c>
-      <c r="F74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" t="s">
-        <v>71</v>
-      </c>
-      <c r="I74" t="s">
-        <v>71</v>
-      </c>
-      <c r="J74" t="s">
-        <v>71</v>
-      </c>
-      <c r="K74" t="s">
-        <v>72</v>
-      </c>
-      <c r="L74" t="s">
-        <v>71</v>
-      </c>
-      <c r="M74" t="s">
-        <v>71</v>
-      </c>
-      <c r="N74" t="s">
-        <v>71</v>
-      </c>
-      <c r="O74" t="s">
-        <v>71</v>
-      </c>
-      <c r="P74" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>73</v>
-      </c>
-      <c r="R74" t="s">
-        <v>71</v>
-      </c>
-      <c r="S74" t="s">
-        <v>71</v>
-      </c>
-      <c r="T74" t="s">
-        <v>71</v>
-      </c>
-      <c r="U74" t="s">
-        <v>71</v>
-      </c>
-      <c r="V74" t="s">
-        <v>71</v>
-      </c>
-      <c r="W74" t="s">
-        <v>71</v>
-      </c>
-      <c r="X74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" ht="24.0" customHeight="true">
-      <c r="C75" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" t="s">
-        <v>232</v>
-      </c>
-      <c r="E75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F75" t="s">
-        <v>69</v>
-      </c>
-      <c r="G75" t="s">
-        <v>70</v>
-      </c>
-      <c r="H75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I75" t="s">
-        <v>71</v>
-      </c>
-      <c r="J75" t="s">
-        <v>71</v>
-      </c>
-      <c r="K75" t="s">
-        <v>72</v>
-      </c>
-      <c r="L75" t="s">
-        <v>71</v>
-      </c>
-      <c r="M75" t="s">
-        <v>71</v>
-      </c>
-      <c r="N75" t="s">
-        <v>71</v>
-      </c>
-      <c r="O75" t="s">
-        <v>71</v>
-      </c>
-      <c r="P75" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>71</v>
-      </c>
-      <c r="R75" t="s">
-        <v>71</v>
-      </c>
-      <c r="S75" t="s">
-        <v>71</v>
-      </c>
-      <c r="T75" t="s">
-        <v>71</v>
-      </c>
-      <c r="U75" t="s">
-        <v>71</v>
-      </c>
-      <c r="V75" t="s">
-        <v>71</v>
-      </c>
-      <c r="W75" t="s">
-        <v>71</v>
-      </c>
-      <c r="X75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" ht="24.0" customHeight="true">
-      <c r="C76" t="s">
-        <v>234</v>
-      </c>
-      <c r="D76" t="s">
-        <v>232</v>
-      </c>
-      <c r="E76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F76" t="s">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s">
-        <v>70</v>
-      </c>
-      <c r="H76" t="s">
-        <v>71</v>
-      </c>
-      <c r="I76" t="s">
-        <v>71</v>
-      </c>
-      <c r="J76" t="s">
-        <v>71</v>
-      </c>
-      <c r="K76" t="s">
-        <v>72</v>
-      </c>
-      <c r="L76" t="s">
-        <v>71</v>
-      </c>
-      <c r="M76" t="s">
-        <v>71</v>
-      </c>
-      <c r="N76" t="s">
-        <v>71</v>
-      </c>
-      <c r="O76" t="s">
-        <v>71</v>
-      </c>
-      <c r="P76" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>73</v>
-      </c>
-      <c r="R76" t="s">
-        <v>71</v>
-      </c>
-      <c r="S76" t="s">
-        <v>71</v>
-      </c>
-      <c r="T76" t="s">
-        <v>71</v>
-      </c>
-      <c r="U76" t="s">
-        <v>71</v>
-      </c>
-      <c r="V76" t="s">
-        <v>71</v>
-      </c>
-      <c r="W76" t="s">
-        <v>71</v>
-      </c>
-      <c r="X76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" ht="24.0" customHeight="true">
-      <c r="C77" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" t="s">
-        <v>237</v>
-      </c>
-      <c r="E77" t="s">
-        <v>238</v>
-      </c>
-      <c r="F77" t="s">
-        <v>69</v>
-      </c>
-      <c r="G77" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" t="s">
-        <v>71</v>
-      </c>
-      <c r="J77" t="s">
-        <v>71</v>
-      </c>
-      <c r="K77" t="s">
-        <v>72</v>
-      </c>
-      <c r="L77" t="s">
-        <v>71</v>
-      </c>
-      <c r="M77" t="s">
-        <v>71</v>
-      </c>
-      <c r="N77" t="s">
-        <v>71</v>
-      </c>
-      <c r="O77" t="s">
-        <v>71</v>
-      </c>
-      <c r="P77" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>71</v>
-      </c>
-      <c r="R77" t="s">
-        <v>71</v>
-      </c>
-      <c r="S77" t="s">
-        <v>71</v>
-      </c>
-      <c r="T77" t="s">
-        <v>71</v>
-      </c>
-      <c r="U77" t="s">
-        <v>71</v>
-      </c>
-      <c r="V77" t="s">
-        <v>71</v>
-      </c>
-      <c r="W77" t="s">
-        <v>71</v>
-      </c>
-      <c r="X77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" ht="24.0" customHeight="true">
-      <c r="C78" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" t="s">
-        <v>237</v>
-      </c>
-      <c r="E78" t="s">
-        <v>240</v>
-      </c>
-      <c r="F78" t="s">
-        <v>76</v>
-      </c>
-      <c r="G78" t="s">
-        <v>70</v>
-      </c>
-      <c r="H78" t="s">
-        <v>71</v>
-      </c>
-      <c r="I78" t="s">
-        <v>71</v>
-      </c>
-      <c r="J78" t="s">
-        <v>71</v>
-      </c>
-      <c r="K78" t="s">
-        <v>72</v>
-      </c>
-      <c r="L78" t="s">
-        <v>71</v>
-      </c>
-      <c r="M78" t="s">
-        <v>71</v>
-      </c>
-      <c r="N78" t="s">
-        <v>71</v>
-      </c>
-      <c r="O78" t="s">
-        <v>71</v>
-      </c>
-      <c r="P78" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>73</v>
-      </c>
-      <c r="R78" t="s">
-        <v>71</v>
-      </c>
-      <c r="S78" t="s">
-        <v>71</v>
-      </c>
-      <c r="T78" t="s">
-        <v>71</v>
-      </c>
-      <c r="U78" t="s">
-        <v>71</v>
-      </c>
-      <c r="V78" t="s">
-        <v>71</v>
-      </c>
-      <c r="W78" t="s">
-        <v>71</v>
-      </c>
-      <c r="X78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" ht="24.0" customHeight="true">
-      <c r="C79" t="s">
-        <v>241</v>
-      </c>
-      <c r="D79" t="s">
-        <v>242</v>
-      </c>
-      <c r="E79" t="s">
-        <v>243</v>
-      </c>
-      <c r="F79" t="s">
-        <v>69</v>
-      </c>
-      <c r="G79" t="s">
-        <v>70</v>
-      </c>
-      <c r="H79" t="s">
-        <v>71</v>
-      </c>
-      <c r="I79" t="s">
-        <v>71</v>
-      </c>
-      <c r="J79" t="s">
-        <v>71</v>
-      </c>
-      <c r="K79" t="s">
-        <v>72</v>
-      </c>
-      <c r="L79" t="s">
-        <v>71</v>
-      </c>
-      <c r="M79" t="s">
-        <v>71</v>
-      </c>
-      <c r="N79" t="s">
-        <v>71</v>
-      </c>
-      <c r="O79" t="s">
-        <v>71</v>
-      </c>
-      <c r="P79" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>71</v>
-      </c>
-      <c r="R79" t="s">
-        <v>71</v>
-      </c>
-      <c r="S79" t="s">
-        <v>71</v>
-      </c>
-      <c r="T79" t="s">
-        <v>71</v>
-      </c>
-      <c r="U79" t="s">
-        <v>71</v>
-      </c>
-      <c r="V79" t="s">
-        <v>71</v>
-      </c>
-      <c r="W79" t="s">
-        <v>71</v>
-      </c>
-      <c r="X79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" ht="24.0" customHeight="true">
-      <c r="C80" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" t="s">
-        <v>242</v>
-      </c>
-      <c r="E80" t="s">
-        <v>245</v>
-      </c>
-      <c r="F80" t="s">
-        <v>76</v>
-      </c>
-      <c r="G80" t="s">
-        <v>70</v>
-      </c>
-      <c r="H80" t="s">
-        <v>71</v>
-      </c>
-      <c r="I80" t="s">
-        <v>71</v>
-      </c>
-      <c r="J80" t="s">
-        <v>71</v>
-      </c>
-      <c r="K80" t="s">
-        <v>72</v>
-      </c>
-      <c r="L80" t="s">
-        <v>71</v>
-      </c>
-      <c r="M80" t="s">
-        <v>71</v>
-      </c>
-      <c r="N80" t="s">
-        <v>71</v>
-      </c>
-      <c r="O80" t="s">
-        <v>71</v>
-      </c>
-      <c r="P80" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>73</v>
-      </c>
-      <c r="R80" t="s">
-        <v>71</v>
-      </c>
-      <c r="S80" t="s">
-        <v>71</v>
-      </c>
-      <c r="T80" t="s">
-        <v>71</v>
-      </c>
-      <c r="U80" t="s">
-        <v>71</v>
-      </c>
-      <c r="V80" t="s">
-        <v>71</v>
-      </c>
-      <c r="W80" t="s">
-        <v>71</v>
-      </c>
-      <c r="X80" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7325,10 +6597,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y16"/>
+  <dimension ref="C3:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8009,7 +7281,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -8243,6 +7515,130 @@
         <v>0</v>
       </c>
       <c r="W16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="255">
   <si>
     <t>_ID</t>
   </si>
@@ -1024,6 +1024,18 @@
   </si>
   <si>
     <t>小火球·鹰眼</t>
+  </si>
+  <si>
+    <t>武力盾·持久</t>
+  </si>
+  <si>
+    <t>增加10s持续时间</t>
+  </si>
+  <si>
+    <t>魔法盾·持久</t>
+  </si>
+  <si>
+    <t>道力盾·持久</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +2007,10 @@
   <sheetPr/>
   <dimension ref="C3:X80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="$A71:$XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7340,10 +7352,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y18"/>
+  <dimension ref="C3:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8385,6 +8397,192 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1005</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2005</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3005</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>10</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 C3:E5" errorStyle="warning">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1070,6 +1070,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1083,6 +1111,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1122,21 +1158,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,28 +1208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,13 +1240,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,19 +1306,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,18 +1354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1324,31 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,19 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,12 +1414,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1431,6 +1431,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1463,21 +1478,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1534,148 +1534,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1689,52 +1689,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -7355,7 +7355,7 @@
   <dimension ref="C3:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8340,7 +8340,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>250</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="262">
   <si>
     <t>_ID</t>
   </si>
@@ -1048,6 +1048,15 @@
   </si>
   <si>
     <t>召唤物增加5%高级属性继承</t>
+  </si>
+  <si>
+    <t>冰咆哮·急速</t>
+  </si>
+  <si>
+    <t>减少1秒CD</t>
+  </si>
+  <si>
+    <t>烈火剑法·急速</t>
   </si>
 </sst>
 </file>
@@ -1691,13 +1700,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2258,7 +2266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="3:25">
+    <row r="6" s="3" customFormat="1" spans="3:25">
       <c r="C6" t="s">
         <v>48</v>
       </c>
@@ -2329,7 +2337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="3:25">
+    <row r="7" s="3" customFormat="1" spans="3:25">
       <c r="C7" t="s">
         <v>56</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="3:25">
+    <row r="8" s="3" customFormat="1" spans="3:25">
       <c r="C8" t="s">
         <v>60</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="3:25">
+    <row r="9" s="3" customFormat="1" spans="3:25">
       <c r="C9" t="s">
         <v>63</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="3:25">
+    <row r="10" s="3" customFormat="1" spans="3:25">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="3:25">
+    <row r="11" s="3" customFormat="1" spans="3:25">
       <c r="C11" t="s">
         <v>69</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" spans="3:25">
+    <row r="12" s="3" customFormat="1" spans="3:25">
       <c r="C12" t="s">
         <v>72</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="3:25">
+    <row r="13" s="3" customFormat="1" spans="3:25">
       <c r="C13" t="s">
         <v>74</v>
       </c>
@@ -2826,7 +2834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" spans="3:25">
+    <row r="14" s="3" customFormat="1" spans="3:25">
       <c r="C14" t="s">
         <v>76</v>
       </c>
@@ -2897,7 +2905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" spans="3:25">
+    <row r="15" s="3" customFormat="1" spans="3:25">
       <c r="C15" t="s">
         <v>78</v>
       </c>
@@ -2984,13 +2992,13 @@
       <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K16" t="s">
@@ -2999,7 +3007,7 @@
       <c r="L16" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N16" t="s">
@@ -3008,22 +3016,22 @@
       <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V16" t="s">
@@ -3035,7 +3043,7 @@
       <c r="X16" s="1">
         <v>0</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3055,13 +3063,13 @@
       <c r="G17" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="H17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K17" t="s">
@@ -3070,7 +3078,7 @@
       <c r="L17" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N17" t="s">
@@ -3079,7 +3087,7 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="Q17" t="s">
@@ -3088,13 +3096,13 @@
       <c r="R17" t="s">
         <v>53</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U17" s="4" t="s">
+      <c r="S17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V17" t="s">
@@ -3106,7 +3114,7 @@
       <c r="X17" s="1">
         <v>0</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3126,13 +3134,13 @@
       <c r="G18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K18" t="s">
@@ -3141,7 +3149,7 @@
       <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N18" t="s">
@@ -3150,22 +3158,22 @@
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S18" s="4" t="s">
+      <c r="P18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U18" s="4" t="s">
+      <c r="T18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V18" t="s">
@@ -3177,7 +3185,7 @@
       <c r="X18" s="1">
         <v>0</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3191,19 +3199,19 @@
       <c r="E19" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K19" t="s">
@@ -3212,7 +3220,7 @@
       <c r="L19" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N19" t="s">
@@ -3221,22 +3229,22 @@
       <c r="O19" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="4" t="s">
+      <c r="P19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="U19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V19" t="s">
@@ -3248,7 +3256,7 @@
       <c r="X19" s="1">
         <v>0</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="Y19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3268,13 +3276,13 @@
       <c r="G20" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="H20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K20" t="s">
@@ -3283,7 +3291,7 @@
       <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N20" t="s">
@@ -3292,22 +3300,22 @@
       <c r="O20" t="s">
         <v>53</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U20" s="4" t="s">
+      <c r="P20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>55</v>
       </c>
       <c r="V20" t="s">
@@ -3333,19 +3341,19 @@
       <c r="E21" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="H21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K21" t="s">
@@ -3354,7 +3362,7 @@
       <c r="L21" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N21" t="s">
@@ -3363,22 +3371,22 @@
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U21" s="4" t="s">
+      <c r="Q21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V21" t="s">
@@ -3390,7 +3398,7 @@
       <c r="X21" s="1">
         <v>0</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3410,13 +3418,13 @@
       <c r="G22" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="H22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K22" t="s">
@@ -3425,7 +3433,7 @@
       <c r="L22" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N22" t="s">
@@ -3434,7 +3442,7 @@
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="Q22" t="s">
@@ -3443,13 +3451,13 @@
       <c r="R22" t="s">
         <v>53</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="4" t="s">
+      <c r="S22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V22" t="s">
@@ -3461,7 +3469,7 @@
       <c r="X22" s="1">
         <v>0</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3481,13 +3489,13 @@
       <c r="G23" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="4" t="s">
+      <c r="H23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K23" t="s">
@@ -3496,7 +3504,7 @@
       <c r="L23" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N23" t="s">
@@ -3508,19 +3516,19 @@
       <c r="P23" t="s">
         <v>53</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="4" t="s">
+      <c r="Q23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U23" s="4" t="s">
+      <c r="T23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V23" t="s">
@@ -3532,7 +3540,7 @@
       <c r="X23" s="1">
         <v>0</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Y23" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3555,10 +3563,10 @@
       <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="I24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K24" t="s">
@@ -3567,7 +3575,7 @@
       <c r="L24" t="s">
         <v>53</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N24" t="s">
@@ -3576,22 +3584,22 @@
       <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T24" s="4" t="s">
+      <c r="P24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="U24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="V24" t="s">
@@ -3603,7 +3611,7 @@
       <c r="X24" s="1">
         <v>0</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="Y24" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3623,13 +3631,13 @@
       <c r="G25" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="4" t="s">
+      <c r="H25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="K25" t="s">
@@ -3638,7 +3646,7 @@
       <c r="L25" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N25" t="s">
@@ -3650,19 +3658,19 @@
       <c r="P25" t="s">
         <v>53</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U25" s="4" t="s">
+      <c r="Q25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="V25" t="s">
@@ -7599,10 +7607,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Z22"/>
+  <dimension ref="C3:Z24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7902,7 +7910,7 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>0</v>
       </c>
       <c r="W6" s="1">
@@ -7967,7 +7975,7 @@
       <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>0</v>
       </c>
       <c r="W7" s="1">
@@ -8032,7 +8040,7 @@
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>0</v>
       </c>
       <c r="W8" s="1">
@@ -8097,7 +8105,7 @@
       <c r="U9" s="1">
         <v>0</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>0</v>
       </c>
       <c r="W9" s="1">
@@ -8162,7 +8170,7 @@
       <c r="U10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>0</v>
       </c>
       <c r="W10" s="1">
@@ -8227,7 +8235,7 @@
       <c r="U11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>0</v>
       </c>
       <c r="W11" s="1">
@@ -8292,7 +8300,7 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="1">
@@ -8357,7 +8365,7 @@
       <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>0</v>
       </c>
       <c r="W13" s="1">
@@ -8422,7 +8430,7 @@
       <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="1">
@@ -8487,7 +8495,7 @@
       <c r="U15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>0</v>
       </c>
       <c r="W15" s="1">
@@ -8552,7 +8560,7 @@
       <c r="U16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>0</v>
       </c>
       <c r="W16" s="1">
@@ -8617,7 +8625,7 @@
       <c r="U17" s="1">
         <v>0</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="1">
@@ -8682,7 +8690,7 @@
       <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="1">
@@ -8747,7 +8755,7 @@
       <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>0</v>
       </c>
       <c r="W19" s="1">
@@ -8812,7 +8820,7 @@
       <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="1">
@@ -8877,7 +8885,7 @@
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="1">
@@ -8888,10 +8896,10 @@
       </c>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>3007</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -8942,7 +8950,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -8950,6 +8958,136 @@
       </c>
       <c r="X22" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1007</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="263">
   <si>
     <t>_ID</t>
   </si>
@@ -1057,6 +1057,9 @@
   </si>
   <si>
     <t>烈火剑法·急速</t>
+  </si>
+  <si>
+    <t>火符·鹰眼</t>
   </si>
 </sst>
 </file>
@@ -7607,10 +7610,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Z24"/>
+  <dimension ref="C3:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9090,6 +9093,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="3:24">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 C3:E5" errorStyle="warning">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="260">
   <si>
     <t>_ID</t>
   </si>
@@ -961,15 +961,6 @@
   </si>
   <si>
     <t>召唤神兽·固强</t>
-  </si>
-  <si>
-    <t>效果参数</t>
-  </si>
-  <si>
-    <t>EffectParam</t>
-  </si>
-  <si>
-    <t>int[]</t>
   </si>
   <si>
     <t>火墙·多行</t>
@@ -2031,16 +2022,16 @@
   <sheetPr/>
   <dimension ref="C3:Y80"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X3" sqref="X3:X5"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
@@ -2336,8 +2327,8 @@
       <c r="X6" s="1">
         <v>0</v>
       </c>
-      <c r="Y6" t="s">
-        <v>54</v>
+      <c r="Y6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="3:25">
@@ -2407,8 +2398,8 @@
       <c r="X7" s="1">
         <v>0</v>
       </c>
-      <c r="Y7" t="s">
-        <v>54</v>
+      <c r="Y7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="3:25">
@@ -2478,8 +2469,8 @@
       <c r="X8" s="1">
         <v>0</v>
       </c>
-      <c r="Y8" t="s">
-        <v>54</v>
+      <c r="Y8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="3:25">
@@ -2549,8 +2540,8 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
-      <c r="Y9" t="s">
-        <v>54</v>
+      <c r="Y9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="3:25">
@@ -2620,8 +2611,8 @@
       <c r="X10" s="1">
         <v>0</v>
       </c>
-      <c r="Y10" t="s">
-        <v>54</v>
+      <c r="Y10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="3:25">
@@ -2691,8 +2682,8 @@
       <c r="X11" s="1">
         <v>0</v>
       </c>
-      <c r="Y11" t="s">
-        <v>54</v>
+      <c r="Y11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="3:25">
@@ -2762,8 +2753,8 @@
       <c r="X12" s="1">
         <v>0</v>
       </c>
-      <c r="Y12" t="s">
-        <v>54</v>
+      <c r="Y12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="3:25">
@@ -2833,8 +2824,8 @@
       <c r="X13" s="1">
         <v>0</v>
       </c>
-      <c r="Y13" t="s">
-        <v>54</v>
+      <c r="Y13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="3:25">
@@ -2904,8 +2895,8 @@
       <c r="X14" s="1">
         <v>0</v>
       </c>
-      <c r="Y14" t="s">
-        <v>54</v>
+      <c r="Y14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="3:25">
@@ -2975,8 +2966,8 @@
       <c r="X15" s="1">
         <v>0</v>
       </c>
-      <c r="Y15" t="s">
-        <v>54</v>
+      <c r="Y15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:25">
@@ -3046,8 +3037,8 @@
       <c r="X16" s="1">
         <v>0</v>
       </c>
-      <c r="Y16" s="3" t="s">
-        <v>54</v>
+      <c r="Y16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:25">
@@ -3117,8 +3108,8 @@
       <c r="X17" s="1">
         <v>0</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>54</v>
+      <c r="Y17" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:25">
@@ -3188,8 +3179,8 @@
       <c r="X18" s="1">
         <v>0</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>54</v>
+      <c r="Y18" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:25">
@@ -3259,8 +3250,8 @@
       <c r="X19" s="1">
         <v>0</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>54</v>
+      <c r="Y19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:25">
@@ -3330,8 +3321,8 @@
       <c r="X20" s="1">
         <v>0</v>
       </c>
-      <c r="Y20" t="s">
-        <v>54</v>
+      <c r="Y20" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:25">
@@ -3401,8 +3392,8 @@
       <c r="X21" s="1">
         <v>0</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>54</v>
+      <c r="Y21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:25">
@@ -3472,8 +3463,8 @@
       <c r="X22" s="1">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>54</v>
+      <c r="Y22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:25">
@@ -3543,8 +3534,8 @@
       <c r="X23" s="1">
         <v>0</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>54</v>
+      <c r="Y23" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:25">
@@ -3614,8 +3605,8 @@
       <c r="X24" s="1">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>54</v>
+      <c r="Y24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:25">
@@ -3685,8 +3676,8 @@
       <c r="X25" s="1">
         <v>0</v>
       </c>
-      <c r="Y25" t="s">
-        <v>54</v>
+      <c r="Y25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:25">
@@ -3756,8 +3747,8 @@
       <c r="X26" s="1">
         <v>0</v>
       </c>
-      <c r="Y26" t="s">
-        <v>54</v>
+      <c r="Y26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:25">
@@ -3827,8 +3818,8 @@
       <c r="X27" s="1">
         <v>0</v>
       </c>
-      <c r="Y27" t="s">
-        <v>54</v>
+      <c r="Y27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:25">
@@ -3898,8 +3889,8 @@
       <c r="X28" s="1">
         <v>0</v>
       </c>
-      <c r="Y28" t="s">
-        <v>54</v>
+      <c r="Y28" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:25">
@@ -3969,8 +3960,8 @@
       <c r="X29" s="1">
         <v>0</v>
       </c>
-      <c r="Y29" t="s">
-        <v>54</v>
+      <c r="Y29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:25">
@@ -4040,8 +4031,8 @@
       <c r="X30" s="1">
         <v>0</v>
       </c>
-      <c r="Y30" t="s">
-        <v>54</v>
+      <c r="Y30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:25">
@@ -4111,8 +4102,8 @@
       <c r="X31" s="1">
         <v>0</v>
       </c>
-      <c r="Y31" t="s">
-        <v>54</v>
+      <c r="Y31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:25">
@@ -4182,8 +4173,8 @@
       <c r="X32" s="1">
         <v>0</v>
       </c>
-      <c r="Y32" t="s">
-        <v>54</v>
+      <c r="Y32" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:25">
@@ -4253,8 +4244,8 @@
       <c r="X33" s="1">
         <v>0</v>
       </c>
-      <c r="Y33" t="s">
-        <v>54</v>
+      <c r="Y33" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:25">
@@ -4324,8 +4315,8 @@
       <c r="X34" s="1">
         <v>0</v>
       </c>
-      <c r="Y34" t="s">
-        <v>54</v>
+      <c r="Y34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:25">
@@ -4395,8 +4386,8 @@
       <c r="X35" s="1">
         <v>0</v>
       </c>
-      <c r="Y35" t="s">
-        <v>54</v>
+      <c r="Y35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:25">
@@ -4466,8 +4457,8 @@
       <c r="X36" s="1">
         <v>0</v>
       </c>
-      <c r="Y36" t="s">
-        <v>54</v>
+      <c r="Y36" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:25">
@@ -4537,8 +4528,8 @@
       <c r="X37" s="1">
         <v>0</v>
       </c>
-      <c r="Y37" t="s">
-        <v>54</v>
+      <c r="Y37" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:25">
@@ -4608,8 +4599,8 @@
       <c r="X38" s="1">
         <v>0</v>
       </c>
-      <c r="Y38" t="s">
-        <v>54</v>
+      <c r="Y38" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:25">
@@ -4679,8 +4670,8 @@
       <c r="X39" s="1">
         <v>0</v>
       </c>
-      <c r="Y39" t="s">
-        <v>54</v>
+      <c r="Y39" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:25">
@@ -4750,8 +4741,8 @@
       <c r="X40" s="1">
         <v>0</v>
       </c>
-      <c r="Y40" t="s">
-        <v>54</v>
+      <c r="Y40" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:25">
@@ -4821,8 +4812,8 @@
       <c r="X41" s="1">
         <v>0</v>
       </c>
-      <c r="Y41" t="s">
-        <v>54</v>
+      <c r="Y41" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:25">
@@ -4892,8 +4883,8 @@
       <c r="X42" s="1">
         <v>0</v>
       </c>
-      <c r="Y42" t="s">
-        <v>54</v>
+      <c r="Y42" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:25">
@@ -4963,8 +4954,8 @@
       <c r="X43" s="1">
         <v>0</v>
       </c>
-      <c r="Y43" t="s">
-        <v>54</v>
+      <c r="Y43" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:25">
@@ -5034,8 +5025,8 @@
       <c r="X44" s="1">
         <v>0</v>
       </c>
-      <c r="Y44" t="s">
-        <v>54</v>
+      <c r="Y44" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:25">
@@ -5105,8 +5096,8 @@
       <c r="X45" s="1">
         <v>0</v>
       </c>
-      <c r="Y45" t="s">
-        <v>54</v>
+      <c r="Y45" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:25">
@@ -5176,8 +5167,8 @@
       <c r="X46" s="1">
         <v>0</v>
       </c>
-      <c r="Y46" t="s">
-        <v>54</v>
+      <c r="Y46" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:25">
@@ -5247,8 +5238,8 @@
       <c r="X47" s="1">
         <v>0</v>
       </c>
-      <c r="Y47" t="s">
-        <v>54</v>
+      <c r="Y47" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1" spans="3:25">
@@ -5318,8 +5309,8 @@
       <c r="X48" s="1">
         <v>0</v>
       </c>
-      <c r="Y48" t="s">
-        <v>54</v>
+      <c r="Y48" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1" spans="3:25">
@@ -5389,8 +5380,8 @@
       <c r="X49" s="1">
         <v>0</v>
       </c>
-      <c r="Y49" t="s">
-        <v>54</v>
+      <c r="Y49" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="24" customHeight="1" spans="3:25">
@@ -5460,8 +5451,8 @@
       <c r="X50" s="1">
         <v>0</v>
       </c>
-      <c r="Y50" t="s">
-        <v>54</v>
+      <c r="Y50" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="51" ht="24" customHeight="1" spans="3:25">
@@ -5531,8 +5522,8 @@
       <c r="X51" s="1">
         <v>0</v>
       </c>
-      <c r="Y51" t="s">
-        <v>54</v>
+      <c r="Y51" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="52" ht="24" customHeight="1" spans="3:25">
@@ -5602,8 +5593,8 @@
       <c r="X52" s="1">
         <v>0</v>
       </c>
-      <c r="Y52" t="s">
-        <v>54</v>
+      <c r="Y52" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="53" ht="24" customHeight="1" spans="3:25">
@@ -5673,8 +5664,8 @@
       <c r="X53" s="1">
         <v>0</v>
       </c>
-      <c r="Y53" t="s">
-        <v>54</v>
+      <c r="Y53" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="24" customHeight="1" spans="3:25">
@@ -5744,8 +5735,8 @@
       <c r="X54" s="1">
         <v>0</v>
       </c>
-      <c r="Y54" t="s">
-        <v>54</v>
+      <c r="Y54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="24" customHeight="1" spans="3:25">
@@ -5815,8 +5806,8 @@
       <c r="X55" s="1">
         <v>0</v>
       </c>
-      <c r="Y55" t="s">
-        <v>54</v>
+      <c r="Y55" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1" spans="3:25">
@@ -5886,8 +5877,8 @@
       <c r="X56" s="1">
         <v>0</v>
       </c>
-      <c r="Y56" t="s">
-        <v>54</v>
+      <c r="Y56" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1" spans="3:25">
@@ -5957,8 +5948,8 @@
       <c r="X57" s="1">
         <v>0</v>
       </c>
-      <c r="Y57" t="s">
-        <v>54</v>
+      <c r="Y57" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="24" customHeight="1" spans="3:25">
@@ -6028,8 +6019,8 @@
       <c r="X58" s="1">
         <v>0</v>
       </c>
-      <c r="Y58" t="s">
-        <v>54</v>
+      <c r="Y58" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="24" customHeight="1" spans="3:25">
@@ -6099,8 +6090,8 @@
       <c r="X59" s="1">
         <v>0</v>
       </c>
-      <c r="Y59" t="s">
-        <v>54</v>
+      <c r="Y59" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="24" customHeight="1" spans="3:25">
@@ -6170,8 +6161,8 @@
       <c r="X60" s="1">
         <v>0</v>
       </c>
-      <c r="Y60" t="s">
-        <v>54</v>
+      <c r="Y60" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="24" customHeight="1" spans="3:25">
@@ -6241,8 +6232,8 @@
       <c r="X61" s="1">
         <v>0</v>
       </c>
-      <c r="Y61" t="s">
-        <v>54</v>
+      <c r="Y61" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="24" customHeight="1" spans="3:25">
@@ -6312,8 +6303,8 @@
       <c r="X62" s="1">
         <v>0</v>
       </c>
-      <c r="Y62" t="s">
-        <v>54</v>
+      <c r="Y62" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="63" ht="24" customHeight="1" spans="3:25">
@@ -6383,8 +6374,8 @@
       <c r="X63" s="1">
         <v>0</v>
       </c>
-      <c r="Y63" t="s">
-        <v>54</v>
+      <c r="Y63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1" spans="3:25">
@@ -6454,8 +6445,8 @@
       <c r="X64" s="1">
         <v>0</v>
       </c>
-      <c r="Y64" t="s">
-        <v>54</v>
+      <c r="Y64" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1" spans="3:25">
@@ -6525,8 +6516,8 @@
       <c r="X65" s="1">
         <v>0</v>
       </c>
-      <c r="Y65" t="s">
-        <v>54</v>
+      <c r="Y65" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="66" ht="24" customHeight="1" spans="3:25">
@@ -6596,8 +6587,8 @@
       <c r="X66" s="1">
         <v>0</v>
       </c>
-      <c r="Y66" t="s">
-        <v>54</v>
+      <c r="Y66" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="24" customHeight="1" spans="3:25">
@@ -6667,8 +6658,8 @@
       <c r="X67" s="1">
         <v>0</v>
       </c>
-      <c r="Y67" t="s">
-        <v>54</v>
+      <c r="Y67" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="24" customHeight="1" spans="3:25">
@@ -6738,8 +6729,8 @@
       <c r="X68" s="1">
         <v>0</v>
       </c>
-      <c r="Y68" t="s">
-        <v>54</v>
+      <c r="Y68" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="69" ht="24" customHeight="1" spans="3:25">
@@ -6809,8 +6800,8 @@
       <c r="X69" s="1">
         <v>0</v>
       </c>
-      <c r="Y69" t="s">
-        <v>54</v>
+      <c r="Y69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="24" customHeight="1" spans="3:25">
@@ -6880,8 +6871,8 @@
       <c r="X70" s="1">
         <v>0</v>
       </c>
-      <c r="Y70" t="s">
-        <v>54</v>
+      <c r="Y70" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="24" customHeight="1" spans="3:25">
@@ -6951,8 +6942,8 @@
       <c r="X71" s="1">
         <v>0</v>
       </c>
-      <c r="Y71" t="s">
-        <v>54</v>
+      <c r="Y71" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="72" ht="24" customHeight="1" spans="3:25">
@@ -7022,8 +7013,8 @@
       <c r="X72" s="1">
         <v>0</v>
       </c>
-      <c r="Y72" t="s">
-        <v>54</v>
+      <c r="Y72" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="24" customHeight="1" spans="3:25">
@@ -7093,8 +7084,8 @@
       <c r="X73" s="1">
         <v>0</v>
       </c>
-      <c r="Y73" t="s">
-        <v>54</v>
+      <c r="Y73" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1" spans="3:25">
@@ -7164,8 +7155,8 @@
       <c r="X74" s="1">
         <v>0</v>
       </c>
-      <c r="Y74" t="s">
-        <v>54</v>
+      <c r="Y74" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1" spans="3:25">
@@ -7235,8 +7226,8 @@
       <c r="X75" s="1">
         <v>0</v>
       </c>
-      <c r="Y75" t="s">
-        <v>54</v>
+      <c r="Y75" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="76" ht="24" customHeight="1" spans="3:25">
@@ -7306,8 +7297,8 @@
       <c r="X76" s="1">
         <v>0</v>
       </c>
-      <c r="Y76" t="s">
-        <v>54</v>
+      <c r="Y76" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="77" ht="24" customHeight="1" spans="3:25">
@@ -7377,8 +7368,8 @@
       <c r="X77" s="1">
         <v>0</v>
       </c>
-      <c r="Y77" t="s">
-        <v>54</v>
+      <c r="Y77" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="78" ht="24" customHeight="1" spans="3:25">
@@ -7448,8 +7439,8 @@
       <c r="X78" s="1">
         <v>0</v>
       </c>
-      <c r="Y78" t="s">
-        <v>54</v>
+      <c r="Y78" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="79" ht="24" customHeight="1" spans="3:25">
@@ -7519,8 +7510,8 @@
       <c r="X79" s="1">
         <v>0</v>
       </c>
-      <c r="Y79" t="s">
-        <v>54</v>
+      <c r="Y79" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="80" ht="24" customHeight="1" spans="3:25">
@@ -7590,8 +7581,8 @@
       <c r="X80" s="1">
         <v>0</v>
       </c>
-      <c r="Y80" t="s">
-        <v>54</v>
+      <c r="Y80" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7610,10 +7601,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Z25"/>
+  <dimension ref="C3:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z$1:Z$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7632,11 +7623,10 @@
     <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
     <col min="22" max="24" width="13" style="1" customWidth="1"/>
     <col min="25" max="25" width="7.375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:26">
+    <row r="3" s="1" customFormat="1" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7706,11 +7696,8 @@
       <c r="Y3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:26">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:25">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7780,11 +7767,8 @@
       <c r="Y4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:26">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:25">
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -7854,11 +7838,8 @@
       <c r="Y5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="3:24">
+    </row>
+    <row r="6" spans="3:25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -7866,10 +7847,10 @@
         <v>2003</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -7922,8 +7903,11 @@
       <c r="X6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:24">
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -7931,10 +7915,10 @@
         <v>2003</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -7987,8 +7971,11 @@
       <c r="X7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:24">
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -7996,10 +7983,10 @@
         <v>2004</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -8052,8 +8039,11 @@
       <c r="X8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:24">
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -8061,10 +8051,10 @@
         <v>2004</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -8117,8 +8107,11 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:24">
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -8126,10 +8119,10 @@
         <v>2007</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -8182,8 +8175,11 @@
       <c r="X10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:24">
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -8191,10 +8187,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -8247,8 +8243,11 @@
       <c r="X11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:24">
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -8256,10 +8255,10 @@
         <v>2001</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -8312,8 +8311,11 @@
       <c r="X12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:24">
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -8321,10 +8323,10 @@
         <v>2002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -8377,8 +8379,11 @@
       <c r="X13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:24">
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -8386,10 +8391,10 @@
         <v>1002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -8442,8 +8447,11 @@
       <c r="X14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:24">
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -8451,10 +8459,10 @@
         <v>3004</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -8507,8 +8515,11 @@
       <c r="X15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:24">
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -8516,10 +8527,10 @@
         <v>3007</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -8572,8 +8583,11 @@
       <c r="X16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:24">
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -8581,10 +8595,10 @@
         <v>2002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -8637,8 +8651,11 @@
       <c r="X17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24">
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -8646,10 +8663,10 @@
         <v>2001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -8702,8 +8719,11 @@
       <c r="X18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24">
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -8711,10 +8731,10 @@
         <v>1005</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -8767,8 +8787,11 @@
       <c r="X19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:24">
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -8776,10 +8799,10 @@
         <v>2005</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -8832,8 +8855,11 @@
       <c r="X20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24">
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -8841,10 +8867,10 @@
         <v>3005</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -8897,8 +8923,11 @@
       <c r="X21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:24">
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -8906,10 +8935,10 @@
         <v>3007</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -8962,8 +8991,11 @@
       <c r="X22" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:24">
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -8971,10 +9003,10 @@
         <v>2007</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
@@ -9027,8 +9059,11 @@
       <c r="X23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24">
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -9036,10 +9071,10 @@
         <v>1007</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
@@ -9092,8 +9127,11 @@
       <c r="X24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24">
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -9101,10 +9139,10 @@
         <v>3002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>
@@ -9155,6 +9193,9 @@
         <v>0</v>
       </c>
       <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="262">
   <si>
     <t>_ID</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>武力盾·系数加强</t>
+  </si>
+  <si>
+    <t>增加10%技能系数</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>10022</t>
@@ -1229,12 +1235,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1701,6 +1707,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2022,17 +2029,17 @@
   <sheetPr/>
   <dimension ref="C3:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.375" style="1" customWidth="1"/>
@@ -3691,7 +3698,7 @@
         <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -3720,8 +3727,8 @@
       <c r="O26" t="s">
         <v>53</v>
       </c>
-      <c r="P26" t="s">
-        <v>55</v>
+      <c r="P26" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="Q26" t="s">
         <v>53</v>
@@ -3753,13 +3760,13 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:25">
       <c r="C27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
@@ -3791,7 +3798,7 @@
       <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="Q27" t="s">
@@ -3824,13 +3831,13 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:25">
       <c r="C28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
         <v>51</v>
@@ -3895,13 +3902,13 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:25">
       <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
-        <v>109</v>
-      </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>58</v>
@@ -3966,13 +3973,13 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:25">
       <c r="C30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
         <v>62</v>
@@ -4037,13 +4044,13 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:25">
       <c r="C31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -4108,13 +4115,13 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:25">
       <c r="C32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>68</v>
@@ -4179,13 +4186,13 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:25">
       <c r="C33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
@@ -4250,13 +4257,13 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:25">
       <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
         <v>122</v>
       </c>
-      <c r="D34" t="s">
-        <v>120</v>
-      </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
         <v>58</v>
@@ -4321,13 +4328,13 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:25">
       <c r="C35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F35" t="s">
         <v>62</v>
@@ -4392,13 +4399,13 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:25">
       <c r="C36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
         <v>65</v>
@@ -4463,13 +4470,13 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:25">
       <c r="C37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
         <v>68</v>
@@ -4534,13 +4541,13 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:25">
       <c r="C38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
         <v>51</v>
@@ -4605,13 +4612,13 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:25">
       <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
         <v>133</v>
       </c>
-      <c r="D39" t="s">
-        <v>131</v>
-      </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
         <v>58</v>
@@ -4676,13 +4683,13 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:25">
       <c r="C40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
         <v>62</v>
@@ -4747,13 +4754,13 @@
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:25">
       <c r="C41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F41" t="s">
         <v>65</v>
@@ -4818,13 +4825,13 @@
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:25">
       <c r="C42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s">
         <v>68</v>
@@ -4889,13 +4896,13 @@
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:25">
       <c r="C43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
@@ -4960,13 +4967,13 @@
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:25">
       <c r="C44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
         <v>144</v>
       </c>
-      <c r="D44" t="s">
-        <v>142</v>
-      </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s">
         <v>58</v>
@@ -5031,13 +5038,13 @@
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:25">
       <c r="C45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
         <v>62</v>
@@ -5102,13 +5109,13 @@
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:25">
       <c r="C46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
         <v>65</v>
@@ -5173,13 +5180,13 @@
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:25">
       <c r="C47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F47" t="s">
         <v>68</v>
@@ -5244,13 +5251,13 @@
     </row>
     <row r="48" ht="24" customHeight="1" spans="3:25">
       <c r="C48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
@@ -5315,13 +5322,13 @@
     </row>
     <row r="49" ht="24" customHeight="1" spans="3:25">
       <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" t="s">
         <v>155</v>
       </c>
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
         <v>58</v>
@@ -5386,13 +5393,13 @@
     </row>
     <row r="50" ht="24" customHeight="1" spans="3:25">
       <c r="C50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
@@ -5457,13 +5464,13 @@
     </row>
     <row r="51" ht="24" customHeight="1" spans="3:25">
       <c r="C51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F51" t="s">
         <v>65</v>
@@ -5528,13 +5535,13 @@
     </row>
     <row r="52" ht="24" customHeight="1" spans="3:25">
       <c r="C52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
         <v>68</v>
@@ -5599,16 +5606,16 @@
     </row>
     <row r="53" ht="24" customHeight="1" spans="3:25">
       <c r="C53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G53" t="s">
         <v>52</v>
@@ -5637,8 +5644,8 @@
       <c r="O53" t="s">
         <v>53</v>
       </c>
-      <c r="P53" t="s">
-        <v>55</v>
+      <c r="P53" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="Q53" t="s">
         <v>53</v>
@@ -5670,13 +5677,13 @@
     </row>
     <row r="54" ht="24" customHeight="1" spans="3:25">
       <c r="C54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s">
         <v>51</v>
@@ -5741,13 +5748,13 @@
     </row>
     <row r="55" ht="24" customHeight="1" spans="3:25">
       <c r="C55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F55" t="s">
         <v>51</v>
@@ -5812,13 +5819,13 @@
     </row>
     <row r="56" ht="24" customHeight="1" spans="3:25">
       <c r="C56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s">
         <v>172</v>
       </c>
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F56" t="s">
         <v>58</v>
@@ -5883,13 +5890,13 @@
     </row>
     <row r="57" ht="24" customHeight="1" spans="3:25">
       <c r="C57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F57" t="s">
         <v>62</v>
@@ -5954,13 +5961,13 @@
     </row>
     <row r="58" ht="24" customHeight="1" spans="3:25">
       <c r="C58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F58" t="s">
         <v>65</v>
@@ -6025,13 +6032,13 @@
     </row>
     <row r="59" ht="24" customHeight="1" spans="3:25">
       <c r="C59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F59" t="s">
         <v>68</v>
@@ -6096,13 +6103,13 @@
     </row>
     <row r="60" ht="24" customHeight="1" spans="3:25">
       <c r="C60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F60" t="s">
         <v>51</v>
@@ -6167,13 +6174,13 @@
     </row>
     <row r="61" ht="24" customHeight="1" spans="3:25">
       <c r="C61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F61" t="s">
         <v>51</v>
@@ -6238,13 +6245,13 @@
     </row>
     <row r="62" ht="24" customHeight="1" spans="3:25">
       <c r="C62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F62" t="s">
         <v>51</v>
@@ -6309,13 +6316,13 @@
     </row>
     <row r="63" ht="24" customHeight="1" spans="3:25">
       <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
         <v>189</v>
       </c>
-      <c r="D63" t="s">
-        <v>187</v>
-      </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F63" t="s">
         <v>58</v>
@@ -6380,13 +6387,13 @@
     </row>
     <row r="64" ht="24" customHeight="1" spans="3:25">
       <c r="C64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
         <v>62</v>
@@ -6451,13 +6458,13 @@
     </row>
     <row r="65" ht="24" customHeight="1" spans="3:25">
       <c r="C65" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F65" t="s">
         <v>65</v>
@@ -6522,13 +6529,13 @@
     </row>
     <row r="66" ht="24" customHeight="1" spans="3:25">
       <c r="C66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
         <v>68</v>
@@ -6593,13 +6600,13 @@
     </row>
     <row r="67" ht="24" customHeight="1" spans="3:25">
       <c r="C67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F67" t="s">
         <v>51</v>
@@ -6664,16 +6671,16 @@
     </row>
     <row r="68" ht="24" customHeight="1" spans="3:25">
       <c r="C68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G68" t="s">
         <v>52</v>
@@ -6702,8 +6709,8 @@
       <c r="O68" t="s">
         <v>53</v>
       </c>
-      <c r="P68" t="s">
-        <v>55</v>
+      <c r="P68" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="Q68" t="s">
         <v>53</v>
@@ -6735,13 +6742,13 @@
     </row>
     <row r="69" ht="24" customHeight="1" spans="3:25">
       <c r="C69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F69" t="s">
         <v>51</v>
@@ -6806,13 +6813,13 @@
     </row>
     <row r="70" ht="24" customHeight="1" spans="3:25">
       <c r="C70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
         <v>51</v>
@@ -6877,16 +6884,16 @@
     </row>
     <row r="71" ht="24" customHeight="1" spans="3:25">
       <c r="C71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
         <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G71" t="s">
         <v>52</v>
@@ -6948,16 +6955,16 @@
     </row>
     <row r="72" ht="24" customHeight="1" spans="3:25">
       <c r="C72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" t="s">
+        <v>215</v>
+      </c>
+      <c r="F72" t="s">
         <v>213</v>
-      </c>
-      <c r="F72" t="s">
-        <v>211</v>
       </c>
       <c r="G72" t="s">
         <v>52</v>
@@ -7019,16 +7026,16 @@
     </row>
     <row r="73" ht="24" customHeight="1" spans="3:25">
       <c r="C73" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G73" t="s">
         <v>52</v>
@@ -7090,16 +7097,16 @@
     </row>
     <row r="74" ht="24" customHeight="1" spans="3:25">
       <c r="C74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F74" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G74" t="s">
         <v>52</v>
@@ -7161,16 +7168,16 @@
     </row>
     <row r="75" ht="24" customHeight="1" spans="3:25">
       <c r="C75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F75" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G75" t="s">
         <v>52</v>
@@ -7232,16 +7239,16 @@
     </row>
     <row r="76" ht="24" customHeight="1" spans="3:25">
       <c r="C76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G76" t="s">
         <v>52</v>
@@ -7303,16 +7310,16 @@
     </row>
     <row r="77" ht="24" customHeight="1" spans="3:25">
       <c r="C77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G77" t="s">
         <v>52</v>
@@ -7374,16 +7381,16 @@
     </row>
     <row r="78" ht="24" customHeight="1" spans="3:25">
       <c r="C78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F78" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G78" t="s">
         <v>52</v>
@@ -7445,16 +7452,16 @@
     </row>
     <row r="79" ht="24" customHeight="1" spans="3:25">
       <c r="C79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G79" t="s">
         <v>52</v>
@@ -7516,16 +7523,16 @@
     </row>
     <row r="80" ht="24" customHeight="1" spans="3:25">
       <c r="C80" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G80" t="s">
         <v>52</v>
@@ -7847,10 +7854,10 @@
         <v>2003</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -7915,10 +7922,10 @@
         <v>2003</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -7983,10 +7990,10 @@
         <v>2004</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -8051,10 +8058,10 @@
         <v>2004</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -8119,10 +8126,10 @@
         <v>2007</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -8187,10 +8194,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -8255,10 +8262,10 @@
         <v>2001</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -8323,10 +8330,10 @@
         <v>2002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -8391,10 +8398,10 @@
         <v>1002</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -8459,10 +8466,10 @@
         <v>3004</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -8527,10 +8534,10 @@
         <v>3007</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -8595,10 +8602,10 @@
         <v>2002</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -8663,10 +8670,10 @@
         <v>2001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -8731,10 +8738,10 @@
         <v>1005</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -8799,10 +8806,10 @@
         <v>2005</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -8867,10 +8874,10 @@
         <v>3005</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -8935,10 +8942,10 @@
         <v>3007</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -9003,10 +9010,10 @@
         <v>2007</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
@@ -9071,10 +9078,10 @@
         <v>1007</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
@@ -9139,10 +9146,10 @@
         <v>3002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -1235,12 +1235,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2032,7 +2032,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="261">
   <si>
     <t>_ID</t>
   </si>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>10001</t>
   </si>
   <si>
     <t>1001</t>
@@ -2030,9 +2027,9 @@
   <dimension ref="C3:Y80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2268,68 +2265,68 @@
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="3:25">
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>10001</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>55</v>
-      </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -2340,67 +2337,67 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="3:25">
       <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>59</v>
-      </c>
       <c r="R7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -2411,67 +2408,67 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="3:25">
       <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
         <v>54</v>
       </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" t="s">
-        <v>55</v>
-      </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -2482,67 +2479,67 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="3:25">
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" t="s">
         <v>54</v>
       </c>
-      <c r="L9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>53</v>
-      </c>
-      <c r="R9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T9" t="s">
-        <v>55</v>
-      </c>
       <c r="U9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X9" s="1">
         <v>0</v>
@@ -2553,67 +2550,67 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="3:25">
       <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
         <v>54</v>
       </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" t="s">
-        <v>55</v>
-      </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -2624,67 +2621,67 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="3:25">
       <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
       <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
       <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s">
         <v>54</v>
       </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X11" s="1">
         <v>0</v>
@@ -2695,67 +2692,67 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="3:25">
       <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
       <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>59</v>
-      </c>
       <c r="R12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -2766,67 +2763,67 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="3:25">
       <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
         <v>54</v>
       </c>
-      <c r="L13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S13" t="s">
-        <v>55</v>
-      </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -2837,67 +2834,67 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="3:25">
       <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
         <v>53</v>
       </c>
-      <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" t="s">
         <v>54</v>
       </c>
-      <c r="L14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S14" t="s">
-        <v>53</v>
-      </c>
-      <c r="T14" t="s">
-        <v>55</v>
-      </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X14" s="1">
         <v>0</v>
@@ -2908,67 +2905,67 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="3:25">
       <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
         <v>53</v>
       </c>
-      <c r="I15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" t="s">
         <v>54</v>
       </c>
-      <c r="L15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" t="s">
-        <v>55</v>
-      </c>
       <c r="V15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X15" s="1">
         <v>0</v>
@@ -2979,67 +2976,67 @@
     </row>
     <row r="16" spans="3:25">
       <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
       <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="Q16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -3050,67 +3047,67 @@
     </row>
     <row r="17" spans="3:25">
       <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
       <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>59</v>
-      </c>
       <c r="R17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X17" s="1">
         <v>0</v>
@@ -3121,67 +3118,67 @@
     </row>
     <row r="18" spans="3:25">
       <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="T18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X18" s="1">
         <v>0</v>
@@ -3192,67 +3189,67 @@
     </row>
     <row r="19" spans="3:25">
       <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="U19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -3263,67 +3260,67 @@
     </row>
     <row r="20" spans="3:25">
       <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="V20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X20" s="1">
         <v>0</v>
@@ -3334,67 +3331,67 @@
     </row>
     <row r="21" spans="3:25">
       <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
       <c r="F21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
       <c r="H21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="Q21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X21" s="1">
         <v>0</v>
@@ -3405,67 +3402,67 @@
     </row>
     <row r="22" spans="3:25">
       <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
       <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>59</v>
-      </c>
       <c r="R22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X22" s="1">
         <v>0</v>
@@ -3476,67 +3473,67 @@
     </row>
     <row r="23" spans="3:25">
       <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>97</v>
-      </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L23" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="T23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
@@ -3547,67 +3544,67 @@
     </row>
     <row r="24" spans="3:25">
       <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
         <v>98</v>
       </c>
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>99</v>
-      </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L24" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" t="s">
-        <v>53</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="U24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
@@ -3618,67 +3615,67 @@
     </row>
     <row r="25" spans="3:25">
       <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>101</v>
-      </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L25" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="V25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -3689,67 +3686,67 @@
     </row>
     <row r="26" ht="24" customHeight="1" spans="3:25">
       <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" t="s">
-        <v>53</v>
-      </c>
-      <c r="N26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
@@ -3760,67 +3757,67 @@
     </row>
     <row r="27" ht="24" customHeight="1" spans="3:25">
       <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>108</v>
       </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
       <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
         <v>51</v>
       </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
       <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" t="s">
         <v>53</v>
       </c>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L27" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X27" s="1">
         <v>0</v>
@@ -3831,67 +3828,67 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:25">
       <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
-        <v>112</v>
-      </c>
       <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
         <v>51</v>
       </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
       <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" t="s">
         <v>53</v>
       </c>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s">
         <v>54</v>
       </c>
-      <c r="L28" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s">
-        <v>55</v>
-      </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -3902,67 +3899,67 @@
     </row>
     <row r="29" ht="24" customHeight="1" spans="3:25">
       <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" t="s">
-        <v>114</v>
-      </c>
       <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" t="s">
         <v>58</v>
       </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>59</v>
-      </c>
       <c r="R29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
@@ -3973,67 +3970,67 @@
     </row>
     <row r="30" ht="24" customHeight="1" spans="3:25">
       <c r="C30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" t="s">
-        <v>116</v>
-      </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" t="s">
         <v>53</v>
       </c>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30" t="s">
         <v>54</v>
       </c>
-      <c r="L30" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" t="s">
-        <v>53</v>
-      </c>
-      <c r="N30" t="s">
-        <v>53</v>
-      </c>
-      <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S30" t="s">
-        <v>55</v>
-      </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -4044,67 +4041,67 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:25">
       <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s">
-        <v>118</v>
-      </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" t="s">
         <v>53</v>
       </c>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" t="s">
         <v>54</v>
       </c>
-      <c r="L31" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" t="s">
-        <v>53</v>
-      </c>
-      <c r="S31" t="s">
-        <v>53</v>
-      </c>
-      <c r="T31" t="s">
-        <v>55</v>
-      </c>
       <c r="U31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X31" s="1">
         <v>0</v>
@@ -4115,67 +4112,67 @@
     </row>
     <row r="32" ht="24" customHeight="1" spans="3:25">
       <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
         <v>119</v>
       </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
-        <v>120</v>
-      </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" t="s">
         <v>53</v>
       </c>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" t="s">
         <v>54</v>
       </c>
-      <c r="L32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" t="s">
-        <v>53</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>53</v>
-      </c>
-      <c r="R32" t="s">
-        <v>53</v>
-      </c>
-      <c r="S32" t="s">
-        <v>53</v>
-      </c>
-      <c r="T32" t="s">
-        <v>53</v>
-      </c>
-      <c r="U32" t="s">
-        <v>55</v>
-      </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X32" s="1">
         <v>0</v>
@@ -4186,67 +4183,67 @@
     </row>
     <row r="33" ht="24" customHeight="1" spans="3:25">
       <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
         <v>121</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>122</v>
       </c>
-      <c r="E33" t="s">
-        <v>123</v>
-      </c>
       <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
         <v>51</v>
       </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
       <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" t="s">
         <v>53</v>
       </c>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s">
         <v>54</v>
       </c>
-      <c r="L33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" t="s">
-        <v>53</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="s">
-        <v>55</v>
-      </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X33" s="1">
         <v>0</v>
@@ -4257,67 +4254,67 @@
     </row>
     <row r="34" ht="24" customHeight="1" spans="3:25">
       <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
         <v>124</v>
       </c>
-      <c r="D34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" t="s">
-        <v>125</v>
-      </c>
       <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>59</v>
-      </c>
       <c r="R34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X34" s="1">
         <v>0</v>
@@ -4328,67 +4325,67 @@
     </row>
     <row r="35" ht="24" customHeight="1" spans="3:25">
       <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" t="s">
         <v>126</v>
       </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" t="s">
-        <v>127</v>
-      </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" t="s">
         <v>53</v>
       </c>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" t="s">
         <v>54</v>
       </c>
-      <c r="L35" t="s">
-        <v>53</v>
-      </c>
-      <c r="M35" t="s">
-        <v>53</v>
-      </c>
-      <c r="N35" t="s">
-        <v>53</v>
-      </c>
-      <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>53</v>
-      </c>
-      <c r="R35" t="s">
-        <v>53</v>
-      </c>
-      <c r="S35" t="s">
-        <v>55</v>
-      </c>
       <c r="T35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X35" s="1">
         <v>0</v>
@@ -4399,67 +4396,67 @@
     </row>
     <row r="36" ht="24" customHeight="1" spans="3:25">
       <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
         <v>128</v>
       </c>
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>129</v>
-      </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" t="s">
         <v>53</v>
       </c>
-      <c r="I36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" t="s">
+        <v>52</v>
+      </c>
+      <c r="T36" t="s">
         <v>54</v>
       </c>
-      <c r="L36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M36" t="s">
-        <v>53</v>
-      </c>
-      <c r="N36" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R36" t="s">
-        <v>53</v>
-      </c>
-      <c r="S36" t="s">
-        <v>53</v>
-      </c>
-      <c r="T36" t="s">
-        <v>55</v>
-      </c>
       <c r="U36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X36" s="1">
         <v>0</v>
@@ -4470,67 +4467,67 @@
     </row>
     <row r="37" ht="24" customHeight="1" spans="3:25">
       <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
         <v>130</v>
       </c>
-      <c r="D37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" t="s">
-        <v>131</v>
-      </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" t="s">
         <v>53</v>
       </c>
-      <c r="I37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" t="s">
         <v>54</v>
       </c>
-      <c r="L37" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" t="s">
-        <v>53</v>
-      </c>
-      <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>53</v>
-      </c>
-      <c r="R37" t="s">
-        <v>53</v>
-      </c>
-      <c r="S37" t="s">
-        <v>53</v>
-      </c>
-      <c r="T37" t="s">
-        <v>53</v>
-      </c>
-      <c r="U37" t="s">
-        <v>55</v>
-      </c>
       <c r="V37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X37" s="1">
         <v>0</v>
@@ -4541,67 +4538,67 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="3:25">
       <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>133</v>
       </c>
-      <c r="E38" t="s">
-        <v>134</v>
-      </c>
       <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
         <v>51</v>
       </c>
-      <c r="G38" t="s">
-        <v>52</v>
-      </c>
       <c r="H38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s">
         <v>53</v>
       </c>
-      <c r="I38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s">
         <v>54</v>
       </c>
-      <c r="L38" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" t="s">
-        <v>53</v>
-      </c>
-      <c r="N38" t="s">
-        <v>53</v>
-      </c>
-      <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s">
-        <v>55</v>
-      </c>
       <c r="Q38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X38" s="1">
         <v>0</v>
@@ -4612,67 +4609,67 @@
     </row>
     <row r="39" ht="24" customHeight="1" spans="3:25">
       <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" t="s">
-        <v>136</v>
-      </c>
       <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" t="s">
         <v>58</v>
       </c>
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-      <c r="I39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>59</v>
-      </c>
       <c r="R39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X39" s="1">
         <v>0</v>
@@ -4683,67 +4680,67 @@
     </row>
     <row r="40" ht="24" customHeight="1" spans="3:25">
       <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" t="s">
-        <v>138</v>
-      </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s">
         <v>53</v>
       </c>
-      <c r="I40" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" t="s">
         <v>54</v>
       </c>
-      <c r="L40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M40" t="s">
-        <v>53</v>
-      </c>
-      <c r="N40" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>53</v>
-      </c>
-      <c r="R40" t="s">
-        <v>53</v>
-      </c>
-      <c r="S40" t="s">
-        <v>55</v>
-      </c>
       <c r="T40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X40" s="1">
         <v>0</v>
@@ -4754,67 +4751,67 @@
     </row>
     <row r="41" ht="24" customHeight="1" spans="3:25">
       <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
         <v>139</v>
       </c>
-      <c r="D41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" t="s">
-        <v>140</v>
-      </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" t="s">
         <v>53</v>
       </c>
-      <c r="I41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" t="s">
+        <v>52</v>
+      </c>
+      <c r="N41" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>52</v>
+      </c>
+      <c r="R41" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" t="s">
+        <v>52</v>
+      </c>
+      <c r="T41" t="s">
         <v>54</v>
       </c>
-      <c r="L41" t="s">
-        <v>53</v>
-      </c>
-      <c r="M41" t="s">
-        <v>53</v>
-      </c>
-      <c r="N41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>53</v>
-      </c>
-      <c r="R41" t="s">
-        <v>53</v>
-      </c>
-      <c r="S41" t="s">
-        <v>53</v>
-      </c>
-      <c r="T41" t="s">
-        <v>55</v>
-      </c>
       <c r="U41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X41" s="1">
         <v>0</v>
@@ -4825,67 +4822,67 @@
     </row>
     <row r="42" ht="24" customHeight="1" spans="3:25">
       <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
         <v>141</v>
       </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" t="s">
-        <v>142</v>
-      </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" t="s">
         <v>53</v>
       </c>
-      <c r="I42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>52</v>
+      </c>
+      <c r="R42" t="s">
+        <v>52</v>
+      </c>
+      <c r="S42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" t="s">
+        <v>52</v>
+      </c>
+      <c r="U42" t="s">
         <v>54</v>
       </c>
-      <c r="L42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N42" t="s">
-        <v>53</v>
-      </c>
-      <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>53</v>
-      </c>
-      <c r="R42" t="s">
-        <v>53</v>
-      </c>
-      <c r="S42" t="s">
-        <v>53</v>
-      </c>
-      <c r="T42" t="s">
-        <v>53</v>
-      </c>
-      <c r="U42" t="s">
-        <v>55</v>
-      </c>
       <c r="V42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X42" s="1">
         <v>0</v>
@@ -4896,67 +4893,67 @@
     </row>
     <row r="43" ht="24" customHeight="1" spans="3:25">
       <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
         <v>143</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>144</v>
       </c>
-      <c r="E43" t="s">
-        <v>145</v>
-      </c>
       <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
         <v>51</v>
       </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
       <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" t="s">
         <v>53</v>
       </c>
-      <c r="I43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s">
         <v>54</v>
       </c>
-      <c r="L43" t="s">
-        <v>53</v>
-      </c>
-      <c r="M43" t="s">
-        <v>53</v>
-      </c>
-      <c r="N43" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="s">
-        <v>55</v>
-      </c>
       <c r="Q43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X43" s="1">
         <v>0</v>
@@ -4967,67 +4964,67 @@
     </row>
     <row r="44" ht="24" customHeight="1" spans="3:25">
       <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
         <v>146</v>
       </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" t="s">
-        <v>147</v>
-      </c>
       <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q44" t="s">
         <v>58</v>
       </c>
-      <c r="G44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" t="s">
-        <v>53</v>
-      </c>
-      <c r="J44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" t="s">
-        <v>54</v>
-      </c>
-      <c r="L44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" t="s">
-        <v>53</v>
-      </c>
-      <c r="N44" t="s">
-        <v>53</v>
-      </c>
-      <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>59</v>
-      </c>
       <c r="R44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X44" s="1">
         <v>0</v>
@@ -5038,67 +5035,67 @@
     </row>
     <row r="45" ht="24" customHeight="1" spans="3:25">
       <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" t="s">
         <v>148</v>
       </c>
-      <c r="D45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" t="s">
-        <v>149</v>
-      </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" t="s">
         <v>53</v>
       </c>
-      <c r="I45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>52</v>
+      </c>
+      <c r="R45" t="s">
+        <v>52</v>
+      </c>
+      <c r="S45" t="s">
         <v>54</v>
       </c>
-      <c r="L45" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" t="s">
-        <v>53</v>
-      </c>
-      <c r="N45" t="s">
-        <v>53</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>53</v>
-      </c>
-      <c r="R45" t="s">
-        <v>53</v>
-      </c>
-      <c r="S45" t="s">
-        <v>55</v>
-      </c>
       <c r="T45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X45" s="1">
         <v>0</v>
@@ -5109,67 +5106,67 @@
     </row>
     <row r="46" ht="24" customHeight="1" spans="3:25">
       <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" t="s">
         <v>150</v>
       </c>
-      <c r="D46" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" t="s">
-        <v>151</v>
-      </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" t="s">
         <v>53</v>
       </c>
-      <c r="I46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" t="s">
-        <v>53</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>52</v>
+      </c>
+      <c r="R46" t="s">
+        <v>52</v>
+      </c>
+      <c r="S46" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" t="s">
         <v>54</v>
       </c>
-      <c r="L46" t="s">
-        <v>53</v>
-      </c>
-      <c r="M46" t="s">
-        <v>53</v>
-      </c>
-      <c r="N46" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>53</v>
-      </c>
-      <c r="R46" t="s">
-        <v>53</v>
-      </c>
-      <c r="S46" t="s">
-        <v>53</v>
-      </c>
-      <c r="T46" t="s">
-        <v>55</v>
-      </c>
       <c r="U46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X46" s="1">
         <v>0</v>
@@ -5180,67 +5177,67 @@
     </row>
     <row r="47" ht="24" customHeight="1" spans="3:25">
       <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
         <v>152</v>
       </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
-        <v>153</v>
-      </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" t="s">
         <v>53</v>
       </c>
-      <c r="I47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" t="s">
+        <v>52</v>
+      </c>
+      <c r="N47" t="s">
+        <v>52</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>52</v>
+      </c>
+      <c r="R47" t="s">
+        <v>52</v>
+      </c>
+      <c r="S47" t="s">
+        <v>52</v>
+      </c>
+      <c r="T47" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47" t="s">
         <v>54</v>
       </c>
-      <c r="L47" t="s">
-        <v>53</v>
-      </c>
-      <c r="M47" t="s">
-        <v>53</v>
-      </c>
-      <c r="N47" t="s">
-        <v>53</v>
-      </c>
-      <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>53</v>
-      </c>
-      <c r="R47" t="s">
-        <v>53</v>
-      </c>
-      <c r="S47" t="s">
-        <v>53</v>
-      </c>
-      <c r="T47" t="s">
-        <v>53</v>
-      </c>
-      <c r="U47" t="s">
-        <v>55</v>
-      </c>
       <c r="V47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X47" s="1">
         <v>0</v>
@@ -5251,67 +5248,67 @@
     </row>
     <row r="48" ht="24" customHeight="1" spans="3:25">
       <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
         <v>154</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>155</v>
       </c>
-      <c r="E48" t="s">
-        <v>156</v>
-      </c>
       <c r="F48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" t="s">
         <v>51</v>
       </c>
-      <c r="G48" t="s">
-        <v>52</v>
-      </c>
       <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" t="s">
         <v>53</v>
       </c>
-      <c r="I48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" t="s">
-        <v>53</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" t="s">
+        <v>52</v>
+      </c>
+      <c r="N48" t="s">
+        <v>52</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s">
         <v>54</v>
       </c>
-      <c r="L48" t="s">
-        <v>53</v>
-      </c>
-      <c r="M48" t="s">
-        <v>53</v>
-      </c>
-      <c r="N48" t="s">
-        <v>53</v>
-      </c>
-      <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="s">
-        <v>55</v>
-      </c>
       <c r="Q48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X48" s="1">
         <v>0</v>
@@ -5322,67 +5319,67 @@
     </row>
     <row r="49" ht="24" customHeight="1" spans="3:25">
       <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
         <v>157</v>
       </c>
-      <c r="D49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" t="s">
-        <v>158</v>
-      </c>
       <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" t="s">
+        <v>52</v>
+      </c>
+      <c r="N49" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" t="s">
         <v>58</v>
       </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" t="s">
-        <v>54</v>
-      </c>
-      <c r="L49" t="s">
-        <v>53</v>
-      </c>
-      <c r="M49" t="s">
-        <v>53</v>
-      </c>
-      <c r="N49" t="s">
-        <v>53</v>
-      </c>
-      <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>59</v>
-      </c>
       <c r="R49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X49" s="1">
         <v>0</v>
@@ -5393,67 +5390,67 @@
     </row>
     <row r="50" ht="24" customHeight="1" spans="3:25">
       <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
         <v>159</v>
       </c>
-      <c r="D50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" t="s">
-        <v>160</v>
-      </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s">
         <v>53</v>
       </c>
-      <c r="I50" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" t="s">
+        <v>52</v>
+      </c>
+      <c r="N50" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>52</v>
+      </c>
+      <c r="R50" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" t="s">
         <v>54</v>
       </c>
-      <c r="L50" t="s">
-        <v>53</v>
-      </c>
-      <c r="M50" t="s">
-        <v>53</v>
-      </c>
-      <c r="N50" t="s">
-        <v>53</v>
-      </c>
-      <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>53</v>
-      </c>
-      <c r="R50" t="s">
-        <v>53</v>
-      </c>
-      <c r="S50" t="s">
-        <v>55</v>
-      </c>
       <c r="T50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X50" s="1">
         <v>0</v>
@@ -5464,67 +5461,67 @@
     </row>
     <row r="51" ht="24" customHeight="1" spans="3:25">
       <c r="C51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
         <v>161</v>
       </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" t="s">
-        <v>162</v>
-      </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" t="s">
         <v>53</v>
       </c>
-      <c r="I51" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>52</v>
+      </c>
+      <c r="R51" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" t="s">
+        <v>52</v>
+      </c>
+      <c r="T51" t="s">
         <v>54</v>
       </c>
-      <c r="L51" t="s">
-        <v>53</v>
-      </c>
-      <c r="M51" t="s">
-        <v>53</v>
-      </c>
-      <c r="N51" t="s">
-        <v>53</v>
-      </c>
-      <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>53</v>
-      </c>
-      <c r="R51" t="s">
-        <v>53</v>
-      </c>
-      <c r="S51" t="s">
-        <v>53</v>
-      </c>
-      <c r="T51" t="s">
-        <v>55</v>
-      </c>
       <c r="U51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X51" s="1">
         <v>0</v>
@@ -5535,67 +5532,67 @@
     </row>
     <row r="52" ht="24" customHeight="1" spans="3:25">
       <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" t="s">
         <v>163</v>
       </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
-      </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" t="s">
         <v>53</v>
       </c>
-      <c r="I52" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" t="s">
+        <v>52</v>
+      </c>
+      <c r="N52" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>52</v>
+      </c>
+      <c r="R52" t="s">
+        <v>52</v>
+      </c>
+      <c r="S52" t="s">
+        <v>52</v>
+      </c>
+      <c r="T52" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" t="s">
         <v>54</v>
       </c>
-      <c r="L52" t="s">
-        <v>53</v>
-      </c>
-      <c r="M52" t="s">
-        <v>53</v>
-      </c>
-      <c r="N52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>53</v>
-      </c>
-      <c r="R52" t="s">
-        <v>53</v>
-      </c>
-      <c r="S52" t="s">
-        <v>53</v>
-      </c>
-      <c r="T52" t="s">
-        <v>53</v>
-      </c>
-      <c r="U52" t="s">
-        <v>55</v>
-      </c>
       <c r="V52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X52" s="1">
         <v>0</v>
@@ -5606,67 +5603,67 @@
     </row>
     <row r="53" ht="24" customHeight="1" spans="3:25">
       <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
         <v>165</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>166</v>
       </c>
-      <c r="E53" t="s">
-        <v>167</v>
-      </c>
       <c r="F53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" t="s">
+        <v>52</v>
+      </c>
+      <c r="N53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G53" t="s">
-        <v>52</v>
-      </c>
-      <c r="H53" t="s">
-        <v>53</v>
-      </c>
-      <c r="I53" t="s">
-        <v>53</v>
-      </c>
-      <c r="J53" t="s">
-        <v>53</v>
-      </c>
-      <c r="K53" t="s">
-        <v>54</v>
-      </c>
-      <c r="L53" t="s">
-        <v>53</v>
-      </c>
-      <c r="M53" t="s">
-        <v>53</v>
-      </c>
-      <c r="N53" t="s">
-        <v>53</v>
-      </c>
-      <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="Q53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X53" s="1">
         <v>0</v>
@@ -5677,67 +5674,67 @@
     </row>
     <row r="54" ht="24" customHeight="1" spans="3:25">
       <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" t="s">
         <v>168</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>169</v>
       </c>
-      <c r="E54" t="s">
-        <v>170</v>
-      </c>
       <c r="F54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
         <v>51</v>
       </c>
-      <c r="G54" t="s">
-        <v>52</v>
-      </c>
       <c r="H54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" t="s">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s">
         <v>54</v>
       </c>
-      <c r="L54" t="s">
-        <v>53</v>
-      </c>
-      <c r="M54" t="s">
-        <v>53</v>
-      </c>
-      <c r="N54" t="s">
-        <v>53</v>
-      </c>
-      <c r="O54" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" t="s">
-        <v>55</v>
-      </c>
       <c r="Q54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X54" s="1">
         <v>0</v>
@@ -5748,67 +5745,67 @@
     </row>
     <row r="55" ht="24" customHeight="1" spans="3:25">
       <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" t="s">
         <v>171</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>172</v>
       </c>
-      <c r="E55" t="s">
-        <v>173</v>
-      </c>
       <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s">
         <v>51</v>
       </c>
-      <c r="G55" t="s">
-        <v>52</v>
-      </c>
       <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" t="s">
         <v>53</v>
       </c>
-      <c r="I55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J55" t="s">
-        <v>53</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" t="s">
+        <v>52</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s">
         <v>54</v>
       </c>
-      <c r="L55" t="s">
-        <v>53</v>
-      </c>
-      <c r="M55" t="s">
-        <v>53</v>
-      </c>
-      <c r="N55" t="s">
-        <v>53</v>
-      </c>
-      <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="s">
-        <v>55</v>
-      </c>
       <c r="Q55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X55" s="1">
         <v>0</v>
@@ -5819,67 +5816,67 @@
     </row>
     <row r="56" ht="24" customHeight="1" spans="3:25">
       <c r="C56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" t="s">
         <v>174</v>
       </c>
-      <c r="D56" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" t="s">
-        <v>175</v>
-      </c>
       <c r="F56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" t="s">
+        <v>52</v>
+      </c>
+      <c r="N56" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56" t="s">
         <v>58</v>
       </c>
-      <c r="G56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H56" t="s">
-        <v>53</v>
-      </c>
-      <c r="I56" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" t="s">
-        <v>54</v>
-      </c>
-      <c r="L56" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" t="s">
-        <v>53</v>
-      </c>
-      <c r="N56" t="s">
-        <v>53</v>
-      </c>
-      <c r="O56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>59</v>
-      </c>
       <c r="R56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X56" s="1">
         <v>0</v>
@@ -5890,67 +5887,67 @@
     </row>
     <row r="57" ht="24" customHeight="1" spans="3:25">
       <c r="C57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" t="s">
         <v>176</v>
       </c>
-      <c r="D57" t="s">
-        <v>172</v>
-      </c>
-      <c r="E57" t="s">
-        <v>177</v>
-      </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57" t="s">
         <v>53</v>
       </c>
-      <c r="I57" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N57" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>52</v>
+      </c>
+      <c r="R57" t="s">
+        <v>52</v>
+      </c>
+      <c r="S57" t="s">
         <v>54</v>
       </c>
-      <c r="L57" t="s">
-        <v>53</v>
-      </c>
-      <c r="M57" t="s">
-        <v>53</v>
-      </c>
-      <c r="N57" t="s">
-        <v>53</v>
-      </c>
-      <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>53</v>
-      </c>
-      <c r="R57" t="s">
-        <v>53</v>
-      </c>
-      <c r="S57" t="s">
-        <v>55</v>
-      </c>
       <c r="T57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X57" s="1">
         <v>0</v>
@@ -5961,67 +5958,67 @@
     </row>
     <row r="58" ht="24" customHeight="1" spans="3:25">
       <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" t="s">
         <v>178</v>
       </c>
-      <c r="D58" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" t="s">
-        <v>179</v>
-      </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" t="s">
         <v>53</v>
       </c>
-      <c r="I58" t="s">
-        <v>53</v>
-      </c>
-      <c r="J58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" t="s">
+        <v>52</v>
+      </c>
+      <c r="N58" t="s">
+        <v>52</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>52</v>
+      </c>
+      <c r="R58" t="s">
+        <v>52</v>
+      </c>
+      <c r="S58" t="s">
+        <v>52</v>
+      </c>
+      <c r="T58" t="s">
         <v>54</v>
       </c>
-      <c r="L58" t="s">
-        <v>53</v>
-      </c>
-      <c r="M58" t="s">
-        <v>53</v>
-      </c>
-      <c r="N58" t="s">
-        <v>53</v>
-      </c>
-      <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>53</v>
-      </c>
-      <c r="R58" t="s">
-        <v>53</v>
-      </c>
-      <c r="S58" t="s">
-        <v>53</v>
-      </c>
-      <c r="T58" t="s">
-        <v>55</v>
-      </c>
       <c r="U58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X58" s="1">
         <v>0</v>
@@ -6032,67 +6029,67 @@
     </row>
     <row r="59" ht="24" customHeight="1" spans="3:25">
       <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" t="s">
         <v>180</v>
       </c>
-      <c r="D59" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" t="s">
-        <v>181</v>
-      </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" t="s">
         <v>53</v>
       </c>
-      <c r="I59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" t="s">
+        <v>52</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>52</v>
+      </c>
+      <c r="R59" t="s">
+        <v>52</v>
+      </c>
+      <c r="S59" t="s">
+        <v>52</v>
+      </c>
+      <c r="T59" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" t="s">
         <v>54</v>
       </c>
-      <c r="L59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M59" t="s">
-        <v>53</v>
-      </c>
-      <c r="N59" t="s">
-        <v>53</v>
-      </c>
-      <c r="O59" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>53</v>
-      </c>
-      <c r="R59" t="s">
-        <v>53</v>
-      </c>
-      <c r="S59" t="s">
-        <v>53</v>
-      </c>
-      <c r="T59" t="s">
-        <v>53</v>
-      </c>
-      <c r="U59" t="s">
-        <v>55</v>
-      </c>
       <c r="V59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X59" s="1">
         <v>0</v>
@@ -6103,67 +6100,67 @@
     </row>
     <row r="60" ht="24" customHeight="1" spans="3:25">
       <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
         <v>182</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>183</v>
       </c>
-      <c r="E60" t="s">
-        <v>184</v>
-      </c>
       <c r="F60" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s">
         <v>51</v>
       </c>
-      <c r="G60" t="s">
-        <v>52</v>
-      </c>
       <c r="H60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" t="s">
         <v>53</v>
       </c>
-      <c r="I60" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" t="s">
-        <v>53</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" t="s">
+        <v>52</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s">
         <v>54</v>
       </c>
-      <c r="L60" t="s">
-        <v>53</v>
-      </c>
-      <c r="M60" t="s">
-        <v>53</v>
-      </c>
-      <c r="N60" t="s">
-        <v>53</v>
-      </c>
-      <c r="O60" t="s">
-        <v>53</v>
-      </c>
-      <c r="P60" t="s">
-        <v>55</v>
-      </c>
       <c r="Q60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X60" s="1">
         <v>0</v>
@@ -6174,67 +6171,67 @@
     </row>
     <row r="61" ht="24" customHeight="1" spans="3:25">
       <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
         <v>185</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>186</v>
       </c>
-      <c r="E61" t="s">
-        <v>187</v>
-      </c>
       <c r="F61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s">
         <v>51</v>
       </c>
-      <c r="G61" t="s">
-        <v>52</v>
-      </c>
       <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61" t="s">
         <v>53</v>
       </c>
-      <c r="I61" t="s">
-        <v>53</v>
-      </c>
-      <c r="J61" t="s">
-        <v>53</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" t="s">
+        <v>52</v>
+      </c>
+      <c r="N61" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="s">
         <v>54</v>
       </c>
-      <c r="L61" t="s">
-        <v>53</v>
-      </c>
-      <c r="M61" t="s">
-        <v>53</v>
-      </c>
-      <c r="N61" t="s">
-        <v>53</v>
-      </c>
-      <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="s">
-        <v>55</v>
-      </c>
       <c r="Q61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X61" s="1">
         <v>0</v>
@@ -6245,67 +6242,67 @@
     </row>
     <row r="62" ht="24" customHeight="1" spans="3:25">
       <c r="C62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" t="s">
         <v>188</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>189</v>
       </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
       <c r="F62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s">
         <v>51</v>
       </c>
-      <c r="G62" t="s">
-        <v>52</v>
-      </c>
       <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" t="s">
         <v>53</v>
       </c>
-      <c r="I62" t="s">
-        <v>53</v>
-      </c>
-      <c r="J62" t="s">
-        <v>53</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" t="s">
+        <v>52</v>
+      </c>
+      <c r="N62" t="s">
+        <v>52</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s">
         <v>54</v>
       </c>
-      <c r="L62" t="s">
-        <v>53</v>
-      </c>
-      <c r="M62" t="s">
-        <v>53</v>
-      </c>
-      <c r="N62" t="s">
-        <v>53</v>
-      </c>
-      <c r="O62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" t="s">
-        <v>55</v>
-      </c>
       <c r="Q62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X62" s="1">
         <v>0</v>
@@ -6316,67 +6313,67 @@
     </row>
     <row r="63" ht="24" customHeight="1" spans="3:25">
       <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" t="s">
         <v>191</v>
       </c>
-      <c r="D63" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" t="s">
-        <v>192</v>
-      </c>
       <c r="F63" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" t="s">
+        <v>52</v>
+      </c>
+      <c r="N63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q63" t="s">
         <v>58</v>
       </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" t="s">
-        <v>53</v>
-      </c>
-      <c r="I63" t="s">
-        <v>53</v>
-      </c>
-      <c r="J63" t="s">
-        <v>53</v>
-      </c>
-      <c r="K63" t="s">
-        <v>54</v>
-      </c>
-      <c r="L63" t="s">
-        <v>53</v>
-      </c>
-      <c r="M63" t="s">
-        <v>53</v>
-      </c>
-      <c r="N63" t="s">
-        <v>53</v>
-      </c>
-      <c r="O63" t="s">
-        <v>53</v>
-      </c>
-      <c r="P63" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>59</v>
-      </c>
       <c r="R63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X63" s="1">
         <v>0</v>
@@ -6387,67 +6384,67 @@
     </row>
     <row r="64" ht="24" customHeight="1" spans="3:25">
       <c r="C64" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" t="s">
         <v>193</v>
       </c>
-      <c r="D64" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" t="s">
-        <v>194</v>
-      </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" t="s">
+        <v>52</v>
+      </c>
+      <c r="K64" t="s">
         <v>53</v>
       </c>
-      <c r="I64" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" t="s">
-        <v>53</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" t="s">
+        <v>52</v>
+      </c>
+      <c r="N64" t="s">
+        <v>52</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>52</v>
+      </c>
+      <c r="R64" t="s">
+        <v>52</v>
+      </c>
+      <c r="S64" t="s">
         <v>54</v>
       </c>
-      <c r="L64" t="s">
-        <v>53</v>
-      </c>
-      <c r="M64" t="s">
-        <v>53</v>
-      </c>
-      <c r="N64" t="s">
-        <v>53</v>
-      </c>
-      <c r="O64" t="s">
-        <v>53</v>
-      </c>
-      <c r="P64" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>53</v>
-      </c>
-      <c r="R64" t="s">
-        <v>53</v>
-      </c>
-      <c r="S64" t="s">
-        <v>55</v>
-      </c>
       <c r="T64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X64" s="1">
         <v>0</v>
@@ -6458,67 +6455,67 @@
     </row>
     <row r="65" ht="24" customHeight="1" spans="3:25">
       <c r="C65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
         <v>195</v>
       </c>
-      <c r="D65" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" t="s">
-        <v>196</v>
-      </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" t="s">
         <v>53</v>
       </c>
-      <c r="I65" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" t="s">
-        <v>53</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" t="s">
+        <v>52</v>
+      </c>
+      <c r="N65" t="s">
+        <v>52</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>52</v>
+      </c>
+      <c r="R65" t="s">
+        <v>52</v>
+      </c>
+      <c r="S65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T65" t="s">
         <v>54</v>
       </c>
-      <c r="L65" t="s">
-        <v>53</v>
-      </c>
-      <c r="M65" t="s">
-        <v>53</v>
-      </c>
-      <c r="N65" t="s">
-        <v>53</v>
-      </c>
-      <c r="O65" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>53</v>
-      </c>
-      <c r="R65" t="s">
-        <v>53</v>
-      </c>
-      <c r="S65" t="s">
-        <v>53</v>
-      </c>
-      <c r="T65" t="s">
-        <v>55</v>
-      </c>
       <c r="U65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X65" s="1">
         <v>0</v>
@@ -6529,67 +6526,67 @@
     </row>
     <row r="66" ht="24" customHeight="1" spans="3:25">
       <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" t="s">
         <v>197</v>
       </c>
-      <c r="D66" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66" t="s">
-        <v>198</v>
-      </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" t="s">
+        <v>52</v>
+      </c>
+      <c r="J66" t="s">
+        <v>52</v>
+      </c>
+      <c r="K66" t="s">
         <v>53</v>
       </c>
-      <c r="I66" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" t="s">
-        <v>53</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66" t="s">
+        <v>52</v>
+      </c>
+      <c r="N66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>52</v>
+      </c>
+      <c r="R66" t="s">
+        <v>52</v>
+      </c>
+      <c r="S66" t="s">
+        <v>52</v>
+      </c>
+      <c r="T66" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" t="s">
         <v>54</v>
       </c>
-      <c r="L66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M66" t="s">
-        <v>53</v>
-      </c>
-      <c r="N66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O66" t="s">
-        <v>53</v>
-      </c>
-      <c r="P66" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>53</v>
-      </c>
-      <c r="R66" t="s">
-        <v>53</v>
-      </c>
-      <c r="S66" t="s">
-        <v>53</v>
-      </c>
-      <c r="T66" t="s">
-        <v>53</v>
-      </c>
-      <c r="U66" t="s">
-        <v>55</v>
-      </c>
       <c r="V66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X66" s="1">
         <v>0</v>
@@ -6600,67 +6597,67 @@
     </row>
     <row r="67" ht="24" customHeight="1" spans="3:25">
       <c r="C67" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" t="s">
         <v>199</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>200</v>
       </c>
-      <c r="E67" t="s">
-        <v>201</v>
-      </c>
       <c r="F67" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s">
         <v>51</v>
       </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
       <c r="H67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J67" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" t="s">
         <v>53</v>
       </c>
-      <c r="I67" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" t="s">
-        <v>53</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
+        <v>52</v>
+      </c>
+      <c r="M67" t="s">
+        <v>52</v>
+      </c>
+      <c r="N67" t="s">
+        <v>52</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="s">
         <v>54</v>
       </c>
-      <c r="L67" t="s">
-        <v>53</v>
-      </c>
-      <c r="M67" t="s">
-        <v>53</v>
-      </c>
-      <c r="N67" t="s">
-        <v>53</v>
-      </c>
-      <c r="O67" t="s">
-        <v>53</v>
-      </c>
-      <c r="P67" t="s">
-        <v>55</v>
-      </c>
       <c r="Q67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X67" s="1">
         <v>0</v>
@@ -6671,67 +6668,67 @@
     </row>
     <row r="68" ht="24" customHeight="1" spans="3:25">
       <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
         <v>202</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>203</v>
       </c>
-      <c r="E68" t="s">
-        <v>204</v>
-      </c>
       <c r="F68" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" t="s">
+        <v>51</v>
+      </c>
+      <c r="H68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" t="s">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" t="s">
+        <v>53</v>
+      </c>
+      <c r="L68" t="s">
+        <v>52</v>
+      </c>
+      <c r="M68" t="s">
+        <v>52</v>
+      </c>
+      <c r="N68" t="s">
+        <v>52</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G68" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68" t="s">
-        <v>53</v>
-      </c>
-      <c r="I68" t="s">
-        <v>53</v>
-      </c>
-      <c r="J68" t="s">
-        <v>53</v>
-      </c>
-      <c r="K68" t="s">
-        <v>54</v>
-      </c>
-      <c r="L68" t="s">
-        <v>53</v>
-      </c>
-      <c r="M68" t="s">
-        <v>53</v>
-      </c>
-      <c r="N68" t="s">
-        <v>53</v>
-      </c>
-      <c r="O68" t="s">
-        <v>53</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="Q68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X68" s="1">
         <v>0</v>
@@ -6742,67 +6739,67 @@
     </row>
     <row r="69" ht="24" customHeight="1" spans="3:25">
       <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
         <v>205</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>206</v>
       </c>
-      <c r="E69" t="s">
-        <v>207</v>
-      </c>
       <c r="F69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s">
         <v>51</v>
       </c>
-      <c r="G69" t="s">
-        <v>52</v>
-      </c>
       <c r="H69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" t="s">
         <v>53</v>
       </c>
-      <c r="I69" t="s">
-        <v>53</v>
-      </c>
-      <c r="J69" t="s">
-        <v>53</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" t="s">
+        <v>52</v>
+      </c>
+      <c r="N69" t="s">
+        <v>52</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="s">
         <v>54</v>
       </c>
-      <c r="L69" t="s">
-        <v>53</v>
-      </c>
-      <c r="M69" t="s">
-        <v>53</v>
-      </c>
-      <c r="N69" t="s">
-        <v>53</v>
-      </c>
-      <c r="O69" t="s">
-        <v>53</v>
-      </c>
-      <c r="P69" t="s">
-        <v>55</v>
-      </c>
       <c r="Q69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X69" s="1">
         <v>0</v>
@@ -6813,67 +6810,67 @@
     </row>
     <row r="70" ht="24" customHeight="1" spans="3:25">
       <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
         <v>208</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>209</v>
       </c>
-      <c r="E70" t="s">
-        <v>210</v>
-      </c>
       <c r="F70" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s">
         <v>51</v>
       </c>
-      <c r="G70" t="s">
-        <v>52</v>
-      </c>
       <c r="H70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" t="s">
         <v>53</v>
       </c>
-      <c r="I70" t="s">
-        <v>53</v>
-      </c>
-      <c r="J70" t="s">
-        <v>53</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
+        <v>52</v>
+      </c>
+      <c r="M70" t="s">
+        <v>52</v>
+      </c>
+      <c r="N70" t="s">
+        <v>52</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="s">
         <v>54</v>
       </c>
-      <c r="L70" t="s">
-        <v>53</v>
-      </c>
-      <c r="M70" t="s">
-        <v>53</v>
-      </c>
-      <c r="N70" t="s">
-        <v>53</v>
-      </c>
-      <c r="O70" t="s">
-        <v>53</v>
-      </c>
-      <c r="P70" t="s">
-        <v>55</v>
-      </c>
       <c r="Q70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X70" s="1">
         <v>0</v>
@@ -6884,67 +6881,67 @@
     </row>
     <row r="71" ht="24" customHeight="1" spans="3:25">
       <c r="C71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" t="s">
         <v>211</v>
       </c>
-      <c r="D71" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>212</v>
       </c>
-      <c r="F71" t="s">
-        <v>213</v>
-      </c>
       <c r="G71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" t="s">
         <v>53</v>
       </c>
-      <c r="I71" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" t="s">
-        <v>53</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
+        <v>52</v>
+      </c>
+      <c r="M71" t="s">
+        <v>52</v>
+      </c>
+      <c r="N71" t="s">
+        <v>52</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s">
         <v>54</v>
       </c>
-      <c r="L71" t="s">
-        <v>53</v>
-      </c>
-      <c r="M71" t="s">
-        <v>53</v>
-      </c>
-      <c r="N71" t="s">
-        <v>53</v>
-      </c>
-      <c r="O71" t="s">
-        <v>53</v>
-      </c>
-      <c r="P71" t="s">
-        <v>55</v>
-      </c>
       <c r="Q71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X71" s="1">
         <v>0</v>
@@ -6955,67 +6952,67 @@
     </row>
     <row r="72" ht="24" customHeight="1" spans="3:25">
       <c r="C72" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
         <v>214</v>
       </c>
-      <c r="D72" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" t="s">
-        <v>215</v>
-      </c>
       <c r="F72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" t="s">
+        <v>52</v>
+      </c>
+      <c r="J72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" t="s">
         <v>53</v>
       </c>
-      <c r="I72" t="s">
-        <v>53</v>
-      </c>
-      <c r="J72" t="s">
-        <v>53</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
+        <v>52</v>
+      </c>
+      <c r="M72" t="s">
+        <v>52</v>
+      </c>
+      <c r="N72" t="s">
+        <v>52</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="s">
         <v>54</v>
       </c>
-      <c r="L72" t="s">
-        <v>53</v>
-      </c>
-      <c r="M72" t="s">
-        <v>53</v>
-      </c>
-      <c r="N72" t="s">
-        <v>53</v>
-      </c>
-      <c r="O72" t="s">
-        <v>53</v>
-      </c>
-      <c r="P72" t="s">
-        <v>55</v>
-      </c>
       <c r="Q72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X72" s="1">
         <v>0</v>
@@ -7026,67 +7023,67 @@
     </row>
     <row r="73" ht="24" customHeight="1" spans="3:25">
       <c r="C73" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" t="s">
         <v>216</v>
       </c>
-      <c r="D73" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" t="s">
-        <v>217</v>
-      </c>
       <c r="F73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" t="s">
+        <v>52</v>
+      </c>
+      <c r="J73" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73" t="s">
         <v>53</v>
       </c>
-      <c r="I73" t="s">
-        <v>53</v>
-      </c>
-      <c r="J73" t="s">
-        <v>53</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
+        <v>52</v>
+      </c>
+      <c r="M73" t="s">
+        <v>52</v>
+      </c>
+      <c r="N73" t="s">
+        <v>52</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="s">
         <v>54</v>
       </c>
-      <c r="L73" t="s">
-        <v>53</v>
-      </c>
-      <c r="M73" t="s">
-        <v>53</v>
-      </c>
-      <c r="N73" t="s">
-        <v>53</v>
-      </c>
-      <c r="O73" t="s">
-        <v>53</v>
-      </c>
-      <c r="P73" t="s">
-        <v>55</v>
-      </c>
       <c r="Q73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X73" s="1">
         <v>0</v>
@@ -7097,67 +7094,67 @@
     </row>
     <row r="74" ht="24" customHeight="1" spans="3:25">
       <c r="C74" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" t="s">
         <v>218</v>
       </c>
-      <c r="D74" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" t="s">
-        <v>219</v>
-      </c>
       <c r="F74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s">
+        <v>52</v>
+      </c>
+      <c r="J74" t="s">
+        <v>52</v>
+      </c>
+      <c r="K74" t="s">
         <v>53</v>
       </c>
-      <c r="I74" t="s">
-        <v>53</v>
-      </c>
-      <c r="J74" t="s">
-        <v>53</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
+        <v>52</v>
+      </c>
+      <c r="M74" t="s">
+        <v>52</v>
+      </c>
+      <c r="N74" t="s">
+        <v>52</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="s">
         <v>54</v>
       </c>
-      <c r="L74" t="s">
-        <v>53</v>
-      </c>
-      <c r="M74" t="s">
-        <v>53</v>
-      </c>
-      <c r="N74" t="s">
-        <v>53</v>
-      </c>
-      <c r="O74" t="s">
-        <v>53</v>
-      </c>
-      <c r="P74" t="s">
-        <v>55</v>
-      </c>
       <c r="Q74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X74" s="1">
         <v>0</v>
@@ -7168,67 +7165,67 @@
     </row>
     <row r="75" ht="24" customHeight="1" spans="3:25">
       <c r="C75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
         <v>220</v>
       </c>
-      <c r="D75" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" t="s">
-        <v>221</v>
-      </c>
       <c r="F75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" t="s">
+        <v>52</v>
+      </c>
+      <c r="J75" t="s">
+        <v>52</v>
+      </c>
+      <c r="K75" t="s">
         <v>53</v>
       </c>
-      <c r="I75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
+        <v>52</v>
+      </c>
+      <c r="M75" t="s">
+        <v>52</v>
+      </c>
+      <c r="N75" t="s">
+        <v>52</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="s">
         <v>54</v>
       </c>
-      <c r="L75" t="s">
-        <v>53</v>
-      </c>
-      <c r="M75" t="s">
-        <v>53</v>
-      </c>
-      <c r="N75" t="s">
-        <v>53</v>
-      </c>
-      <c r="O75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P75" t="s">
-        <v>55</v>
-      </c>
       <c r="Q75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X75" s="1">
         <v>0</v>
@@ -7239,67 +7236,67 @@
     </row>
     <row r="76" ht="24" customHeight="1" spans="3:25">
       <c r="C76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" t="s">
         <v>222</v>
       </c>
-      <c r="D76" t="s">
-        <v>186</v>
-      </c>
-      <c r="E76" t="s">
-        <v>223</v>
-      </c>
       <c r="F76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" t="s">
+        <v>52</v>
+      </c>
+      <c r="J76" t="s">
+        <v>52</v>
+      </c>
+      <c r="K76" t="s">
         <v>53</v>
       </c>
-      <c r="I76" t="s">
-        <v>53</v>
-      </c>
-      <c r="J76" t="s">
-        <v>53</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
+        <v>52</v>
+      </c>
+      <c r="M76" t="s">
+        <v>52</v>
+      </c>
+      <c r="N76" t="s">
+        <v>52</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="s">
         <v>54</v>
       </c>
-      <c r="L76" t="s">
-        <v>53</v>
-      </c>
-      <c r="M76" t="s">
-        <v>53</v>
-      </c>
-      <c r="N76" t="s">
-        <v>53</v>
-      </c>
-      <c r="O76" t="s">
-        <v>53</v>
-      </c>
-      <c r="P76" t="s">
-        <v>55</v>
-      </c>
       <c r="Q76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X76" s="1">
         <v>0</v>
@@ -7310,67 +7307,67 @@
     </row>
     <row r="77" ht="24" customHeight="1" spans="3:25">
       <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" t="s">
         <v>224</v>
       </c>
-      <c r="D77" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" t="s">
-        <v>225</v>
-      </c>
       <c r="F77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" t="s">
         <v>53</v>
       </c>
-      <c r="I77" t="s">
-        <v>53</v>
-      </c>
-      <c r="J77" t="s">
-        <v>53</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
+        <v>52</v>
+      </c>
+      <c r="M77" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="s">
         <v>54</v>
       </c>
-      <c r="L77" t="s">
-        <v>53</v>
-      </c>
-      <c r="M77" t="s">
-        <v>53</v>
-      </c>
-      <c r="N77" t="s">
-        <v>53</v>
-      </c>
-      <c r="O77" t="s">
-        <v>53</v>
-      </c>
-      <c r="P77" t="s">
-        <v>55</v>
-      </c>
       <c r="Q77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X77" s="1">
         <v>0</v>
@@ -7381,67 +7378,67 @@
     </row>
     <row r="78" ht="24" customHeight="1" spans="3:25">
       <c r="C78" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" t="s">
         <v>226</v>
       </c>
-      <c r="D78" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" t="s">
-        <v>227</v>
-      </c>
       <c r="F78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" t="s">
+        <v>52</v>
+      </c>
+      <c r="J78" t="s">
+        <v>52</v>
+      </c>
+      <c r="K78" t="s">
         <v>53</v>
       </c>
-      <c r="I78" t="s">
-        <v>53</v>
-      </c>
-      <c r="J78" t="s">
-        <v>53</v>
-      </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
+        <v>52</v>
+      </c>
+      <c r="M78" t="s">
+        <v>52</v>
+      </c>
+      <c r="N78" t="s">
+        <v>52</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="s">
         <v>54</v>
       </c>
-      <c r="L78" t="s">
-        <v>53</v>
-      </c>
-      <c r="M78" t="s">
-        <v>53</v>
-      </c>
-      <c r="N78" t="s">
-        <v>53</v>
-      </c>
-      <c r="O78" t="s">
-        <v>53</v>
-      </c>
-      <c r="P78" t="s">
-        <v>55</v>
-      </c>
       <c r="Q78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X78" s="1">
         <v>0</v>
@@ -7452,67 +7449,67 @@
     </row>
     <row r="79" ht="24" customHeight="1" spans="3:25">
       <c r="C79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" t="s">
+        <v>205</v>
+      </c>
+      <c r="E79" t="s">
         <v>228</v>
       </c>
-      <c r="D79" t="s">
-        <v>206</v>
-      </c>
-      <c r="E79" t="s">
-        <v>229</v>
-      </c>
       <c r="F79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" t="s">
+        <v>52</v>
+      </c>
+      <c r="J79" t="s">
+        <v>52</v>
+      </c>
+      <c r="K79" t="s">
         <v>53</v>
       </c>
-      <c r="I79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J79" t="s">
-        <v>53</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
+        <v>52</v>
+      </c>
+      <c r="M79" t="s">
+        <v>52</v>
+      </c>
+      <c r="N79" t="s">
+        <v>52</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="s">
         <v>54</v>
       </c>
-      <c r="L79" t="s">
-        <v>53</v>
-      </c>
-      <c r="M79" t="s">
-        <v>53</v>
-      </c>
-      <c r="N79" t="s">
-        <v>53</v>
-      </c>
-      <c r="O79" t="s">
-        <v>53</v>
-      </c>
-      <c r="P79" t="s">
-        <v>55</v>
-      </c>
       <c r="Q79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X79" s="1">
         <v>0</v>
@@ -7523,67 +7520,67 @@
     </row>
     <row r="80" ht="24" customHeight="1" spans="3:25">
       <c r="C80" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" t="s">
         <v>230</v>
       </c>
-      <c r="D80" t="s">
-        <v>209</v>
-      </c>
-      <c r="E80" t="s">
-        <v>231</v>
-      </c>
       <c r="F80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" t="s">
+        <v>52</v>
+      </c>
+      <c r="K80" t="s">
         <v>53</v>
       </c>
-      <c r="I80" t="s">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s">
-        <v>53</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
+        <v>52</v>
+      </c>
+      <c r="M80" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" t="s">
+        <v>52</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="s">
         <v>54</v>
       </c>
-      <c r="L80" t="s">
-        <v>53</v>
-      </c>
-      <c r="M80" t="s">
-        <v>53</v>
-      </c>
-      <c r="N80" t="s">
-        <v>53</v>
-      </c>
-      <c r="O80" t="s">
-        <v>53</v>
-      </c>
-      <c r="P80" t="s">
-        <v>55</v>
-      </c>
       <c r="Q80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X80" s="1">
         <v>0</v>
@@ -7854,10 +7851,10 @@
         <v>2003</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -7922,10 +7919,10 @@
         <v>2003</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -7990,10 +7987,10 @@
         <v>2004</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -8058,10 +8055,10 @@
         <v>2004</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
@@ -8126,10 +8123,10 @@
         <v>2007</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -8194,10 +8191,10 @@
         <v>2007</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -8262,10 +8259,10 @@
         <v>2001</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -8330,10 +8327,10 @@
         <v>2002</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -8398,10 +8395,10 @@
         <v>1002</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -8466,10 +8463,10 @@
         <v>3004</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -8534,10 +8531,10 @@
         <v>3007</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -8602,10 +8599,10 @@
         <v>2002</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -8670,10 +8667,10 @@
         <v>2001</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -8738,10 +8735,10 @@
         <v>1005</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -8806,10 +8803,10 @@
         <v>2005</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -8874,10 +8871,10 @@
         <v>3005</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -8942,10 +8939,10 @@
         <v>3007</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -9010,10 +9007,10 @@
         <v>2007</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
@@ -9078,10 +9075,10 @@
         <v>1007</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
@@ -9146,10 +9143,10 @@
         <v>3002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -2029,7 +2029,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -420,7 +420,7 @@
     <t>1001</t>
   </si>
   <si>
-    <t>基础剑术·系数加强</t>
+    <t>基础剑术·系数</t>
   </si>
   <si>
     <t>增加20%技能系数</t>
@@ -441,7 +441,7 @@
     <t>10002</t>
   </si>
   <si>
-    <t>基础剑术·伤害加强</t>
+    <t>基础剑术·固伤</t>
   </si>
   <si>
     <t>增加2000*技能等级点伤害</t>
@@ -483,13 +483,13 @@
     <t>1002</t>
   </si>
   <si>
-    <t>刺杀剑术·系数加强</t>
+    <t>刺杀剑术·系数</t>
   </si>
   <si>
     <t>10007</t>
   </si>
   <si>
-    <t>刺杀剑术·伤害加强</t>
+    <t>刺杀剑术·固伤</t>
   </si>
   <si>
     <t>10008</t>
@@ -516,13 +516,13 @@
     <t>1003</t>
   </si>
   <si>
-    <t>半月弯刀·系数加强</t>
+    <t>半月弯刀·系数</t>
   </si>
   <si>
     <t>10012</t>
   </si>
   <si>
-    <t>半月弯刀·伤害加强</t>
+    <t>半月弯刀·固伤</t>
   </si>
   <si>
     <t>10013</t>
@@ -549,13 +549,13 @@
     <t>1004</t>
   </si>
   <si>
-    <t>野蛮撞击·系数加强</t>
+    <t>野蛮撞击·系数</t>
   </si>
   <si>
     <t>10017</t>
   </si>
   <si>
-    <t>野蛮撞击·伤害加强</t>
+    <t>野蛮撞击·固伤</t>
   </si>
   <si>
     <t>10018</t>
@@ -582,7 +582,7 @@
     <t>1005</t>
   </si>
   <si>
-    <t>武力盾·系数加强</t>
+    <t>武力盾·系数</t>
   </si>
   <si>
     <t>增加10%技能系数</t>
@@ -597,7 +597,7 @@
     <t>1006</t>
   </si>
   <si>
-    <t>武力精通·系数加强</t>
+    <t>武力精通·系数</t>
   </si>
   <si>
     <t>10023</t>
@@ -606,13 +606,13 @@
     <t>1007</t>
   </si>
   <si>
-    <t>烈火剑法·系数加强</t>
+    <t>烈火剑法·系数</t>
   </si>
   <si>
     <t>10024</t>
   </si>
   <si>
-    <t>烈火剑法·伤害加强</t>
+    <t>烈火剑法·固伤</t>
   </si>
   <si>
     <t>10025</t>
@@ -639,13 +639,13 @@
     <t>2001</t>
   </si>
   <si>
-    <t>小火球·系数加强</t>
+    <t>小火球·系数</t>
   </si>
   <si>
     <t>10029</t>
   </si>
   <si>
-    <t>小火球·伤害加强</t>
+    <t>小火球·固伤</t>
   </si>
   <si>
     <t>10030</t>
@@ -672,13 +672,13 @@
     <t>2002</t>
   </si>
   <si>
-    <t>雷电术·系数加强</t>
+    <t>雷电术·系数</t>
   </si>
   <si>
     <t>10034</t>
   </si>
   <si>
-    <t>雷电术·伤害加强</t>
+    <t>雷电术·固伤</t>
   </si>
   <si>
     <t>10035</t>
@@ -705,13 +705,13 @@
     <t>2003</t>
   </si>
   <si>
-    <t>火墙·系数加强</t>
+    <t>火墙·系数</t>
   </si>
   <si>
     <t>10039</t>
   </si>
   <si>
-    <t>火墙·伤害加强</t>
+    <t>火墙·固伤</t>
   </si>
   <si>
     <t>10040</t>
@@ -738,13 +738,13 @@
     <t>2004</t>
   </si>
   <si>
-    <t>爆裂火焰·系数加强</t>
+    <t>爆裂火焰·系数</t>
   </si>
   <si>
     <t>10044</t>
   </si>
   <si>
-    <t>爆裂火焰·伤害加强</t>
+    <t>爆裂火焰·固伤</t>
   </si>
   <si>
     <t>10045</t>
@@ -771,7 +771,7 @@
     <t>2005</t>
   </si>
   <si>
-    <t>魔法盾·系数加强</t>
+    <t>魔法盾·系数</t>
   </si>
   <si>
     <t>10049</t>
@@ -780,7 +780,7 @@
     <t>2006</t>
   </si>
   <si>
-    <t>法术精通·系数加强</t>
+    <t>法术精通·系数</t>
   </si>
   <si>
     <t>10050</t>
@@ -789,13 +789,13 @@
     <t>2007</t>
   </si>
   <si>
-    <t>冰咆哮·系数加强</t>
+    <t>冰咆哮·系数</t>
   </si>
   <si>
     <t>10051</t>
   </si>
   <si>
-    <t>冰咆哮·伤害加强</t>
+    <t>冰咆哮·固伤</t>
   </si>
   <si>
     <t>10052</t>
@@ -822,7 +822,7 @@
     <t>3001</t>
   </si>
   <si>
-    <t>治疗术·系数加强</t>
+    <t>治疗术·系数</t>
   </si>
   <si>
     <t>10056</t>
@@ -831,7 +831,7 @@
     <t>3002</t>
   </si>
   <si>
-    <t>火符术·系数加强</t>
+    <t>火符术·系数</t>
   </si>
   <si>
     <t>10057</t>
@@ -840,13 +840,13 @@
     <t>3003</t>
   </si>
   <si>
-    <t>施毒术·系数加强</t>
+    <t>施毒术·系数</t>
   </si>
   <si>
     <t>10058</t>
   </si>
   <si>
-    <t>施毒术·伤害加强</t>
+    <t>施毒术·固伤</t>
   </si>
   <si>
     <t>10059</t>
@@ -873,7 +873,7 @@
     <t>3004</t>
   </si>
   <si>
-    <t>召唤骷髅·系数加强</t>
+    <t>召唤骷髅·系数</t>
   </si>
   <si>
     <t>10063</t>
@@ -882,7 +882,7 @@
     <t>3005</t>
   </si>
   <si>
-    <t>道力盾·系数加强</t>
+    <t>道力盾·系数</t>
   </si>
   <si>
     <t>10064</t>
@@ -891,7 +891,7 @@
     <t>3006</t>
   </si>
   <si>
-    <t>道力精通·系数加强</t>
+    <t>道力精通·系数</t>
   </si>
   <si>
     <t>10065</t>
@@ -900,13 +900,13 @@
     <t>3007</t>
   </si>
   <si>
-    <t>召唤神兽·系数加强</t>
+    <t>召唤神兽·系数</t>
   </si>
   <si>
     <t>10066</t>
   </si>
   <si>
-    <t>武力盾·固强</t>
+    <t>武力盾·固伤</t>
   </si>
   <si>
     <t>增加2000*技能等级点固定系数</t>
@@ -915,55 +915,55 @@
     <t>10067</t>
   </si>
   <si>
-    <t>武力精通·固强</t>
+    <t>武力精通·固伤</t>
   </si>
   <si>
     <t>10068</t>
   </si>
   <si>
-    <t>魔法盾·固强</t>
+    <t>魔法盾·固伤</t>
   </si>
   <si>
     <t>10069</t>
   </si>
   <si>
-    <t>法术精通·固强</t>
+    <t>法术精通·固伤</t>
   </si>
   <si>
     <t>10070</t>
   </si>
   <si>
-    <t>治疗术·固强</t>
+    <t>治疗术·固伤</t>
   </si>
   <si>
     <t>10071</t>
   </si>
   <si>
-    <t>火符术·固强</t>
+    <t>火符术·固伤</t>
   </si>
   <si>
     <t>10072</t>
   </si>
   <si>
-    <t>召唤骷髅·固强</t>
+    <t>召唤骷髅·固伤</t>
   </si>
   <si>
     <t>10073</t>
   </si>
   <si>
-    <t>道力盾·固强</t>
+    <t>道力盾·固伤</t>
   </si>
   <si>
     <t>10074</t>
   </si>
   <si>
-    <t>道力精通·固强</t>
+    <t>道力精通·固伤</t>
   </si>
   <si>
     <t>10075</t>
   </si>
   <si>
-    <t>召唤神兽·固强</t>
+    <t>召唤神兽·固伤</t>
   </si>
   <si>
     <t>火墙·多行</t>
@@ -1232,12 +1232,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2027,9 +2027,9 @@
   <dimension ref="C3:Y80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="262">
   <si>
     <t>_ID</t>
   </si>
@@ -1044,13 +1044,16 @@
     <t>召唤物增加5%高级属性继承</t>
   </si>
   <si>
-    <t>冰咆哮·急速</t>
-  </si>
-  <si>
-    <t>减少1秒CD</t>
-  </si>
-  <si>
-    <t>烈火剑法·急速</t>
+    <t>冰咆哮·霜寒</t>
+  </si>
+  <si>
+    <t>增加20%最终技能伤害</t>
+  </si>
+  <si>
+    <t>烈火剑法·噬骨</t>
+  </si>
+  <si>
+    <t>增加点燃系数10%</t>
   </si>
   <si>
     <t>火符·鹰眼</t>
@@ -1232,18 +1235,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,6 +1256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,7 +1582,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1597,16 +1606,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1615,94 +1624,95 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -2026,13 +2036,13 @@
   <sheetPr/>
   <dimension ref="C3:Y80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
@@ -2051,7 +2061,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:25">
+    <row r="3" ht="13.5" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" ht="13.5" spans="3:25">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2193,7 +2203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="3:25">
+    <row r="5" ht="13.5" spans="3:25">
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -2264,7 +2274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="3:25">
+    <row r="6" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C6">
         <v>10001</v>
       </c>
@@ -2335,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="3:25">
+    <row r="7" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="3:25">
+    <row r="8" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="3:25">
+    <row r="9" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C9" t="s">
         <v>62</v>
       </c>
@@ -2548,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="3:25">
+    <row r="10" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C10" t="s">
         <v>65</v>
       </c>
@@ -2619,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="3:25">
+    <row r="11" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C11" t="s">
         <v>68</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="3:25">
+    <row r="12" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="3:25">
+    <row r="13" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="3:25">
+    <row r="14" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C14" t="s">
         <v>75</v>
       </c>
@@ -2903,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="3:25">
+    <row r="15" s="4" customFormat="1" ht="14" spans="3:25">
       <c r="C15" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:25">
+    <row r="16" ht="14" spans="3:25">
       <c r="C16" t="s">
         <v>79</v>
       </c>
@@ -2990,13 +3000,13 @@
       <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="H16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K16" t="s">
@@ -3005,7 +3015,7 @@
       <c r="L16" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N16" t="s">
@@ -3014,22 +3024,22 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U16" s="3" t="s">
+      <c r="Q16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V16" t="s">
@@ -3045,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:25">
+    <row r="17" ht="14" spans="3:25">
       <c r="C17" t="s">
         <v>82</v>
       </c>
@@ -3061,13 +3071,13 @@
       <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K17" t="s">
@@ -3076,7 +3086,7 @@
       <c r="L17" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N17" t="s">
@@ -3085,7 +3095,7 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="Q17" t="s">
@@ -3094,13 +3104,13 @@
       <c r="R17" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U17" s="3" t="s">
+      <c r="S17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V17" t="s">
@@ -3116,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:25">
+    <row r="18" ht="14" spans="3:25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -3132,13 +3142,13 @@
       <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K18" t="s">
@@ -3147,7 +3157,7 @@
       <c r="L18" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N18" t="s">
@@ -3156,22 +3166,22 @@
       <c r="O18" t="s">
         <v>52</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="3" t="s">
+      <c r="P18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U18" s="3" t="s">
+      <c r="T18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V18" t="s">
@@ -3187,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25">
+    <row r="19" ht="14" spans="3:25">
       <c r="C19" t="s">
         <v>86</v>
       </c>
@@ -3197,19 +3207,19 @@
       <c r="E19" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K19" t="s">
@@ -3218,7 +3228,7 @@
       <c r="L19" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N19" t="s">
@@ -3227,22 +3237,22 @@
       <c r="O19" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T19" s="3" t="s">
+      <c r="P19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V19" t="s">
@@ -3258,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:25">
+    <row r="20" ht="14" spans="3:25">
       <c r="C20" t="s">
         <v>88</v>
       </c>
@@ -3274,13 +3284,13 @@
       <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K20" t="s">
@@ -3289,7 +3299,7 @@
       <c r="L20" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N20" t="s">
@@ -3298,22 +3308,22 @@
       <c r="O20" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U20" s="3" t="s">
+      <c r="P20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="4" t="s">
         <v>54</v>
       </c>
       <c r="V20" t="s">
@@ -3329,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:25">
+    <row r="21" ht="14" spans="3:25">
       <c r="C21" t="s">
         <v>90</v>
       </c>
@@ -3339,19 +3349,19 @@
       <c r="E21" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="H21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K21" t="s">
@@ -3360,7 +3370,7 @@
       <c r="L21" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N21" t="s">
@@ -3369,22 +3379,22 @@
       <c r="O21" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U21" s="3" t="s">
+      <c r="Q21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V21" t="s">
@@ -3400,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25">
+    <row r="22" ht="14" spans="3:25">
       <c r="C22" t="s">
         <v>93</v>
       </c>
@@ -3416,13 +3426,13 @@
       <c r="G22" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="H22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K22" t="s">
@@ -3431,7 +3441,7 @@
       <c r="L22" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N22" t="s">
@@ -3440,7 +3450,7 @@
       <c r="O22" t="s">
         <v>52</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="Q22" t="s">
@@ -3449,13 +3459,13 @@
       <c r="R22" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U22" s="3" t="s">
+      <c r="S22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V22" t="s">
@@ -3471,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25">
+    <row r="23" ht="14" spans="3:25">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -3487,13 +3497,13 @@
       <c r="G23" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K23" t="s">
@@ -3502,7 +3512,7 @@
       <c r="L23" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N23" t="s">
@@ -3514,19 +3524,19 @@
       <c r="P23" t="s">
         <v>52</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S23" s="3" t="s">
+      <c r="Q23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="3" t="s">
+      <c r="T23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V23" t="s">
@@ -3542,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25">
+    <row r="24" ht="14" spans="3:25">
       <c r="C24" t="s">
         <v>97</v>
       </c>
@@ -3561,10 +3571,10 @@
       <c r="H24" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K24" t="s">
@@ -3573,7 +3583,7 @@
       <c r="L24" t="s">
         <v>52</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N24" t="s">
@@ -3582,22 +3592,22 @@
       <c r="O24" t="s">
         <v>52</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="P24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V24" t="s">
@@ -3613,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:25">
+    <row r="25" ht="14" spans="3:25">
       <c r="C25" t="s">
         <v>99</v>
       </c>
@@ -3629,13 +3639,13 @@
       <c r="G25" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K25" t="s">
@@ -3644,7 +3654,7 @@
       <c r="L25" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="N25" t="s">
@@ -3656,19 +3666,19 @@
       <c r="P25" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U25" s="3" t="s">
+      <c r="Q25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="V25" t="s">
@@ -3724,7 +3734,7 @@
       <c r="O26" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="5" t="s">
         <v>105</v>
       </c>
       <c r="Q26" t="s">
@@ -3795,7 +3805,7 @@
       <c r="O27" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="5" t="s">
         <v>54</v>
       </c>
       <c r="Q27" t="s">
@@ -5641,7 +5651,7 @@
       <c r="O53" t="s">
         <v>52</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="5" t="s">
         <v>105</v>
       </c>
       <c r="Q53" t="s">
@@ -6706,7 +6716,7 @@
       <c r="O68" t="s">
         <v>52</v>
       </c>
-      <c r="P68" s="4" t="s">
+      <c r="P68" s="5" t="s">
         <v>105</v>
       </c>
       <c r="Q68" t="s">
@@ -7607,11 +7617,11 @@
   <sheetPr/>
   <dimension ref="C3:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z$1:Z$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
@@ -7630,7 +7640,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:25">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7701,7 +7711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:25">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:25">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7772,7 +7782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:25">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:25">
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -7898,7 +7908,7 @@
       <c r="U6" s="1">
         <v>0</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <v>0</v>
       </c>
       <c r="W6" s="1">
@@ -7966,7 +7976,7 @@
       <c r="U7" s="1">
         <v>0</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="4">
         <v>0</v>
       </c>
       <c r="W7" s="1">
@@ -8034,7 +8044,7 @@
       <c r="U8" s="1">
         <v>0</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="4">
         <v>0</v>
       </c>
       <c r="W8" s="1">
@@ -8102,7 +8112,7 @@
       <c r="U9" s="1">
         <v>0</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="4">
         <v>0</v>
       </c>
       <c r="W9" s="1">
@@ -8170,7 +8180,7 @@
       <c r="U10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="4">
         <v>0</v>
       </c>
       <c r="W10" s="1">
@@ -8238,7 +8248,7 @@
       <c r="U11" s="1">
         <v>0</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="4">
         <v>0</v>
       </c>
       <c r="W11" s="1">
@@ -8306,7 +8316,7 @@
       <c r="U12" s="1">
         <v>0</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="4">
         <v>0</v>
       </c>
       <c r="W12" s="1">
@@ -8374,7 +8384,7 @@
       <c r="U13" s="1">
         <v>0</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="4">
         <v>0</v>
       </c>
       <c r="W13" s="1">
@@ -8442,7 +8452,7 @@
       <c r="U14" s="1">
         <v>0</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="4">
         <v>0</v>
       </c>
       <c r="W14" s="1">
@@ -8510,7 +8520,7 @@
       <c r="U15" s="1">
         <v>0</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="4">
         <v>0</v>
       </c>
       <c r="W15" s="1">
@@ -8578,7 +8588,7 @@
       <c r="U16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="4">
         <v>0</v>
       </c>
       <c r="W16" s="1">
@@ -8646,7 +8656,7 @@
       <c r="U17" s="1">
         <v>0</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="4">
         <v>0</v>
       </c>
       <c r="W17" s="1">
@@ -8714,7 +8724,7 @@
       <c r="U18" s="1">
         <v>0</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="4">
         <v>0</v>
       </c>
       <c r="W18" s="1">
@@ -8782,7 +8792,7 @@
       <c r="U19" s="1">
         <v>0</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="4">
         <v>0</v>
       </c>
       <c r="W19" s="1">
@@ -8850,7 +8860,7 @@
       <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="4">
         <v>0</v>
       </c>
       <c r="W20" s="1">
@@ -8918,7 +8928,7 @@
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="4">
         <v>0</v>
       </c>
       <c r="W21" s="1">
@@ -8986,7 +8996,7 @@
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="4">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -9006,17 +9016,17 @@
       <c r="D23" s="1">
         <v>2007</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>257</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -9051,10 +9061,10 @@
       <c r="T23" s="1">
         <v>0</v>
       </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="U23" s="3">
+        <v>20</v>
+      </c>
+      <c r="V23" s="4">
         <v>0</v>
       </c>
       <c r="W23" s="1">
@@ -9074,17 +9084,17 @@
       <c r="D24" s="1">
         <v>1007</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -9104,8 +9114,8 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="1">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>10</v>
       </c>
       <c r="Q24" s="1">
         <v>0</v>
@@ -9122,7 +9132,7 @@
       <c r="U24" s="1">
         <v>0</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="4">
         <v>0</v>
       </c>
       <c r="W24" s="1">
@@ -9143,7 +9153,7 @@
         <v>3002</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>249</v>
@@ -9190,7 +9200,7 @@
       <c r="U25" s="1">
         <v>0</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="4">
         <v>0</v>
       </c>
       <c r="W25" s="1">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -966,28 +966,28 @@
     <t>召唤神兽·固伤</t>
   </si>
   <si>
-    <t>火墙·多行</t>
-  </si>
-  <si>
-    <t>增加一行范围</t>
-  </si>
-  <si>
-    <t>火墙·多列</t>
-  </si>
-  <si>
-    <t>增加一列范围</t>
-  </si>
-  <si>
-    <t>爆裂火焰·多行</t>
-  </si>
-  <si>
-    <t>爆裂火焰·多列</t>
-  </si>
-  <si>
-    <t>冰咆哮·多行</t>
-  </si>
-  <si>
-    <t>冰咆哮·多列</t>
+    <t>火墙·大大大</t>
+  </si>
+  <si>
+    <t>增加一行一列范围</t>
+  </si>
+  <si>
+    <t>火墙·废弃</t>
+  </si>
+  <si>
+    <t>此词条废弃了</t>
+  </si>
+  <si>
+    <t>爆裂火焰·大大大</t>
+  </si>
+  <si>
+    <t>爆裂火焰·废弃</t>
+  </si>
+  <si>
+    <t>冰咆哮·大大大</t>
+  </si>
+  <si>
+    <t>冰咆哮·废弃</t>
   </si>
   <si>
     <t>小火球·多重</t>
@@ -2042,7 +2042,7 @@
       <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
@@ -2061,7 +2061,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:25">
+    <row r="3" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:25">
+    <row r="4" spans="3:25">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:25">
+    <row r="5" spans="3:25">
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="6" s="4" customFormat="1" spans="3:25">
       <c r="C6">
         <v>10001</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="7" s="4" customFormat="1" spans="3:25">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="8" s="4" customFormat="1" spans="3:25">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="9" s="4" customFormat="1" spans="3:25">
       <c r="C9" t="s">
         <v>62</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="10" s="4" customFormat="1" spans="3:25">
       <c r="C10" t="s">
         <v>65</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="11" s="4" customFormat="1" spans="3:25">
       <c r="C11" t="s">
         <v>68</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="12" s="4" customFormat="1" spans="3:25">
       <c r="C12" t="s">
         <v>71</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="13" s="4" customFormat="1" spans="3:25">
       <c r="C13" t="s">
         <v>73</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="14" s="4" customFormat="1" spans="3:25">
       <c r="C14" t="s">
         <v>75</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="14" spans="3:25">
+    <row r="15" s="4" customFormat="1" spans="3:25">
       <c r="C15" t="s">
         <v>77</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14" spans="3:25">
+    <row r="16" spans="3:25">
       <c r="C16" t="s">
         <v>79</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="14" spans="3:25">
+    <row r="17" spans="3:25">
       <c r="C17" t="s">
         <v>82</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14" spans="3:25">
+    <row r="18" spans="3:25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14" spans="3:25">
+    <row r="19" spans="3:25">
       <c r="C19" t="s">
         <v>86</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="14" spans="3:25">
+    <row r="20" spans="3:25">
       <c r="C20" t="s">
         <v>88</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="14" spans="3:25">
+    <row r="21" spans="3:25">
       <c r="C21" t="s">
         <v>90</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="14" spans="3:25">
+    <row r="22" spans="3:25">
       <c r="C22" t="s">
         <v>93</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="14" spans="3:25">
+    <row r="23" spans="3:25">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="14" spans="3:25">
+    <row r="24" spans="3:25">
       <c r="C24" t="s">
         <v>97</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="14" spans="3:25">
+    <row r="25" spans="3:25">
       <c r="C25" t="s">
         <v>99</v>
       </c>
@@ -7618,10 +7618,10 @@
   <dimension ref="C3:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
@@ -7640,7 +7640,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:25">
+    <row r="3" s="1" customFormat="1" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:25">
+    <row r="4" s="1" customFormat="1" spans="3:25">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:25">
+    <row r="5" s="1" customFormat="1" spans="3:25">
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>233</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -8062,7 +8062,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>236</v>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>2007</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="268">
   <si>
     <t>_ID</t>
   </si>
@@ -1057,6 +1057,24 @@
   </si>
   <si>
     <t>火符·鹰眼</t>
+  </si>
+  <si>
+    <t>护体神盾·武力</t>
+  </si>
+  <si>
+    <t>物理伤害系数增加10%</t>
+  </si>
+  <si>
+    <t>瞬息移动·法力</t>
+  </si>
+  <si>
+    <t>法术伤害系数增加10%</t>
+  </si>
+  <si>
+    <t>隐身术·御兽</t>
+  </si>
+  <si>
+    <t>宠物攻击系数增加10%</t>
   </si>
 </sst>
 </file>
@@ -7615,10 +7633,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y25"/>
+  <dimension ref="C3:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9213,6 +9231,210 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="3:25">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1008</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3008</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 C3:E5" errorStyle="warning">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -1098,14 +1098,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1724,7 +1724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1732,7 +1732,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2055,12 +2056,12 @@
   <dimension ref="C3:Y80"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
@@ -2079,7 +2080,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:25">
+    <row r="3" customHeight="1" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" customHeight="1" spans="3:25">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="3:25">
+    <row r="5" customHeight="1" spans="3:25">
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -2292,38 +2293,38 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="3:25">
-      <c r="C6">
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C6" s="5">
         <v>10001</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -2332,25 +2333,25 @@
       <c r="O6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W6" s="1" t="s">
@@ -2363,38 +2364,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="3:25">
-      <c r="C7" t="s">
+    <row r="7" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -2403,25 +2404,25 @@
       <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="P7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="R7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -2434,38 +2435,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="3:25">
-      <c r="C8" t="s">
+    <row r="8" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -2474,25 +2475,25 @@
       <c r="O8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="P8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="T8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -2505,38 +2506,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="3:25">
-      <c r="C9" t="s">
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -2545,25 +2546,25 @@
       <c r="O9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="P9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="U9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -2576,38 +2577,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="3:25">
-      <c r="C10" t="s">
+    <row r="10" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -2616,25 +2617,25 @@
       <c r="O10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R10" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" t="s">
-        <v>52</v>
-      </c>
-      <c r="T10" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="P10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W10" s="1" t="s">
@@ -2647,38 +2648,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="3:25">
-      <c r="C11" t="s">
+    <row r="11" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -2687,25 +2688,25 @@
       <c r="O11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" t="s">
-        <v>52</v>
-      </c>
-      <c r="U11" t="s">
-        <v>52</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W11" s="1" t="s">
@@ -2718,38 +2719,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" spans="3:25">
-      <c r="C12" t="s">
+    <row r="12" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -2758,25 +2759,25 @@
       <c r="O12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="P12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T12" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" t="s">
-        <v>52</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="R12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -2789,38 +2790,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="3:25">
-      <c r="C13" t="s">
+    <row r="13" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L13" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -2829,25 +2830,25 @@
       <c r="O13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="P13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T13" t="s">
-        <v>52</v>
-      </c>
-      <c r="U13" t="s">
-        <v>52</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="T13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="W13" s="1" t="s">
@@ -2860,38 +2861,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" spans="3:25">
-      <c r="C14" t="s">
+    <row r="14" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -2900,22 +2901,22 @@
       <c r="O14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S14" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="P14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U14" t="s">
+      <c r="U14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -2931,38 +2932,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" spans="3:25">
-      <c r="C15" t="s">
+    <row r="15" s="4" customFormat="1" customHeight="1" spans="3:25">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -2971,22 +2972,22 @@
       <c r="O15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>52</v>
-      </c>
-      <c r="R15" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" t="s">
-        <v>52</v>
-      </c>
-      <c r="T15" t="s">
-        <v>52</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="P15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -3002,20 +3003,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:25">
-      <c r="C16" t="s">
+    <row r="16" customHeight="1" spans="3:25">
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -3027,19 +3028,19 @@
       <c r="J16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P16" s="4" t="s">
@@ -3060,10 +3061,10 @@
       <c r="U16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V16" t="s">
-        <v>52</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="V16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X16" s="1">
@@ -3073,20 +3074,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:25">
-      <c r="C17" t="s">
+    <row r="17" customHeight="1" spans="3:25">
+      <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -3098,28 +3099,28 @@
       <c r="J17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="S17" s="4" t="s">
@@ -3131,10 +3132,10 @@
       <c r="U17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V17" t="s">
-        <v>52</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="V17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X17" s="1">
@@ -3144,20 +3145,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:25">
-      <c r="C18" t="s">
+    <row r="18" customHeight="1" spans="3:25">
+      <c r="C18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -3169,19 +3170,19 @@
       <c r="J18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N18" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -3202,10 +3203,10 @@
       <c r="U18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V18" t="s">
-        <v>52</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="V18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X18" s="1">
@@ -3215,20 +3216,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25">
-      <c r="C19" t="s">
+    <row r="19" customHeight="1" spans="3:25">
+      <c r="C19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3240,19 +3241,19 @@
       <c r="J19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P19" s="4" t="s">
@@ -3273,10 +3274,10 @@
       <c r="U19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V19" t="s">
-        <v>52</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="V19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X19" s="1">
@@ -3286,20 +3287,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:25">
-      <c r="C20" t="s">
+    <row r="20" customHeight="1" spans="3:25">
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3311,19 +3312,19 @@
       <c r="J20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N20" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -3344,10 +3345,10 @@
       <c r="U20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V20" t="s">
-        <v>52</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="V20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X20" s="1">
@@ -3357,20 +3358,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:25">
-      <c r="C21" t="s">
+    <row r="21" customHeight="1" spans="3:25">
+      <c r="C21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -3382,19 +3383,19 @@
       <c r="J21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N21" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P21" s="4" t="s">
@@ -3415,10 +3416,10 @@
       <c r="U21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V21" t="s">
-        <v>52</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="V21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X21" s="1">
@@ -3428,20 +3429,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25">
-      <c r="C22" t="s">
+    <row r="22" customHeight="1" spans="3:25">
+      <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -3453,28 +3454,28 @@
       <c r="J22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -3486,10 +3487,10 @@
       <c r="U22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V22" t="s">
-        <v>52</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="V22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X22" s="1">
@@ -3499,20 +3500,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25">
-      <c r="C23" t="s">
+    <row r="23" customHeight="1" spans="3:25">
+      <c r="C23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -3524,22 +3525,22 @@
       <c r="J23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="N23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -3557,10 +3558,10 @@
       <c r="U23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V23" t="s">
-        <v>52</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="V23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X23" s="1">
@@ -3570,23 +3571,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25">
-      <c r="C24" t="s">
+    <row r="24" customHeight="1" spans="3:25">
+      <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -3595,19 +3596,19 @@
       <c r="J24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N24" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="P24" s="4" t="s">
@@ -3628,10 +3629,10 @@
       <c r="U24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V24" t="s">
-        <v>52</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="V24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X24" s="1">
@@ -3641,20 +3642,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:25">
-      <c r="C25" t="s">
+    <row r="25" customHeight="1" spans="3:25">
+      <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -3666,22 +3667,22 @@
       <c r="J25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="N25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="Q25" s="4" t="s">
@@ -3699,10 +3700,10 @@
       <c r="U25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V25" t="s">
-        <v>52</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="V25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X25" s="1">
@@ -3712,68 +3713,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="24" customHeight="1" spans="3:25">
-      <c r="C26" t="s">
+    <row r="26" customHeight="1" spans="3:25">
+      <c r="C26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="H26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L26" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="5" t="s">
+      <c r="L26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q26" t="s">
-        <v>52</v>
-      </c>
-      <c r="R26" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" t="s">
-        <v>52</v>
-      </c>
-      <c r="T26" t="s">
-        <v>52</v>
-      </c>
-      <c r="U26" t="s">
-        <v>52</v>
-      </c>
-      <c r="V26" t="s">
-        <v>52</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="Q26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X26" s="1">
@@ -3783,68 +3784,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1" spans="3:25">
-      <c r="C27" t="s">
+    <row r="27" customHeight="1" spans="3:25">
+      <c r="C27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="5" t="s">
+      <c r="L27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q27" t="s">
-        <v>52</v>
-      </c>
-      <c r="R27" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" t="s">
-        <v>52</v>
-      </c>
-      <c r="U27" t="s">
-        <v>52</v>
-      </c>
-      <c r="V27" t="s">
-        <v>52</v>
-      </c>
-      <c r="W27" t="s">
+      <c r="Q27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X27" s="1">
@@ -3854,68 +3855,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="24" customHeight="1" spans="3:25">
-      <c r="C28" t="s">
+    <row r="28" customHeight="1" spans="3:25">
+      <c r="C28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="H28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L28" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="L28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q28" t="s">
-        <v>52</v>
-      </c>
-      <c r="R28" t="s">
-        <v>52</v>
-      </c>
-      <c r="S28" t="s">
-        <v>52</v>
-      </c>
-      <c r="T28" t="s">
-        <v>52</v>
-      </c>
-      <c r="U28" t="s">
-        <v>52</v>
-      </c>
-      <c r="V28" t="s">
-        <v>52</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="Q28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X28" s="1">
@@ -3925,68 +3926,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="3:25">
-      <c r="C29" t="s">
+    <row r="29" customHeight="1" spans="3:25">
+      <c r="C29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="H29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="L29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R29" t="s">
-        <v>52</v>
-      </c>
-      <c r="S29" t="s">
-        <v>52</v>
-      </c>
-      <c r="T29" t="s">
-        <v>52</v>
-      </c>
-      <c r="U29" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" t="s">
-        <v>52</v>
-      </c>
-      <c r="W29" t="s">
+      <c r="R29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X29" s="1">
@@ -3996,68 +3997,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="24" customHeight="1" spans="3:25">
-      <c r="C30" t="s">
+    <row r="30" customHeight="1" spans="3:25">
+      <c r="C30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L30" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>52</v>
-      </c>
-      <c r="R30" t="s">
-        <v>52</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="L30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T30" t="s">
-        <v>52</v>
-      </c>
-      <c r="U30" t="s">
-        <v>52</v>
-      </c>
-      <c r="V30" t="s">
-        <v>52</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="T30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X30" s="1">
@@ -4067,68 +4068,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="24" customHeight="1" spans="3:25">
-      <c r="C31" t="s">
+    <row r="31" customHeight="1" spans="3:25">
+      <c r="C31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L31" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>52</v>
-      </c>
-      <c r="R31" t="s">
-        <v>52</v>
-      </c>
-      <c r="S31" t="s">
-        <v>52</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="L31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U31" t="s">
-        <v>52</v>
-      </c>
-      <c r="V31" t="s">
-        <v>52</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="U31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X31" s="1">
@@ -4138,68 +4139,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="24" customHeight="1" spans="3:25">
-      <c r="C32" t="s">
+    <row r="32" customHeight="1" spans="3:25">
+      <c r="C32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L32" t="s">
-        <v>52</v>
-      </c>
-      <c r="M32" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>52</v>
-      </c>
-      <c r="R32" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" t="s">
-        <v>52</v>
-      </c>
-      <c r="T32" t="s">
-        <v>52</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="L32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V32" t="s">
-        <v>52</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="V32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X32" s="1">
@@ -4209,68 +4210,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="24" customHeight="1" spans="3:25">
-      <c r="C33" t="s">
+    <row r="33" customHeight="1" spans="3:25">
+      <c r="C33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" t="s">
-        <v>52</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="H33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L33" t="s">
-        <v>52</v>
-      </c>
-      <c r="M33" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="L33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R33" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33" t="s">
-        <v>52</v>
-      </c>
-      <c r="T33" t="s">
-        <v>52</v>
-      </c>
-      <c r="U33" t="s">
-        <v>52</v>
-      </c>
-      <c r="V33" t="s">
-        <v>52</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="Q33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X33" s="1">
@@ -4280,68 +4281,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="24" customHeight="1" spans="3:25">
-      <c r="C34" t="s">
+    <row r="34" customHeight="1" spans="3:25">
+      <c r="C34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M34" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="L34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R34" t="s">
-        <v>52</v>
-      </c>
-      <c r="S34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T34" t="s">
-        <v>52</v>
-      </c>
-      <c r="U34" t="s">
-        <v>52</v>
-      </c>
-      <c r="V34" t="s">
-        <v>52</v>
-      </c>
-      <c r="W34" t="s">
+      <c r="R34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X34" s="1">
@@ -4351,68 +4352,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="24" customHeight="1" spans="3:25">
-      <c r="C35" t="s">
+    <row r="35" customHeight="1" spans="3:25">
+      <c r="C35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="H35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L35" t="s">
-        <v>52</v>
-      </c>
-      <c r="M35" t="s">
-        <v>52</v>
-      </c>
-      <c r="N35" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>52</v>
-      </c>
-      <c r="R35" t="s">
-        <v>52</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="L35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T35" t="s">
-        <v>52</v>
-      </c>
-      <c r="U35" t="s">
-        <v>52</v>
-      </c>
-      <c r="V35" t="s">
-        <v>52</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="T35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X35" s="1">
@@ -4422,68 +4423,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="24" customHeight="1" spans="3:25">
-      <c r="C36" t="s">
+    <row r="36" customHeight="1" spans="3:25">
+      <c r="C36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="H36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" t="s">
-        <v>52</v>
-      </c>
-      <c r="N36" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>52</v>
-      </c>
-      <c r="R36" t="s">
-        <v>52</v>
-      </c>
-      <c r="S36" t="s">
-        <v>52</v>
-      </c>
-      <c r="T36" t="s">
+      <c r="L36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U36" t="s">
-        <v>52</v>
-      </c>
-      <c r="V36" t="s">
-        <v>52</v>
-      </c>
-      <c r="W36" t="s">
+      <c r="U36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X36" s="1">
@@ -4493,68 +4494,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="24" customHeight="1" spans="3:25">
-      <c r="C37" t="s">
+    <row r="37" customHeight="1" spans="3:25">
+      <c r="C37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="H37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L37" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>52</v>
-      </c>
-      <c r="R37" t="s">
-        <v>52</v>
-      </c>
-      <c r="S37" t="s">
-        <v>52</v>
-      </c>
-      <c r="T37" t="s">
-        <v>52</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="L37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V37" t="s">
-        <v>52</v>
-      </c>
-      <c r="W37" t="s">
+      <c r="V37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X37" s="1">
@@ -4564,68 +4565,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="24" customHeight="1" spans="3:25">
-      <c r="C38" t="s">
+    <row r="38" customHeight="1" spans="3:25">
+      <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="H38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L38" t="s">
-        <v>52</v>
-      </c>
-      <c r="M38" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O38" t="s">
-        <v>52</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="L38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S38" t="s">
-        <v>52</v>
-      </c>
-      <c r="T38" t="s">
-        <v>52</v>
-      </c>
-      <c r="U38" t="s">
-        <v>52</v>
-      </c>
-      <c r="V38" t="s">
-        <v>52</v>
-      </c>
-      <c r="W38" t="s">
+      <c r="Q38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X38" s="1">
@@ -4635,68 +4636,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="24" customHeight="1" spans="3:25">
-      <c r="C39" t="s">
+    <row r="39" customHeight="1" spans="3:25">
+      <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="H39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L39" t="s">
-        <v>52</v>
-      </c>
-      <c r="M39" t="s">
-        <v>52</v>
-      </c>
-      <c r="N39" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" t="s">
-        <v>52</v>
-      </c>
-      <c r="P39" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="L39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R39" t="s">
-        <v>52</v>
-      </c>
-      <c r="S39" t="s">
-        <v>52</v>
-      </c>
-      <c r="T39" t="s">
-        <v>52</v>
-      </c>
-      <c r="U39" t="s">
-        <v>52</v>
-      </c>
-      <c r="V39" t="s">
-        <v>52</v>
-      </c>
-      <c r="W39" t="s">
+      <c r="R39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X39" s="1">
@@ -4706,68 +4707,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="24" customHeight="1" spans="3:25">
-      <c r="C40" t="s">
+    <row r="40" customHeight="1" spans="3:25">
+      <c r="C40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="H40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" t="s">
-        <v>52</v>
-      </c>
-      <c r="N40" t="s">
-        <v>52</v>
-      </c>
-      <c r="O40" t="s">
-        <v>52</v>
-      </c>
-      <c r="P40" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>52</v>
-      </c>
-      <c r="R40" t="s">
-        <v>52</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="L40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T40" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" t="s">
-        <v>52</v>
-      </c>
-      <c r="V40" t="s">
-        <v>52</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="T40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X40" s="1">
@@ -4777,68 +4778,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="24" customHeight="1" spans="3:25">
-      <c r="C41" t="s">
+    <row r="41" customHeight="1" spans="3:25">
+      <c r="C41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="H41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L41" t="s">
-        <v>52</v>
-      </c>
-      <c r="M41" t="s">
-        <v>52</v>
-      </c>
-      <c r="N41" t="s">
-        <v>52</v>
-      </c>
-      <c r="O41" t="s">
-        <v>52</v>
-      </c>
-      <c r="P41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>52</v>
-      </c>
-      <c r="R41" t="s">
-        <v>52</v>
-      </c>
-      <c r="S41" t="s">
-        <v>52</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="L41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U41" t="s">
-        <v>52</v>
-      </c>
-      <c r="V41" t="s">
-        <v>52</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="U41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W41" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X41" s="1">
@@ -4848,68 +4849,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="24" customHeight="1" spans="3:25">
-      <c r="C42" t="s">
+    <row r="42" customHeight="1" spans="3:25">
+      <c r="C42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H42" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="H42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" t="s">
-        <v>52</v>
-      </c>
-      <c r="N42" t="s">
-        <v>52</v>
-      </c>
-      <c r="O42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P42" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>52</v>
-      </c>
-      <c r="R42" t="s">
-        <v>52</v>
-      </c>
-      <c r="S42" t="s">
-        <v>52</v>
-      </c>
-      <c r="T42" t="s">
-        <v>52</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="L42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V42" t="s">
-        <v>52</v>
-      </c>
-      <c r="W42" t="s">
+      <c r="V42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X42" s="1">
@@ -4919,68 +4920,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="24" customHeight="1" spans="3:25">
-      <c r="C43" t="s">
+    <row r="43" customHeight="1" spans="3:25">
+      <c r="C43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="H43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L43" t="s">
-        <v>52</v>
-      </c>
-      <c r="M43" t="s">
-        <v>52</v>
-      </c>
-      <c r="N43" t="s">
-        <v>52</v>
-      </c>
-      <c r="O43" t="s">
-        <v>52</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="L43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q43" t="s">
-        <v>52</v>
-      </c>
-      <c r="R43" t="s">
-        <v>52</v>
-      </c>
-      <c r="S43" t="s">
-        <v>52</v>
-      </c>
-      <c r="T43" t="s">
-        <v>52</v>
-      </c>
-      <c r="U43" t="s">
-        <v>52</v>
-      </c>
-      <c r="V43" t="s">
-        <v>52</v>
-      </c>
-      <c r="W43" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W43" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X43" s="1">
@@ -4990,68 +4991,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="24" customHeight="1" spans="3:25">
-      <c r="C44" t="s">
+    <row r="44" customHeight="1" spans="3:25">
+      <c r="C44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="H44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L44" t="s">
-        <v>52</v>
-      </c>
-      <c r="M44" t="s">
-        <v>52</v>
-      </c>
-      <c r="N44" t="s">
-        <v>52</v>
-      </c>
-      <c r="O44" t="s">
-        <v>52</v>
-      </c>
-      <c r="P44" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="L44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R44" t="s">
-        <v>52</v>
-      </c>
-      <c r="S44" t="s">
-        <v>52</v>
-      </c>
-      <c r="T44" t="s">
-        <v>52</v>
-      </c>
-      <c r="U44" t="s">
-        <v>52</v>
-      </c>
-      <c r="V44" t="s">
-        <v>52</v>
-      </c>
-      <c r="W44" t="s">
+      <c r="R44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X44" s="1">
@@ -5061,68 +5062,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="24" customHeight="1" spans="3:25">
-      <c r="C45" t="s">
+    <row r="45" customHeight="1" spans="3:25">
+      <c r="C45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="H45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M45" t="s">
-        <v>52</v>
-      </c>
-      <c r="N45" t="s">
-        <v>52</v>
-      </c>
-      <c r="O45" t="s">
-        <v>52</v>
-      </c>
-      <c r="P45" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>52</v>
-      </c>
-      <c r="R45" t="s">
-        <v>52</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="L45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T45" t="s">
-        <v>52</v>
-      </c>
-      <c r="U45" t="s">
-        <v>52</v>
-      </c>
-      <c r="V45" t="s">
-        <v>52</v>
-      </c>
-      <c r="W45" t="s">
+      <c r="T45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X45" s="1">
@@ -5132,68 +5133,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="24" customHeight="1" spans="3:25">
-      <c r="C46" t="s">
+    <row r="46" customHeight="1" spans="3:25">
+      <c r="C46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H46" t="s">
-        <v>52</v>
-      </c>
-      <c r="I46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="H46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L46" t="s">
-        <v>52</v>
-      </c>
-      <c r="M46" t="s">
-        <v>52</v>
-      </c>
-      <c r="N46" t="s">
-        <v>52</v>
-      </c>
-      <c r="O46" t="s">
-        <v>52</v>
-      </c>
-      <c r="P46" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>52</v>
-      </c>
-      <c r="R46" t="s">
-        <v>52</v>
-      </c>
-      <c r="S46" t="s">
-        <v>52</v>
-      </c>
-      <c r="T46" t="s">
+      <c r="L46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U46" t="s">
-        <v>52</v>
-      </c>
-      <c r="V46" t="s">
-        <v>52</v>
-      </c>
-      <c r="W46" t="s">
+      <c r="U46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X46" s="1">
@@ -5203,68 +5204,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="24" customHeight="1" spans="3:25">
-      <c r="C47" t="s">
+    <row r="47" customHeight="1" spans="3:25">
+      <c r="C47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I47" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="H47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L47" t="s">
-        <v>52</v>
-      </c>
-      <c r="M47" t="s">
-        <v>52</v>
-      </c>
-      <c r="N47" t="s">
-        <v>52</v>
-      </c>
-      <c r="O47" t="s">
-        <v>52</v>
-      </c>
-      <c r="P47" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>52</v>
-      </c>
-      <c r="R47" t="s">
-        <v>52</v>
-      </c>
-      <c r="S47" t="s">
-        <v>52</v>
-      </c>
-      <c r="T47" t="s">
-        <v>52</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="L47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V47" t="s">
-        <v>52</v>
-      </c>
-      <c r="W47" t="s">
+      <c r="V47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X47" s="1">
@@ -5274,68 +5275,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="24" customHeight="1" spans="3:25">
-      <c r="C48" t="s">
+    <row r="48" customHeight="1" spans="3:25">
+      <c r="C48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H48" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="H48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L48" t="s">
-        <v>52</v>
-      </c>
-      <c r="M48" t="s">
-        <v>52</v>
-      </c>
-      <c r="N48" t="s">
-        <v>52</v>
-      </c>
-      <c r="O48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="L48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q48" t="s">
-        <v>52</v>
-      </c>
-      <c r="R48" t="s">
-        <v>52</v>
-      </c>
-      <c r="S48" t="s">
-        <v>52</v>
-      </c>
-      <c r="T48" t="s">
-        <v>52</v>
-      </c>
-      <c r="U48" t="s">
-        <v>52</v>
-      </c>
-      <c r="V48" t="s">
-        <v>52</v>
-      </c>
-      <c r="W48" t="s">
+      <c r="Q48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X48" s="1">
@@ -5345,68 +5346,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="24" customHeight="1" spans="3:25">
-      <c r="C49" t="s">
+    <row r="49" customHeight="1" spans="3:25">
+      <c r="C49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" t="s">
-        <v>52</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="H49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L49" t="s">
-        <v>52</v>
-      </c>
-      <c r="M49" t="s">
-        <v>52</v>
-      </c>
-      <c r="N49" t="s">
-        <v>52</v>
-      </c>
-      <c r="O49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P49" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="L49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R49" t="s">
-        <v>52</v>
-      </c>
-      <c r="S49" t="s">
-        <v>52</v>
-      </c>
-      <c r="T49" t="s">
-        <v>52</v>
-      </c>
-      <c r="U49" t="s">
-        <v>52</v>
-      </c>
-      <c r="V49" t="s">
-        <v>52</v>
-      </c>
-      <c r="W49" t="s">
+      <c r="R49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X49" s="1">
@@ -5416,68 +5417,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="24" customHeight="1" spans="3:25">
-      <c r="C50" t="s">
+    <row r="50" customHeight="1" spans="3:25">
+      <c r="C50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="H50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L50" t="s">
-        <v>52</v>
-      </c>
-      <c r="M50" t="s">
-        <v>52</v>
-      </c>
-      <c r="N50" t="s">
-        <v>52</v>
-      </c>
-      <c r="O50" t="s">
-        <v>52</v>
-      </c>
-      <c r="P50" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>52</v>
-      </c>
-      <c r="R50" t="s">
-        <v>52</v>
-      </c>
-      <c r="S50" t="s">
+      <c r="L50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T50" t="s">
-        <v>52</v>
-      </c>
-      <c r="U50" t="s">
-        <v>52</v>
-      </c>
-      <c r="V50" t="s">
-        <v>52</v>
-      </c>
-      <c r="W50" t="s">
+      <c r="T50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X50" s="1">
@@ -5487,68 +5488,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="24" customHeight="1" spans="3:25">
-      <c r="C51" t="s">
+    <row r="51" customHeight="1" spans="3:25">
+      <c r="C51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H51" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="H51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L51" t="s">
-        <v>52</v>
-      </c>
-      <c r="M51" t="s">
-        <v>52</v>
-      </c>
-      <c r="N51" t="s">
-        <v>52</v>
-      </c>
-      <c r="O51" t="s">
-        <v>52</v>
-      </c>
-      <c r="P51" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>52</v>
-      </c>
-      <c r="R51" t="s">
-        <v>52</v>
-      </c>
-      <c r="S51" t="s">
-        <v>52</v>
-      </c>
-      <c r="T51" t="s">
+      <c r="L51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U51" t="s">
-        <v>52</v>
-      </c>
-      <c r="V51" t="s">
-        <v>52</v>
-      </c>
-      <c r="W51" t="s">
+      <c r="U51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X51" s="1">
@@ -5558,68 +5559,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="24" customHeight="1" spans="3:25">
-      <c r="C52" t="s">
+    <row r="52" customHeight="1" spans="3:25">
+      <c r="C52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H52" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="H52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L52" t="s">
-        <v>52</v>
-      </c>
-      <c r="M52" t="s">
-        <v>52</v>
-      </c>
-      <c r="N52" t="s">
-        <v>52</v>
-      </c>
-      <c r="O52" t="s">
-        <v>52</v>
-      </c>
-      <c r="P52" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>52</v>
-      </c>
-      <c r="R52" t="s">
-        <v>52</v>
-      </c>
-      <c r="S52" t="s">
-        <v>52</v>
-      </c>
-      <c r="T52" t="s">
-        <v>52</v>
-      </c>
-      <c r="U52" t="s">
+      <c r="L52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V52" t="s">
-        <v>52</v>
-      </c>
-      <c r="W52" t="s">
+      <c r="V52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X52" s="1">
@@ -5629,68 +5630,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="24" customHeight="1" spans="3:25">
-      <c r="C53" t="s">
+    <row r="53" customHeight="1" spans="3:25">
+      <c r="C53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H53" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" t="s">
-        <v>52</v>
-      </c>
-      <c r="J53" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="H53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L53" t="s">
-        <v>52</v>
-      </c>
-      <c r="M53" t="s">
-        <v>52</v>
-      </c>
-      <c r="N53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O53" t="s">
-        <v>52</v>
-      </c>
-      <c r="P53" s="5" t="s">
+      <c r="L53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q53" t="s">
-        <v>52</v>
-      </c>
-      <c r="R53" t="s">
-        <v>52</v>
-      </c>
-      <c r="S53" t="s">
-        <v>52</v>
-      </c>
-      <c r="T53" t="s">
-        <v>52</v>
-      </c>
-      <c r="U53" t="s">
-        <v>52</v>
-      </c>
-      <c r="V53" t="s">
-        <v>52</v>
-      </c>
-      <c r="W53" t="s">
+      <c r="Q53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X53" s="1">
@@ -5700,68 +5701,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="24" customHeight="1" spans="3:25">
-      <c r="C54" t="s">
+    <row r="54" customHeight="1" spans="3:25">
+      <c r="C54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H54" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="H54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L54" t="s">
-        <v>52</v>
-      </c>
-      <c r="M54" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" t="s">
-        <v>52</v>
-      </c>
-      <c r="O54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P54" t="s">
+      <c r="L54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" t="s">
-        <v>52</v>
-      </c>
-      <c r="S54" t="s">
-        <v>52</v>
-      </c>
-      <c r="T54" t="s">
-        <v>52</v>
-      </c>
-      <c r="U54" t="s">
-        <v>52</v>
-      </c>
-      <c r="V54" t="s">
-        <v>52</v>
-      </c>
-      <c r="W54" t="s">
+      <c r="Q54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X54" s="1">
@@ -5771,68 +5772,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="24" customHeight="1" spans="3:25">
-      <c r="C55" t="s">
+    <row r="55" customHeight="1" spans="3:25">
+      <c r="C55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H55" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="H55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L55" t="s">
-        <v>52</v>
-      </c>
-      <c r="M55" t="s">
-        <v>52</v>
-      </c>
-      <c r="N55" t="s">
-        <v>52</v>
-      </c>
-      <c r="O55" t="s">
-        <v>52</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="L55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q55" t="s">
-        <v>52</v>
-      </c>
-      <c r="R55" t="s">
-        <v>52</v>
-      </c>
-      <c r="S55" t="s">
-        <v>52</v>
-      </c>
-      <c r="T55" t="s">
-        <v>52</v>
-      </c>
-      <c r="U55" t="s">
-        <v>52</v>
-      </c>
-      <c r="V55" t="s">
-        <v>52</v>
-      </c>
-      <c r="W55" t="s">
+      <c r="Q55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W55" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X55" s="1">
@@ -5842,68 +5843,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="24" customHeight="1" spans="3:25">
-      <c r="C56" t="s">
+    <row r="56" customHeight="1" spans="3:25">
+      <c r="C56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H56" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="H56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L56" t="s">
-        <v>52</v>
-      </c>
-      <c r="M56" t="s">
-        <v>52</v>
-      </c>
-      <c r="N56" t="s">
-        <v>52</v>
-      </c>
-      <c r="O56" t="s">
-        <v>52</v>
-      </c>
-      <c r="P56" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q56" t="s">
+      <c r="L56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R56" t="s">
-        <v>52</v>
-      </c>
-      <c r="S56" t="s">
-        <v>52</v>
-      </c>
-      <c r="T56" t="s">
-        <v>52</v>
-      </c>
-      <c r="U56" t="s">
-        <v>52</v>
-      </c>
-      <c r="V56" t="s">
-        <v>52</v>
-      </c>
-      <c r="W56" t="s">
+      <c r="R56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X56" s="1">
@@ -5913,68 +5914,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="24" customHeight="1" spans="3:25">
-      <c r="C57" t="s">
+    <row r="57" customHeight="1" spans="3:25">
+      <c r="C57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H57" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" t="s">
-        <v>52</v>
-      </c>
-      <c r="K57" t="s">
+      <c r="H57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L57" t="s">
-        <v>52</v>
-      </c>
-      <c r="M57" t="s">
-        <v>52</v>
-      </c>
-      <c r="N57" t="s">
-        <v>52</v>
-      </c>
-      <c r="O57" t="s">
-        <v>52</v>
-      </c>
-      <c r="P57" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>52</v>
-      </c>
-      <c r="R57" t="s">
-        <v>52</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="L57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T57" t="s">
-        <v>52</v>
-      </c>
-      <c r="U57" t="s">
-        <v>52</v>
-      </c>
-      <c r="V57" t="s">
-        <v>52</v>
-      </c>
-      <c r="W57" t="s">
+      <c r="T57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W57" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X57" s="1">
@@ -5984,68 +5985,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="24" customHeight="1" spans="3:25">
-      <c r="C58" t="s">
+    <row r="58" customHeight="1" spans="3:25">
+      <c r="C58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I58" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" t="s">
-        <v>52</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="H58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L58" t="s">
-        <v>52</v>
-      </c>
-      <c r="M58" t="s">
-        <v>52</v>
-      </c>
-      <c r="N58" t="s">
-        <v>52</v>
-      </c>
-      <c r="O58" t="s">
-        <v>52</v>
-      </c>
-      <c r="P58" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>52</v>
-      </c>
-      <c r="R58" t="s">
-        <v>52</v>
-      </c>
-      <c r="S58" t="s">
-        <v>52</v>
-      </c>
-      <c r="T58" t="s">
+      <c r="L58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U58" t="s">
-        <v>52</v>
-      </c>
-      <c r="V58" t="s">
-        <v>52</v>
-      </c>
-      <c r="W58" t="s">
+      <c r="U58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W58" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X58" s="1">
@@ -6055,68 +6056,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="24" customHeight="1" spans="3:25">
-      <c r="C59" t="s">
+    <row r="59" customHeight="1" spans="3:25">
+      <c r="C59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H59" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="H59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L59" t="s">
-        <v>52</v>
-      </c>
-      <c r="M59" t="s">
-        <v>52</v>
-      </c>
-      <c r="N59" t="s">
-        <v>52</v>
-      </c>
-      <c r="O59" t="s">
-        <v>52</v>
-      </c>
-      <c r="P59" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>52</v>
-      </c>
-      <c r="R59" t="s">
-        <v>52</v>
-      </c>
-      <c r="S59" t="s">
-        <v>52</v>
-      </c>
-      <c r="T59" t="s">
-        <v>52</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="L59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V59" t="s">
-        <v>52</v>
-      </c>
-      <c r="W59" t="s">
+      <c r="V59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X59" s="1">
@@ -6126,68 +6127,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="24" customHeight="1" spans="3:25">
-      <c r="C60" t="s">
+    <row r="60" customHeight="1" spans="3:25">
+      <c r="C60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H60" t="s">
-        <v>52</v>
-      </c>
-      <c r="I60" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="H60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L60" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" t="s">
-        <v>52</v>
-      </c>
-      <c r="O60" t="s">
-        <v>52</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="L60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q60" t="s">
-        <v>52</v>
-      </c>
-      <c r="R60" t="s">
-        <v>52</v>
-      </c>
-      <c r="S60" t="s">
-        <v>52</v>
-      </c>
-      <c r="T60" t="s">
-        <v>52</v>
-      </c>
-      <c r="U60" t="s">
-        <v>52</v>
-      </c>
-      <c r="V60" t="s">
-        <v>52</v>
-      </c>
-      <c r="W60" t="s">
+      <c r="Q60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X60" s="1">
@@ -6197,68 +6198,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="24" customHeight="1" spans="3:25">
-      <c r="C61" t="s">
+    <row r="61" customHeight="1" spans="3:25">
+      <c r="C61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H61" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" t="s">
-        <v>52</v>
-      </c>
-      <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="H61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L61" t="s">
-        <v>52</v>
-      </c>
-      <c r="M61" t="s">
-        <v>52</v>
-      </c>
-      <c r="N61" t="s">
-        <v>52</v>
-      </c>
-      <c r="O61" t="s">
-        <v>52</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="L61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q61" t="s">
-        <v>52</v>
-      </c>
-      <c r="R61" t="s">
-        <v>52</v>
-      </c>
-      <c r="S61" t="s">
-        <v>52</v>
-      </c>
-      <c r="T61" t="s">
-        <v>52</v>
-      </c>
-      <c r="U61" t="s">
-        <v>52</v>
-      </c>
-      <c r="V61" t="s">
-        <v>52</v>
-      </c>
-      <c r="W61" t="s">
+      <c r="Q61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W61" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X61" s="1">
@@ -6268,68 +6269,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="24" customHeight="1" spans="3:25">
-      <c r="C62" t="s">
+    <row r="62" customHeight="1" spans="3:25">
+      <c r="C62" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" t="s">
-        <v>52</v>
-      </c>
-      <c r="J62" t="s">
-        <v>52</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="H62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L62" t="s">
-        <v>52</v>
-      </c>
-      <c r="M62" t="s">
-        <v>52</v>
-      </c>
-      <c r="N62" t="s">
-        <v>52</v>
-      </c>
-      <c r="O62" t="s">
-        <v>52</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="L62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q62" t="s">
-        <v>52</v>
-      </c>
-      <c r="R62" t="s">
-        <v>52</v>
-      </c>
-      <c r="S62" t="s">
-        <v>52</v>
-      </c>
-      <c r="T62" t="s">
-        <v>52</v>
-      </c>
-      <c r="U62" t="s">
-        <v>52</v>
-      </c>
-      <c r="V62" t="s">
-        <v>52</v>
-      </c>
-      <c r="W62" t="s">
+      <c r="Q62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W62" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X62" s="1">
@@ -6339,68 +6340,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="24" customHeight="1" spans="3:25">
-      <c r="C63" t="s">
+    <row r="63" customHeight="1" spans="3:25">
+      <c r="C63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H63" t="s">
-        <v>52</v>
-      </c>
-      <c r="I63" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="H63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L63" t="s">
-        <v>52</v>
-      </c>
-      <c r="M63" t="s">
-        <v>52</v>
-      </c>
-      <c r="N63" t="s">
-        <v>52</v>
-      </c>
-      <c r="O63" t="s">
-        <v>52</v>
-      </c>
-      <c r="P63" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q63" t="s">
+      <c r="L63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R63" t="s">
-        <v>52</v>
-      </c>
-      <c r="S63" t="s">
-        <v>52</v>
-      </c>
-      <c r="T63" t="s">
-        <v>52</v>
-      </c>
-      <c r="U63" t="s">
-        <v>52</v>
-      </c>
-      <c r="V63" t="s">
-        <v>52</v>
-      </c>
-      <c r="W63" t="s">
+      <c r="R63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W63" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X63" s="1">
@@ -6410,68 +6411,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="24" customHeight="1" spans="3:25">
-      <c r="C64" t="s">
+    <row r="64" customHeight="1" spans="3:25">
+      <c r="C64" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H64" t="s">
-        <v>52</v>
-      </c>
-      <c r="I64" t="s">
-        <v>52</v>
-      </c>
-      <c r="J64" t="s">
-        <v>52</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="H64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L64" t="s">
-        <v>52</v>
-      </c>
-      <c r="M64" t="s">
-        <v>52</v>
-      </c>
-      <c r="N64" t="s">
-        <v>52</v>
-      </c>
-      <c r="O64" t="s">
-        <v>52</v>
-      </c>
-      <c r="P64" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>52</v>
-      </c>
-      <c r="R64" t="s">
-        <v>52</v>
-      </c>
-      <c r="S64" t="s">
+      <c r="L64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T64" t="s">
-        <v>52</v>
-      </c>
-      <c r="U64" t="s">
-        <v>52</v>
-      </c>
-      <c r="V64" t="s">
-        <v>52</v>
-      </c>
-      <c r="W64" t="s">
+      <c r="T64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W64" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X64" s="1">
@@ -6481,68 +6482,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="24" customHeight="1" spans="3:25">
-      <c r="C65" t="s">
+    <row r="65" customHeight="1" spans="3:25">
+      <c r="C65" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H65" t="s">
-        <v>52</v>
-      </c>
-      <c r="I65" t="s">
-        <v>52</v>
-      </c>
-      <c r="J65" t="s">
-        <v>52</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="H65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L65" t="s">
-        <v>52</v>
-      </c>
-      <c r="M65" t="s">
-        <v>52</v>
-      </c>
-      <c r="N65" t="s">
-        <v>52</v>
-      </c>
-      <c r="O65" t="s">
-        <v>52</v>
-      </c>
-      <c r="P65" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>52</v>
-      </c>
-      <c r="R65" t="s">
-        <v>52</v>
-      </c>
-      <c r="S65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="L65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T65" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U65" t="s">
-        <v>52</v>
-      </c>
-      <c r="V65" t="s">
-        <v>52</v>
-      </c>
-      <c r="W65" t="s">
+      <c r="U65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W65" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X65" s="1">
@@ -6552,68 +6553,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="24" customHeight="1" spans="3:25">
-      <c r="C66" t="s">
+    <row r="66" customHeight="1" spans="3:25">
+      <c r="C66" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H66" t="s">
-        <v>52</v>
-      </c>
-      <c r="I66" t="s">
-        <v>52</v>
-      </c>
-      <c r="J66" t="s">
-        <v>52</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="H66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L66" t="s">
-        <v>52</v>
-      </c>
-      <c r="M66" t="s">
-        <v>52</v>
-      </c>
-      <c r="N66" t="s">
-        <v>52</v>
-      </c>
-      <c r="O66" t="s">
-        <v>52</v>
-      </c>
-      <c r="P66" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>52</v>
-      </c>
-      <c r="R66" t="s">
-        <v>52</v>
-      </c>
-      <c r="S66" t="s">
-        <v>52</v>
-      </c>
-      <c r="T66" t="s">
-        <v>52</v>
-      </c>
-      <c r="U66" t="s">
+      <c r="L66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V66" t="s">
-        <v>52</v>
-      </c>
-      <c r="W66" t="s">
+      <c r="V66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W66" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X66" s="1">
@@ -6623,68 +6624,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="24" customHeight="1" spans="3:25">
-      <c r="C67" t="s">
+    <row r="67" customHeight="1" spans="3:25">
+      <c r="C67" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H67" t="s">
-        <v>52</v>
-      </c>
-      <c r="I67" t="s">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s">
-        <v>52</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="H67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L67" t="s">
-        <v>52</v>
-      </c>
-      <c r="M67" t="s">
-        <v>52</v>
-      </c>
-      <c r="N67" t="s">
-        <v>52</v>
-      </c>
-      <c r="O67" t="s">
-        <v>52</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="L67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q67" t="s">
-        <v>52</v>
-      </c>
-      <c r="R67" t="s">
-        <v>52</v>
-      </c>
-      <c r="S67" t="s">
-        <v>52</v>
-      </c>
-      <c r="T67" t="s">
-        <v>52</v>
-      </c>
-      <c r="U67" t="s">
-        <v>52</v>
-      </c>
-      <c r="V67" t="s">
-        <v>52</v>
-      </c>
-      <c r="W67" t="s">
+      <c r="Q67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W67" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X67" s="1">
@@ -6694,68 +6695,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="24" customHeight="1" spans="3:25">
-      <c r="C68" t="s">
+    <row r="68" customHeight="1" spans="3:25">
+      <c r="C68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" t="s">
-        <v>52</v>
-      </c>
-      <c r="J68" t="s">
-        <v>52</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="H68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L68" t="s">
-        <v>52</v>
-      </c>
-      <c r="M68" t="s">
-        <v>52</v>
-      </c>
-      <c r="N68" t="s">
-        <v>52</v>
-      </c>
-      <c r="O68" t="s">
-        <v>52</v>
-      </c>
-      <c r="P68" s="5" t="s">
+      <c r="L68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="Q68" t="s">
-        <v>52</v>
-      </c>
-      <c r="R68" t="s">
-        <v>52</v>
-      </c>
-      <c r="S68" t="s">
-        <v>52</v>
-      </c>
-      <c r="T68" t="s">
-        <v>52</v>
-      </c>
-      <c r="U68" t="s">
-        <v>52</v>
-      </c>
-      <c r="V68" t="s">
-        <v>52</v>
-      </c>
-      <c r="W68" t="s">
+      <c r="Q68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W68" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X68" s="1">
@@ -6765,68 +6766,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="24" customHeight="1" spans="3:25">
-      <c r="C69" t="s">
+    <row r="69" customHeight="1" spans="3:25">
+      <c r="C69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H69" t="s">
-        <v>52</v>
-      </c>
-      <c r="I69" t="s">
-        <v>52</v>
-      </c>
-      <c r="J69" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69" t="s">
+      <c r="H69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L69" t="s">
-        <v>52</v>
-      </c>
-      <c r="M69" t="s">
-        <v>52</v>
-      </c>
-      <c r="N69" t="s">
-        <v>52</v>
-      </c>
-      <c r="O69" t="s">
-        <v>52</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="L69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q69" t="s">
-        <v>52</v>
-      </c>
-      <c r="R69" t="s">
-        <v>52</v>
-      </c>
-      <c r="S69" t="s">
-        <v>52</v>
-      </c>
-      <c r="T69" t="s">
-        <v>52</v>
-      </c>
-      <c r="U69" t="s">
-        <v>52</v>
-      </c>
-      <c r="V69" t="s">
-        <v>52</v>
-      </c>
-      <c r="W69" t="s">
+      <c r="Q69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W69" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X69" s="1">
@@ -6836,68 +6837,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="24" customHeight="1" spans="3:25">
-      <c r="C70" t="s">
+    <row r="70" customHeight="1" spans="3:25">
+      <c r="C70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H70" t="s">
-        <v>52</v>
-      </c>
-      <c r="I70" t="s">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70" t="s">
+      <c r="H70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L70" t="s">
-        <v>52</v>
-      </c>
-      <c r="M70" t="s">
-        <v>52</v>
-      </c>
-      <c r="N70" t="s">
-        <v>52</v>
-      </c>
-      <c r="O70" t="s">
-        <v>52</v>
-      </c>
-      <c r="P70" t="s">
+      <c r="L70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q70" t="s">
-        <v>52</v>
-      </c>
-      <c r="R70" t="s">
-        <v>52</v>
-      </c>
-      <c r="S70" t="s">
-        <v>52</v>
-      </c>
-      <c r="T70" t="s">
-        <v>52</v>
-      </c>
-      <c r="U70" t="s">
-        <v>52</v>
-      </c>
-      <c r="V70" t="s">
-        <v>52</v>
-      </c>
-      <c r="W70" t="s">
+      <c r="Q70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W70" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X70" s="1">
@@ -6907,68 +6908,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="24" customHeight="1" spans="3:25">
-      <c r="C71" t="s">
+    <row r="71" customHeight="1" spans="3:25">
+      <c r="C71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H71" t="s">
-        <v>52</v>
-      </c>
-      <c r="I71" t="s">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71" t="s">
+      <c r="H71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L71" t="s">
-        <v>52</v>
-      </c>
-      <c r="M71" t="s">
-        <v>52</v>
-      </c>
-      <c r="N71" t="s">
-        <v>52</v>
-      </c>
-      <c r="O71" t="s">
-        <v>52</v>
-      </c>
-      <c r="P71" t="s">
+      <c r="L71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q71" t="s">
-        <v>52</v>
-      </c>
-      <c r="R71" t="s">
-        <v>52</v>
-      </c>
-      <c r="S71" t="s">
-        <v>52</v>
-      </c>
-      <c r="T71" t="s">
-        <v>52</v>
-      </c>
-      <c r="U71" t="s">
-        <v>52</v>
-      </c>
-      <c r="V71" t="s">
-        <v>52</v>
-      </c>
-      <c r="W71" t="s">
+      <c r="Q71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W71" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X71" s="1">
@@ -6978,68 +6979,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="24" customHeight="1" spans="3:25">
-      <c r="C72" t="s">
+    <row r="72" customHeight="1" spans="3:25">
+      <c r="C72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H72" t="s">
-        <v>52</v>
-      </c>
-      <c r="I72" t="s">
-        <v>52</v>
-      </c>
-      <c r="J72" t="s">
-        <v>52</v>
-      </c>
-      <c r="K72" t="s">
+      <c r="H72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L72" t="s">
-        <v>52</v>
-      </c>
-      <c r="M72" t="s">
-        <v>52</v>
-      </c>
-      <c r="N72" t="s">
-        <v>52</v>
-      </c>
-      <c r="O72" t="s">
-        <v>52</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="L72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q72" t="s">
-        <v>52</v>
-      </c>
-      <c r="R72" t="s">
-        <v>52</v>
-      </c>
-      <c r="S72" t="s">
-        <v>52</v>
-      </c>
-      <c r="T72" t="s">
-        <v>52</v>
-      </c>
-      <c r="U72" t="s">
-        <v>52</v>
-      </c>
-      <c r="V72" t="s">
-        <v>52</v>
-      </c>
-      <c r="W72" t="s">
+      <c r="Q72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W72" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X72" s="1">
@@ -7049,68 +7050,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="24" customHeight="1" spans="3:25">
-      <c r="C73" t="s">
+    <row r="73" customHeight="1" spans="3:25">
+      <c r="C73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H73" t="s">
-        <v>52</v>
-      </c>
-      <c r="I73" t="s">
-        <v>52</v>
-      </c>
-      <c r="J73" t="s">
-        <v>52</v>
-      </c>
-      <c r="K73" t="s">
+      <c r="H73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L73" t="s">
-        <v>52</v>
-      </c>
-      <c r="M73" t="s">
-        <v>52</v>
-      </c>
-      <c r="N73" t="s">
-        <v>52</v>
-      </c>
-      <c r="O73" t="s">
-        <v>52</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="L73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q73" t="s">
-        <v>52</v>
-      </c>
-      <c r="R73" t="s">
-        <v>52</v>
-      </c>
-      <c r="S73" t="s">
-        <v>52</v>
-      </c>
-      <c r="T73" t="s">
-        <v>52</v>
-      </c>
-      <c r="U73" t="s">
-        <v>52</v>
-      </c>
-      <c r="V73" t="s">
-        <v>52</v>
-      </c>
-      <c r="W73" t="s">
+      <c r="Q73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W73" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X73" s="1">
@@ -7120,68 +7121,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="24" customHeight="1" spans="3:25">
-      <c r="C74" t="s">
+    <row r="74" customHeight="1" spans="3:25">
+      <c r="C74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H74" t="s">
-        <v>52</v>
-      </c>
-      <c r="I74" t="s">
-        <v>52</v>
-      </c>
-      <c r="J74" t="s">
-        <v>52</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="H74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L74" t="s">
-        <v>52</v>
-      </c>
-      <c r="M74" t="s">
-        <v>52</v>
-      </c>
-      <c r="N74" t="s">
-        <v>52</v>
-      </c>
-      <c r="O74" t="s">
-        <v>52</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="L74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q74" t="s">
-        <v>52</v>
-      </c>
-      <c r="R74" t="s">
-        <v>52</v>
-      </c>
-      <c r="S74" t="s">
-        <v>52</v>
-      </c>
-      <c r="T74" t="s">
-        <v>52</v>
-      </c>
-      <c r="U74" t="s">
-        <v>52</v>
-      </c>
-      <c r="V74" t="s">
-        <v>52</v>
-      </c>
-      <c r="W74" t="s">
+      <c r="Q74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W74" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X74" s="1">
@@ -7191,68 +7192,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="24" customHeight="1" spans="3:25">
-      <c r="C75" t="s">
+    <row r="75" customHeight="1" spans="3:25">
+      <c r="C75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H75" t="s">
-        <v>52</v>
-      </c>
-      <c r="I75" t="s">
-        <v>52</v>
-      </c>
-      <c r="J75" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="H75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L75" t="s">
-        <v>52</v>
-      </c>
-      <c r="M75" t="s">
-        <v>52</v>
-      </c>
-      <c r="N75" t="s">
-        <v>52</v>
-      </c>
-      <c r="O75" t="s">
-        <v>52</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="L75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q75" t="s">
-        <v>52</v>
-      </c>
-      <c r="R75" t="s">
-        <v>52</v>
-      </c>
-      <c r="S75" t="s">
-        <v>52</v>
-      </c>
-      <c r="T75" t="s">
-        <v>52</v>
-      </c>
-      <c r="U75" t="s">
-        <v>52</v>
-      </c>
-      <c r="V75" t="s">
-        <v>52</v>
-      </c>
-      <c r="W75" t="s">
+      <c r="Q75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W75" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X75" s="1">
@@ -7262,68 +7263,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="24" customHeight="1" spans="3:25">
-      <c r="C76" t="s">
+    <row r="76" customHeight="1" spans="3:25">
+      <c r="C76" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H76" t="s">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s">
-        <v>52</v>
-      </c>
-      <c r="J76" t="s">
-        <v>52</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="H76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L76" t="s">
-        <v>52</v>
-      </c>
-      <c r="M76" t="s">
-        <v>52</v>
-      </c>
-      <c r="N76" t="s">
-        <v>52</v>
-      </c>
-      <c r="O76" t="s">
-        <v>52</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="L76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q76" t="s">
-        <v>52</v>
-      </c>
-      <c r="R76" t="s">
-        <v>52</v>
-      </c>
-      <c r="S76" t="s">
-        <v>52</v>
-      </c>
-      <c r="T76" t="s">
-        <v>52</v>
-      </c>
-      <c r="U76" t="s">
-        <v>52</v>
-      </c>
-      <c r="V76" t="s">
-        <v>52</v>
-      </c>
-      <c r="W76" t="s">
+      <c r="Q76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W76" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X76" s="1">
@@ -7333,68 +7334,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="24" customHeight="1" spans="3:25">
-      <c r="C77" t="s">
+    <row r="77" customHeight="1" spans="3:25">
+      <c r="C77" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H77" t="s">
-        <v>52</v>
-      </c>
-      <c r="I77" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" t="s">
-        <v>52</v>
-      </c>
-      <c r="K77" t="s">
+      <c r="H77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L77" t="s">
-        <v>52</v>
-      </c>
-      <c r="M77" t="s">
-        <v>52</v>
-      </c>
-      <c r="N77" t="s">
-        <v>52</v>
-      </c>
-      <c r="O77" t="s">
-        <v>52</v>
-      </c>
-      <c r="P77" t="s">
+      <c r="L77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q77" t="s">
-        <v>52</v>
-      </c>
-      <c r="R77" t="s">
-        <v>52</v>
-      </c>
-      <c r="S77" t="s">
-        <v>52</v>
-      </c>
-      <c r="T77" t="s">
-        <v>52</v>
-      </c>
-      <c r="U77" t="s">
-        <v>52</v>
-      </c>
-      <c r="V77" t="s">
-        <v>52</v>
-      </c>
-      <c r="W77" t="s">
+      <c r="Q77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W77" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X77" s="1">
@@ -7404,68 +7405,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="24" customHeight="1" spans="3:25">
-      <c r="C78" t="s">
+    <row r="78" customHeight="1" spans="3:25">
+      <c r="C78" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H78" t="s">
-        <v>52</v>
-      </c>
-      <c r="I78" t="s">
-        <v>52</v>
-      </c>
-      <c r="J78" t="s">
-        <v>52</v>
-      </c>
-      <c r="K78" t="s">
+      <c r="H78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L78" t="s">
-        <v>52</v>
-      </c>
-      <c r="M78" t="s">
-        <v>52</v>
-      </c>
-      <c r="N78" t="s">
-        <v>52</v>
-      </c>
-      <c r="O78" t="s">
-        <v>52</v>
-      </c>
-      <c r="P78" t="s">
+      <c r="L78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q78" t="s">
-        <v>52</v>
-      </c>
-      <c r="R78" t="s">
-        <v>52</v>
-      </c>
-      <c r="S78" t="s">
-        <v>52</v>
-      </c>
-      <c r="T78" t="s">
-        <v>52</v>
-      </c>
-      <c r="U78" t="s">
-        <v>52</v>
-      </c>
-      <c r="V78" t="s">
-        <v>52</v>
-      </c>
-      <c r="W78" t="s">
+      <c r="Q78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W78" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X78" s="1">
@@ -7475,68 +7476,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="24" customHeight="1" spans="3:25">
-      <c r="C79" t="s">
+    <row r="79" customHeight="1" spans="3:25">
+      <c r="C79" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H79" t="s">
-        <v>52</v>
-      </c>
-      <c r="I79" t="s">
-        <v>52</v>
-      </c>
-      <c r="J79" t="s">
-        <v>52</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="H79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L79" t="s">
-        <v>52</v>
-      </c>
-      <c r="M79" t="s">
-        <v>52</v>
-      </c>
-      <c r="N79" t="s">
-        <v>52</v>
-      </c>
-      <c r="O79" t="s">
-        <v>52</v>
-      </c>
-      <c r="P79" t="s">
+      <c r="L79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q79" t="s">
-        <v>52</v>
-      </c>
-      <c r="R79" t="s">
-        <v>52</v>
-      </c>
-      <c r="S79" t="s">
-        <v>52</v>
-      </c>
-      <c r="T79" t="s">
-        <v>52</v>
-      </c>
-      <c r="U79" t="s">
-        <v>52</v>
-      </c>
-      <c r="V79" t="s">
-        <v>52</v>
-      </c>
-      <c r="W79" t="s">
+      <c r="Q79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W79" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X79" s="1">
@@ -7546,68 +7547,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="24" customHeight="1" spans="3:25">
-      <c r="C80" t="s">
+    <row r="80" customHeight="1" spans="3:25">
+      <c r="C80" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H80" t="s">
-        <v>52</v>
-      </c>
-      <c r="I80" t="s">
-        <v>52</v>
-      </c>
-      <c r="J80" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" t="s">
+      <c r="H80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L80" t="s">
-        <v>52</v>
-      </c>
-      <c r="M80" t="s">
-        <v>52</v>
-      </c>
-      <c r="N80" t="s">
-        <v>52</v>
-      </c>
-      <c r="O80" t="s">
-        <v>52</v>
-      </c>
-      <c r="P80" t="s">
+      <c r="L80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q80" t="s">
-        <v>52</v>
-      </c>
-      <c r="R80" t="s">
-        <v>52</v>
-      </c>
-      <c r="S80" t="s">
-        <v>52</v>
-      </c>
-      <c r="T80" t="s">
-        <v>52</v>
-      </c>
-      <c r="U80" t="s">
-        <v>52</v>
-      </c>
-      <c r="V80" t="s">
-        <v>52</v>
-      </c>
-      <c r="W80" t="s">
+      <c r="Q80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W80" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X80" s="1">
@@ -7636,10 +7637,10 @@
   <dimension ref="C3:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
@@ -7658,7 +7659,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" spans="3:25">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:25">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:25">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:25">
       <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="3:25">
+    <row r="6" customHeight="1" spans="3:25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:25">
+    <row r="7" customHeight="1" spans="3:25">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:25">
+    <row r="8" customHeight="1" spans="3:25">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:25">
+    <row r="9" customHeight="1" spans="3:25">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:25">
+    <row r="10" customHeight="1" spans="3:25">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:25">
+    <row r="11" customHeight="1" spans="3:25">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:25">
+    <row r="12" customHeight="1" spans="3:25">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:25">
+    <row r="13" customHeight="1" spans="3:25">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:25">
+    <row r="14" customHeight="1" spans="3:25">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:25">
+    <row r="15" customHeight="1" spans="3:25">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:25">
+    <row r="16" customHeight="1" spans="3:25">
       <c r="C16" s="1">
         <v>11</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:25">
+    <row r="17" customHeight="1" spans="3:25">
       <c r="C17" s="1">
         <v>12</v>
       </c>
@@ -8687,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:25">
+    <row r="18" customHeight="1" spans="3:25">
       <c r="C18" s="1">
         <v>13</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25">
+    <row r="19" customHeight="1" spans="3:25">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:25">
+    <row r="20" customHeight="1" spans="3:25">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:25">
+    <row r="21" customHeight="1" spans="3:25">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25">
+    <row r="22" customHeight="1" spans="3:25">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25">
+    <row r="23" customHeight="1" spans="3:25">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25">
+    <row r="24" customHeight="1" spans="3:25">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -9163,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:25">
+    <row r="25" customHeight="1" spans="3:25">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:25">
+    <row r="26" customHeight="1" spans="3:25">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:25">
+    <row r="27" customHeight="1" spans="3:25">
       <c r="C27" s="1">
         <v>22</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:25">
+    <row r="28" customHeight="1" spans="3:25">
       <c r="C28" s="1">
         <v>23</v>
       </c>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="270">
   <si>
     <t>_ID</t>
   </si>
@@ -1075,6 +1075,12 @@
   </si>
   <si>
     <t>宠物攻击系数增加10%</t>
+  </si>
+  <si>
+    <t>火符·暴击</t>
+  </si>
+  <si>
+    <t>火符·暴伤</t>
   </si>
 </sst>
 </file>
@@ -1253,12 +1259,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1724,7 +1730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1732,7 +1738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2056,9 +2061,9 @@
   <dimension ref="C3:Y80"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2294,7 +2299,7 @@
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="3:25">
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>10001</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2368,8 +2373,8 @@
       <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
+      <c r="D7" s="1">
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>56</v>
@@ -2723,8 +2728,8 @@
       <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
+      <c r="D12" s="1">
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>72</v>
@@ -3078,8 +3083,8 @@
       <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
+      <c r="D17" s="1">
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>83</v>
@@ -3433,8 +3438,8 @@
       <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>91</v>
+      <c r="D22" s="1">
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>94</v>
@@ -3753,7 +3758,7 @@
       <c r="O26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="5" t="s">
         <v>105</v>
       </c>
       <c r="Q26" s="1" t="s">
@@ -3824,7 +3829,7 @@
       <c r="O27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="5" t="s">
         <v>54</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -3930,8 +3935,8 @@
       <c r="C29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>110</v>
+      <c r="D29" s="1">
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>113</v>
@@ -4285,8 +4290,8 @@
       <c r="C34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>121</v>
+      <c r="D34" s="1">
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>124</v>
@@ -4640,8 +4645,8 @@
       <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>132</v>
+      <c r="D39" s="1">
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>135</v>
@@ -4995,8 +5000,8 @@
       <c r="C44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>143</v>
+      <c r="D44" s="1">
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>146</v>
@@ -5350,8 +5355,8 @@
       <c r="C49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>154</v>
+      <c r="D49" s="1">
+        <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>157</v>
@@ -5670,7 +5675,7 @@
       <c r="O53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P53" s="6" t="s">
+      <c r="P53" s="5" t="s">
         <v>105</v>
       </c>
       <c r="Q53" s="1" t="s">
@@ -5847,8 +5852,8 @@
       <c r="C56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>171</v>
+      <c r="D56" s="1">
+        <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>174</v>
@@ -6344,8 +6349,8 @@
       <c r="C63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>188</v>
+      <c r="D63" s="1">
+        <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>191</v>
@@ -6735,7 +6740,7 @@
       <c r="O68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P68" s="6" t="s">
+      <c r="P68" s="5" t="s">
         <v>105</v>
       </c>
       <c r="Q68" s="1" t="s">
@@ -6912,8 +6917,8 @@
       <c r="C71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>102</v>
+      <c r="D71" s="1">
+        <v>0</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>211</v>
@@ -6983,8 +6988,8 @@
       <c r="C72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
+      <c r="D72" s="1">
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>214</v>
@@ -7054,8 +7059,8 @@
       <c r="C73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>165</v>
+      <c r="D73" s="1">
+        <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>216</v>
@@ -7125,8 +7130,8 @@
       <c r="C74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>168</v>
+      <c r="D74" s="1">
+        <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>218</v>
@@ -7196,8 +7201,8 @@
       <c r="C75" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>182</v>
+      <c r="D75" s="1">
+        <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>220</v>
@@ -7267,8 +7272,8 @@
       <c r="C76" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>185</v>
+      <c r="D76" s="1">
+        <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>222</v>
@@ -7338,8 +7343,8 @@
       <c r="C77" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>199</v>
+      <c r="D77" s="1">
+        <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>224</v>
@@ -7409,8 +7414,8 @@
       <c r="C78" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>202</v>
+      <c r="D78" s="1">
+        <v>0</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>226</v>
@@ -7480,8 +7485,8 @@
       <c r="C79" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>205</v>
+      <c r="D79" s="1">
+        <v>0</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>228</v>
@@ -7551,8 +7556,8 @@
       <c r="C80" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>208</v>
+      <c r="D80" s="1">
+        <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>230</v>
@@ -7634,10 +7639,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Y28"/>
+  <dimension ref="C3:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -9436,6 +9441,148 @@
         <v>8</v>
       </c>
     </row>
+    <row r="29" customHeight="1" spans="3:25">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>20</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:25">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3002</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>20</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3:F5 G3:G5 H3:H5 C3:E5" errorStyle="warning">

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="281">
   <si>
     <t>_ID</t>
   </si>
@@ -1226,6 +1226,24 @@
   </si>
   <si>
     <t>火符·暴伤</t>
+  </si>
+  <si>
+    <t>开天斩·急速</t>
+  </si>
+  <si>
+    <t>CD时间-3s</t>
+  </si>
+  <si>
+    <t>流星火雨·大大大</t>
+  </si>
+  <si>
+    <t>攻击范围行列+1</t>
+  </si>
+  <si>
+    <t>召唤月灵·系数</t>
+  </si>
+  <si>
+    <t>技能系数增加50%</t>
   </si>
   <si>
     <t>多重雷电</t>
@@ -2217,10 +2235,10 @@
   <sheetPr/>
   <dimension ref="C3:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -8030,19 +8048,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Z30"/>
+  <dimension ref="C3:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
     <col min="12" max="13" width="10.375" style="1" customWidth="1"/>
     <col min="14" max="16" width="13.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="10.375" style="1" customWidth="1"/>
@@ -10055,6 +10075,219 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:26">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1009</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:26">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:26">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3009</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>50</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -10331,10 +10564,10 @@
         <v>2002</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -10402,10 +10635,10 @@
         <v>3002</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="280">
   <si>
     <t>_ID</t>
   </si>
@@ -590,9 +590,6 @@
   </si>
   <si>
     <t>增加2000*技能等级点伤害</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>10003</t>
@@ -2235,10 +2232,10 @@
   <sheetPr/>
   <dimension ref="C3:Z80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6:R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2603,7 +2600,7 @@
         <v>53</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>53</v>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="8" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2641,10 +2638,10 @@
         <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>52</v>
@@ -2706,7 +2703,7 @@
     </row>
     <row r="9" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2715,10 +2712,10 @@
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>52</v>
@@ -2780,7 +2777,7 @@
     </row>
     <row r="10" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2789,10 +2786,10 @@
         <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>52</v>
@@ -2854,16 +2851,16 @@
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>51</v>
@@ -2928,16 +2925,16 @@
     </row>
     <row r="12" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>58</v>
@@ -2973,7 +2970,7 @@
         <v>53</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>53</v>
@@ -3002,19 +2999,19 @@
     </row>
     <row r="13" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>52</v>
@@ -3076,19 +3073,19 @@
     </row>
     <row r="14" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>52</v>
@@ -3150,19 +3147,19 @@
     </row>
     <row r="15" s="3" customFormat="1" customHeight="1" spans="3:26">
       <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>52</v>
@@ -3224,16 +3221,16 @@
     </row>
     <row r="16" customHeight="1" spans="3:26">
       <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>51</v>
@@ -3268,7 +3265,7 @@
       <c r="Q16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -3298,16 +3295,16 @@
     </row>
     <row r="17" customHeight="1" spans="3:26">
       <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>58</v>
@@ -3343,7 +3340,7 @@
         <v>53</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>53</v>
@@ -3372,19 +3369,19 @@
     </row>
     <row r="18" customHeight="1" spans="3:26">
       <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>52</v>
@@ -3416,7 +3413,7 @@
       <c r="Q18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -3446,19 +3443,19 @@
     </row>
     <row r="19" customHeight="1" spans="3:26">
       <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -3490,7 +3487,7 @@
       <c r="Q19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -3520,19 +3517,19 @@
     </row>
     <row r="20" customHeight="1" spans="3:26">
       <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>52</v>
@@ -3564,7 +3561,7 @@
       <c r="Q20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S20" s="3" t="s">
@@ -3594,16 +3591,16 @@
     </row>
     <row r="21" customHeight="1" spans="3:26">
       <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>51</v>
@@ -3638,7 +3635,7 @@
       <c r="Q21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S21" s="3" t="s">
@@ -3668,16 +3665,16 @@
     </row>
     <row r="22" customHeight="1" spans="3:26">
       <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>58</v>
@@ -3713,7 +3710,7 @@
         <v>53</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>53</v>
@@ -3742,19 +3739,19 @@
     </row>
     <row r="23" customHeight="1" spans="3:26">
       <c r="C23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>52</v>
@@ -3786,7 +3783,7 @@
       <c r="Q23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -3816,19 +3813,19 @@
     </row>
     <row r="24" customHeight="1" spans="3:26">
       <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>52</v>
@@ -3860,7 +3857,7 @@
       <c r="Q24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S24" s="3" t="s">
@@ -3890,19 +3887,19 @@
     </row>
     <row r="25" customHeight="1" spans="3:26">
       <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>52</v>
@@ -3934,7 +3931,7 @@
       <c r="Q25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="S25" s="3" t="s">
@@ -3964,19 +3961,19 @@
     </row>
     <row r="26" customHeight="1" spans="3:26">
       <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>52</v>
@@ -4006,7 +4003,7 @@
         <v>53</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>53</v>
@@ -4038,16 +4035,16 @@
     </row>
     <row r="27" customHeight="1" spans="3:26">
       <c r="C27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>51</v>
@@ -4112,16 +4109,16 @@
     </row>
     <row r="28" customHeight="1" spans="3:26">
       <c r="C28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>51</v>
@@ -4186,16 +4183,16 @@
     </row>
     <row r="29" customHeight="1" spans="3:26">
       <c r="C29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>58</v>
@@ -4231,7 +4228,7 @@
         <v>53</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>53</v>
@@ -4260,19 +4257,19 @@
     </row>
     <row r="30" customHeight="1" spans="3:26">
       <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>52</v>
@@ -4334,19 +4331,19 @@
     </row>
     <row r="31" customHeight="1" spans="3:26">
       <c r="C31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>52</v>
@@ -4408,19 +4405,19 @@
     </row>
     <row r="32" customHeight="1" spans="3:26">
       <c r="C32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>52</v>
@@ -4482,16 +4479,16 @@
     </row>
     <row r="33" customHeight="1" spans="3:26">
       <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>51</v>
@@ -4556,16 +4553,16 @@
     </row>
     <row r="34" customHeight="1" spans="3:26">
       <c r="C34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>58</v>
@@ -4601,7 +4598,7 @@
         <v>53</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>53</v>
@@ -4630,19 +4627,19 @@
     </row>
     <row r="35" customHeight="1" spans="3:26">
       <c r="C35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>52</v>
@@ -4704,19 +4701,19 @@
     </row>
     <row r="36" customHeight="1" spans="3:26">
       <c r="C36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>52</v>
@@ -4778,19 +4775,19 @@
     </row>
     <row r="37" customHeight="1" spans="3:26">
       <c r="C37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>52</v>
@@ -4852,16 +4849,16 @@
     </row>
     <row r="38" customHeight="1" spans="3:26">
       <c r="C38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>51</v>
@@ -4926,16 +4923,16 @@
     </row>
     <row r="39" customHeight="1" spans="3:26">
       <c r="C39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>58</v>
@@ -4971,7 +4968,7 @@
         <v>53</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>53</v>
@@ -5000,19 +4997,19 @@
     </row>
     <row r="40" customHeight="1" spans="3:26">
       <c r="C40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>52</v>
@@ -5074,19 +5071,19 @@
     </row>
     <row r="41" customHeight="1" spans="3:26">
       <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>52</v>
@@ -5148,19 +5145,19 @@
     </row>
     <row r="42" customHeight="1" spans="3:26">
       <c r="C42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>52</v>
@@ -5222,16 +5219,16 @@
     </row>
     <row r="43" customHeight="1" spans="3:26">
       <c r="C43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>51</v>
@@ -5296,16 +5293,16 @@
     </row>
     <row r="44" customHeight="1" spans="3:26">
       <c r="C44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>58</v>
@@ -5341,7 +5338,7 @@
         <v>53</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>53</v>
@@ -5370,19 +5367,19 @@
     </row>
     <row r="45" customHeight="1" spans="3:26">
       <c r="C45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>52</v>
@@ -5444,19 +5441,19 @@
     </row>
     <row r="46" customHeight="1" spans="3:26">
       <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>52</v>
@@ -5518,19 +5515,19 @@
     </row>
     <row r="47" customHeight="1" spans="3:26">
       <c r="C47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>52</v>
@@ -5592,16 +5589,16 @@
     </row>
     <row r="48" customHeight="1" spans="3:26">
       <c r="C48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>51</v>
@@ -5666,16 +5663,16 @@
     </row>
     <row r="49" customHeight="1" spans="3:26">
       <c r="C49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>58</v>
@@ -5711,7 +5708,7 @@
         <v>53</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>53</v>
@@ -5740,19 +5737,19 @@
     </row>
     <row r="50" customHeight="1" spans="3:26">
       <c r="C50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>52</v>
@@ -5814,19 +5811,19 @@
     </row>
     <row r="51" customHeight="1" spans="3:26">
       <c r="C51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>52</v>
@@ -5888,19 +5885,19 @@
     </row>
     <row r="52" customHeight="1" spans="3:26">
       <c r="C52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>52</v>
@@ -5962,19 +5959,19 @@
     </row>
     <row r="53" customHeight="1" spans="3:26">
       <c r="C53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>52</v>
@@ -6004,7 +6001,7 @@
         <v>53</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>53</v>
@@ -6036,16 +6033,16 @@
     </row>
     <row r="54" customHeight="1" spans="3:26">
       <c r="C54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>51</v>
@@ -6110,16 +6107,16 @@
     </row>
     <row r="55" customHeight="1" spans="3:26">
       <c r="C55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>51</v>
@@ -6184,16 +6181,16 @@
     </row>
     <row r="56" customHeight="1" spans="3:26">
       <c r="C56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>58</v>
@@ -6229,7 +6226,7 @@
         <v>53</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>53</v>
@@ -6258,19 +6255,19 @@
     </row>
     <row r="57" customHeight="1" spans="3:26">
       <c r="C57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>52</v>
@@ -6332,19 +6329,19 @@
     </row>
     <row r="58" customHeight="1" spans="3:26">
       <c r="C58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>52</v>
@@ -6406,19 +6403,19 @@
     </row>
     <row r="59" customHeight="1" spans="3:26">
       <c r="C59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>52</v>
@@ -6480,16 +6477,16 @@
     </row>
     <row r="60" customHeight="1" spans="3:26">
       <c r="C60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>51</v>
@@ -6554,16 +6551,16 @@
     </row>
     <row r="61" customHeight="1" spans="3:26">
       <c r="C61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>51</v>
@@ -6628,16 +6625,16 @@
     </row>
     <row r="62" customHeight="1" spans="3:26">
       <c r="C62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>51</v>
@@ -6702,16 +6699,16 @@
     </row>
     <row r="63" customHeight="1" spans="3:26">
       <c r="C63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>58</v>
@@ -6747,7 +6744,7 @@
         <v>53</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>53</v>
@@ -6776,19 +6773,19 @@
     </row>
     <row r="64" customHeight="1" spans="3:26">
       <c r="C64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>52</v>
@@ -6850,19 +6847,19 @@
     </row>
     <row r="65" customHeight="1" spans="3:26">
       <c r="C65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>52</v>
@@ -6924,19 +6921,19 @@
     </row>
     <row r="66" customHeight="1" spans="3:26">
       <c r="C66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>52</v>
@@ -6998,16 +6995,16 @@
     </row>
     <row r="67" customHeight="1" spans="3:26">
       <c r="C67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>51</v>
@@ -7072,19 +7069,19 @@
     </row>
     <row r="68" customHeight="1" spans="3:26">
       <c r="C68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>52</v>
@@ -7114,7 +7111,7 @@
         <v>53</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>53</v>
@@ -7146,16 +7143,16 @@
     </row>
     <row r="69" customHeight="1" spans="3:26">
       <c r="C69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>51</v>
@@ -7220,16 +7217,16 @@
     </row>
     <row r="70" customHeight="1" spans="3:26">
       <c r="C70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>51</v>
@@ -7294,19 +7291,19 @@
     </row>
     <row r="71" customHeight="1" spans="3:26">
       <c r="C71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>52</v>
@@ -7368,19 +7365,19 @@
     </row>
     <row r="72" customHeight="1" spans="3:26">
       <c r="C72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>52</v>
@@ -7442,19 +7439,19 @@
     </row>
     <row r="73" customHeight="1" spans="3:26">
       <c r="C73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>52</v>
@@ -7516,19 +7513,19 @@
     </row>
     <row r="74" customHeight="1" spans="3:26">
       <c r="C74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>52</v>
@@ -7590,19 +7587,19 @@
     </row>
     <row r="75" customHeight="1" spans="3:26">
       <c r="C75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>52</v>
@@ -7664,19 +7661,19 @@
     </row>
     <row r="76" customHeight="1" spans="3:26">
       <c r="C76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>52</v>
@@ -7738,19 +7735,19 @@
     </row>
     <row r="77" customHeight="1" spans="3:26">
       <c r="C77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D77" s="1">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>52</v>
@@ -7812,19 +7809,19 @@
     </row>
     <row r="78" customHeight="1" spans="3:26">
       <c r="C78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>52</v>
@@ -7886,19 +7883,19 @@
     </row>
     <row r="79" customHeight="1" spans="3:26">
       <c r="C79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>52</v>
@@ -7960,19 +7957,19 @@
     </row>
     <row r="80" customHeight="1" spans="3:26">
       <c r="C80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>52</v>
@@ -8050,7 +8047,7 @@
   <sheetPr/>
   <dimension ref="C3:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -8308,10 +8305,10 @@
         <v>2003</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -8379,10 +8376,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -8450,10 +8447,10 @@
         <v>2004</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -8521,10 +8518,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
@@ -8592,10 +8589,10 @@
         <v>2007</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -8663,10 +8660,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -8734,10 +8731,10 @@
         <v>2001</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -8805,10 +8802,10 @@
         <v>2002</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
@@ -8876,10 +8873,10 @@
         <v>1002</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
@@ -8947,10 +8944,10 @@
         <v>3004</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -9018,10 +9015,10 @@
         <v>3007</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -9089,10 +9086,10 @@
         <v>2002</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
@@ -9160,10 +9157,10 @@
         <v>2001</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
@@ -9231,10 +9228,10 @@
         <v>1005</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
@@ -9302,10 +9299,10 @@
         <v>2005</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
@@ -9373,10 +9370,10 @@
         <v>3005</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -9444,10 +9441,10 @@
         <v>3007</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
@@ -9515,10 +9512,10 @@
         <v>2007</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="H23" s="1">
         <v>4</v>
@@ -9586,10 +9583,10 @@
         <v>1007</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
@@ -9657,10 +9654,10 @@
         <v>3002</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
@@ -9728,10 +9725,10 @@
         <v>1008</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="H26" s="1">
         <v>4</v>
@@ -9799,10 +9796,10 @@
         <v>2008</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
@@ -9870,10 +9867,10 @@
         <v>3008</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
@@ -9941,10 +9938,10 @@
         <v>3002</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" s="1">
         <v>4</v>
@@ -10015,10 +10012,10 @@
         <v>3002</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1">
         <v>4</v>
@@ -10089,10 +10086,10 @@
         <v>1009</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="H31" s="1">
         <v>2</v>
@@ -10160,10 +10157,10 @@
         <v>2009</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="H32" s="1">
         <v>2</v>
@@ -10231,10 +10228,10 @@
         <v>3009</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="H33" s="1">
         <v>2</v>
@@ -10564,10 +10561,10 @@
         <v>2002</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -10635,10 +10632,10 @@
         <v>3002</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="281">
   <si>
     <t>_ID</t>
   </si>
@@ -1241,6 +1241,9 @@
   </si>
   <si>
     <t>技能系数增加50%</t>
+  </si>
+  <si>
+    <t>火符·易伤</t>
   </si>
   <si>
     <t>多重雷电</t>
@@ -2232,10 +2235,10 @@
   <sheetPr/>
   <dimension ref="C3:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6:R80"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -8045,10 +8048,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Z33"/>
+  <dimension ref="C3:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -9944,7 +9947,7 @@
         <v>61</v>
       </c>
       <c r="H29" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -10018,7 +10021,7 @@
         <v>64</v>
       </c>
       <c r="H30" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -10285,6 +10288,80 @@
         <v>0</v>
       </c>
       <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:26">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3002</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="1">
+        <v>99</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>20</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -10561,10 +10638,10 @@
         <v>2002</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -10632,10 +10709,10 @@
         <v>3002</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
     <sheet name="手动配置" sheetId="2" r:id="rId2"/>
-    <sheet name="DefendBuff" sheetId="3" r:id="rId3"/>
+    <sheet name="金装" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -313,80 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 主动
-2 被动
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0 以自己为圆心
-1 距离1格</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-FrontRow 直线
-FullBox 十字
-Square 矩形
-Diamond 菱形
-FullBox 全图</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="313">
   <si>
     <t>_ID</t>
   </si>
@@ -1246,16 +1173,112 @@
     <t>火符·易伤</t>
   </si>
   <si>
-    <t>多重雷电</t>
-  </si>
-  <si>
-    <t>增加4个攻击目标</t>
-  </si>
-  <si>
-    <t>多重火符</t>
-  </si>
-  <si>
-    <t>增加1个攻击目标</t>
+    <t>系数倍率</t>
+  </si>
+  <si>
+    <t>PercentRate</t>
+  </si>
+  <si>
+    <t>基础剑术·系数倍率</t>
+  </si>
+  <si>
+    <t>提高技能系数10%倍率</t>
+  </si>
+  <si>
+    <t>刺杀剑术·系数倍率</t>
+  </si>
+  <si>
+    <t>半月弯刀·系数倍率</t>
+  </si>
+  <si>
+    <t>野蛮撞击·系数倍率</t>
+  </si>
+  <si>
+    <t>武力盾·系数倍率</t>
+  </si>
+  <si>
+    <t>武力精通·系数倍率</t>
+  </si>
+  <si>
+    <t>烈火剑法·系数倍率</t>
+  </si>
+  <si>
+    <t>护体神盾·系数倍率</t>
+  </si>
+  <si>
+    <t>开天斩·系数倍率</t>
+  </si>
+  <si>
+    <t>彻地钉·系数倍率</t>
+  </si>
+  <si>
+    <t>战士之魂·系数倍率</t>
+  </si>
+  <si>
+    <t>小火球</t>
+  </si>
+  <si>
+    <t>雷电术</t>
+  </si>
+  <si>
+    <t>火墙</t>
+  </si>
+  <si>
+    <t>爆裂火焰</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+  </si>
+  <si>
+    <t>法术精通</t>
+  </si>
+  <si>
+    <t>冰咆哮</t>
+  </si>
+  <si>
+    <t>瞬息移动</t>
+  </si>
+  <si>
+    <t>流星火雨</t>
+  </si>
+  <si>
+    <t>分身术</t>
+  </si>
+  <si>
+    <t>法师之魂</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>火符术</t>
+  </si>
+  <si>
+    <t>施毒术</t>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+  </si>
+  <si>
+    <t>道力盾</t>
+  </si>
+  <si>
+    <t>道力精通</t>
+  </si>
+  <si>
+    <t>召唤神兽</t>
+  </si>
+  <si>
+    <t>隐身术</t>
+  </si>
+  <si>
+    <t>召唤月灵</t>
+  </si>
+  <si>
+    <t>无极道体</t>
+  </si>
+  <si>
+    <t>道士之魂</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1291,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,6 +1310,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1775,16 +1804,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1793,124 +1819,129 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -2238,7 +2269,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V$1:V$1048576"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2482,7 +2513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="6" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -2556,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
@@ -2630,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2704,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
@@ -2778,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="10" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2852,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
@@ -2926,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="12" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
@@ -3000,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="13" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C13" s="1" t="s">
         <v>73</v>
       </c>
@@ -3074,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="14" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
@@ -3148,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:26">
+    <row r="15" s="5" customFormat="1" customHeight="1" spans="3:26">
       <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,13 +3272,13 @@
       <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -3256,7 +3287,7 @@
       <c r="M16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -3265,22 +3296,22 @@
       <c r="P16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V16" s="3" t="s">
+      <c r="S16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -3315,13 +3346,13 @@
       <c r="H17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -3330,7 +3361,7 @@
       <c r="M17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -3339,7 +3370,7 @@
       <c r="P17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -3348,13 +3379,13 @@
       <c r="S17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V17" s="3" t="s">
+      <c r="T17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W17" s="1" t="s">
@@ -3389,13 +3420,13 @@
       <c r="H18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="I18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -3404,7 +3435,7 @@
       <c r="M18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -3413,22 +3444,22 @@
       <c r="P18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T18" s="3" t="s">
+      <c r="S18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V18" s="3" t="s">
+      <c r="U18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W18" s="1" t="s">
@@ -3457,19 +3488,19 @@
       <c r="F19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="I19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -3478,7 +3509,7 @@
       <c r="M19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -3487,22 +3518,22 @@
       <c r="P19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U19" s="3" t="s">
+      <c r="S19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -3537,13 +3568,13 @@
       <c r="H20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -3552,7 +3583,7 @@
       <c r="M20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -3561,22 +3592,22 @@
       <c r="P20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V20" s="3" t="s">
+      <c r="S20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="W20" s="1" t="s">
@@ -3605,19 +3636,19 @@
       <c r="F21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -3626,7 +3657,7 @@
       <c r="M21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -3635,22 +3666,22 @@
       <c r="P21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V21" s="3" t="s">
+      <c r="S21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W21" s="1" t="s">
@@ -3685,13 +3716,13 @@
       <c r="H22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="I22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -3700,7 +3731,7 @@
       <c r="M22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -3709,7 +3740,7 @@
       <c r="P22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -3718,13 +3749,13 @@
       <c r="S22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V22" s="3" t="s">
+      <c r="T22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W22" s="1" t="s">
@@ -3759,13 +3790,13 @@
       <c r="H23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="I23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -3774,7 +3805,7 @@
       <c r="M23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -3789,16 +3820,16 @@
       <c r="R23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T23" s="3" t="s">
+      <c r="S23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" s="3" t="s">
+      <c r="U23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W23" s="1" t="s">
@@ -3836,10 +3867,10 @@
       <c r="I24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3848,7 +3879,7 @@
       <c r="M24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -3857,22 +3888,22 @@
       <c r="P24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="Q24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" s="3" t="s">
+      <c r="S24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="5" t="s">
         <v>53</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -3907,13 +3938,13 @@
       <c r="H25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="I25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -3922,7 +3953,7 @@
       <c r="M25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -3937,16 +3968,16 @@
       <c r="R25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V25" s="3" t="s">
+      <c r="S25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>55</v>
       </c>
       <c r="W25" s="1" t="s">
@@ -4005,7 +4036,7 @@
       <c r="P26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="7" t="s">
         <v>105</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -4079,7 +4110,7 @@
       <c r="P27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="7" t="s">
         <v>55</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -6003,7 +6034,7 @@
       <c r="P53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="Q53" s="7" t="s">
         <v>105</v>
       </c>
       <c r="R53" s="1" t="s">
@@ -7113,7 +7144,7 @@
       <c r="P68" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" s="7" t="s">
         <v>105</v>
       </c>
       <c r="R68" s="1" t="s">
@@ -8034,7 +8065,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 G3:G5 H3:H5 I3:I5 E3:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:I5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -8050,7 +8081,7 @@
   <sheetPr/>
   <dimension ref="C3:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -8355,7 +8386,7 @@
       <c r="V6" s="1">
         <v>0</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="5">
         <v>0</v>
       </c>
       <c r="X6" s="1">
@@ -8426,7 +8457,7 @@
       <c r="V7" s="1">
         <v>0</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="5">
         <v>0</v>
       </c>
       <c r="X7" s="1">
@@ -8497,7 +8528,7 @@
       <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="5">
         <v>0</v>
       </c>
       <c r="X8" s="1">
@@ -8568,7 +8599,7 @@
       <c r="V9" s="1">
         <v>0</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="5">
         <v>0</v>
       </c>
       <c r="X9" s="1">
@@ -8639,7 +8670,7 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="5">
         <v>0</v>
       </c>
       <c r="X10" s="1">
@@ -8710,7 +8741,7 @@
       <c r="V11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="5">
         <v>0</v>
       </c>
       <c r="X11" s="1">
@@ -8781,7 +8812,7 @@
       <c r="V12" s="1">
         <v>0</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="5">
         <v>0</v>
       </c>
       <c r="X12" s="1">
@@ -8852,7 +8883,7 @@
       <c r="V13" s="1">
         <v>0</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="5">
         <v>0</v>
       </c>
       <c r="X13" s="1">
@@ -8923,7 +8954,7 @@
       <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="5">
         <v>0</v>
       </c>
       <c r="X14" s="1">
@@ -8994,7 +9025,7 @@
       <c r="V15" s="1">
         <v>0</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="5">
         <v>0</v>
       </c>
       <c r="X15" s="1">
@@ -9065,7 +9096,7 @@
       <c r="V16" s="1">
         <v>0</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="5">
         <v>0</v>
       </c>
       <c r="X16" s="1">
@@ -9136,7 +9167,7 @@
       <c r="V17" s="1">
         <v>0</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="5">
         <v>0</v>
       </c>
       <c r="X17" s="1">
@@ -9207,7 +9238,7 @@
       <c r="V18" s="1">
         <v>0</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="5">
         <v>0</v>
       </c>
       <c r="X18" s="1">
@@ -9278,7 +9309,7 @@
       <c r="V19" s="1">
         <v>0</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="5">
         <v>0</v>
       </c>
       <c r="X19" s="1">
@@ -9349,7 +9380,7 @@
       <c r="V20" s="1">
         <v>0</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="5">
         <v>0</v>
       </c>
       <c r="X20" s="1">
@@ -9420,7 +9451,7 @@
       <c r="V21" s="1">
         <v>0</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="5">
         <v>0</v>
       </c>
       <c r="X21" s="1">
@@ -9491,7 +9522,7 @@
       <c r="V22" s="1">
         <v>0</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="5">
         <v>0</v>
       </c>
       <c r="X22" s="1">
@@ -9514,7 +9545,7 @@
       <c r="E23" s="1">
         <v>2007</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="6" t="s">
         <v>257</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -9559,10 +9590,10 @@
       <c r="U23" s="1">
         <v>0</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="6">
         <v>20</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="5">
         <v>0</v>
       </c>
       <c r="X23" s="1">
@@ -9585,7 +9616,7 @@
       <c r="E24" s="1">
         <v>1007</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="6" t="s">
         <v>259</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -9615,7 +9646,7 @@
       <c r="P24" s="1">
         <v>0</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="6">
         <v>10</v>
       </c>
       <c r="R24" s="1">
@@ -9633,7 +9664,7 @@
       <c r="V24" s="1">
         <v>0</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="5">
         <v>0</v>
       </c>
       <c r="X24" s="1">
@@ -9704,7 +9735,7 @@
       <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="5">
         <v>0</v>
       </c>
       <c r="X25" s="1">
@@ -9757,7 +9788,7 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="6">
         <v>10</v>
       </c>
       <c r="R26" s="1">
@@ -9775,7 +9806,7 @@
       <c r="V26" s="1">
         <v>0</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="5">
         <v>0</v>
       </c>
       <c r="X26" s="1">
@@ -9828,7 +9859,7 @@
       <c r="P27" s="1">
         <v>0</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="6">
         <v>10</v>
       </c>
       <c r="R27" s="1">
@@ -9846,7 +9877,7 @@
       <c r="V27" s="1">
         <v>0</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="5">
         <v>0</v>
       </c>
       <c r="X27" s="1">
@@ -9899,7 +9930,7 @@
       <c r="P28" s="1">
         <v>0</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="6">
         <v>10</v>
       </c>
       <c r="R28" s="1">
@@ -9917,7 +9948,7 @@
       <c r="V28" s="1">
         <v>0</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="5">
         <v>0</v>
       </c>
       <c r="X28" s="1">
@@ -9991,7 +10022,7 @@
       <c r="V29" s="1">
         <v>0</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="5">
         <v>0</v>
       </c>
       <c r="X29" s="1">
@@ -10065,7 +10096,7 @@
       <c r="V30" s="1">
         <v>0</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="5">
         <v>0</v>
       </c>
       <c r="X30" s="1">
@@ -10136,7 +10167,7 @@
       <c r="V31" s="1">
         <v>0</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="5">
         <v>0</v>
       </c>
       <c r="X31" s="1">
@@ -10207,7 +10238,7 @@
       <c r="V32" s="1">
         <v>0</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="5">
         <v>0</v>
       </c>
       <c r="X32" s="1">
@@ -10278,7 +10309,7 @@
       <c r="V33" s="1">
         <v>0</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="5">
         <v>0</v>
       </c>
       <c r="X33" s="1">
@@ -10352,7 +10383,7 @@
       <c r="V34" s="1">
         <v>20</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="5">
         <v>0</v>
       </c>
       <c r="X34" s="1">
@@ -10367,7 +10398,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 G3:G5 H3:H5 I3:I5 E3:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:I5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -10380,32 +10411,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:Z7"/>
+  <dimension ref="C3:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="10.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.375" style="1" customWidth="1"/>
-    <col min="14" max="16" width="13.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="7.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.625" style="1" customWidth="1"/>
-    <col min="23" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="1" customWidth="1"/>
+    <col min="15" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:26">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:18">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -10425,61 +10453,19 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:26">
+        <v>277</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:18">
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
@@ -10499,61 +10485,19 @@
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:26">
+        <v>278</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:18">
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
@@ -10575,203 +10519,790 @@
       <c r="I5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:26">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
-        <v>1001</v>
+        <v>11001</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>2002</v>
+        <v>1001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>4</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:26">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
-        <v>1002</v>
+        <v>11002</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>3002</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>279</v>
+        <v>1002</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>280</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:9">
+      <c r="C8" s="1">
+        <v>11003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:9">
+      <c r="C9" s="1">
+        <v>11004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:9">
+      <c r="C10" s="1">
+        <v>11005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:9">
+      <c r="C11" s="1">
+        <v>11006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:9">
+      <c r="C12" s="1">
+        <v>11007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:9">
+      <c r="C13" s="1">
+        <v>11008</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:9">
+      <c r="C14" s="1">
+        <v>11009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:9">
+      <c r="C15" s="1">
+        <v>11010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:9">
+      <c r="C16" s="1">
+        <v>11011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:9">
+      <c r="C18" s="1">
+        <v>12001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:9">
+      <c r="C19" s="1">
+        <v>12002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:9">
+      <c r="C20" s="1">
+        <v>12003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:9">
+      <c r="C21" s="1">
+        <v>12004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2004</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:9">
+      <c r="C22" s="1">
+        <v>12005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:9">
+      <c r="C23" s="1">
+        <v>12006</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2006</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:9">
+      <c r="C24" s="1">
+        <v>12007</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2007</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:9">
+      <c r="C25" s="1">
+        <v>12008</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:9">
+      <c r="C26" s="1">
+        <v>12009</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2009</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:9">
+      <c r="C27" s="1">
+        <v>12010</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:9">
+      <c r="C28" s="1">
+        <v>12011</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:9">
+      <c r="C30" s="1">
+        <v>13001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3001</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:9">
+      <c r="C31" s="1">
+        <v>13002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3002</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:9">
+      <c r="C32" s="1">
+        <v>13003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3003</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:9">
+      <c r="C33" s="1">
+        <v>13004</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3004</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:9">
+      <c r="C34" s="1">
+        <v>13005</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3005</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:9">
+      <c r="C35" s="1">
+        <v>13006</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3006</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:9">
+      <c r="C36" s="1">
+        <v>13007</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3007</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="1">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:9">
+      <c r="C37" s="1">
+        <v>13008</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3008</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:9">
+      <c r="C38" s="1">
+        <v>13009</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3009</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:9">
+      <c r="C39" s="1">
+        <v>13010</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3010</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:9">
+      <c r="C40" s="1">
+        <v>13011</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3011</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H40" s="1">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 D4 D5 C3:C5 G3:G5 H3:H5 I3:I5 E3:F5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:H5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="314">
   <si>
     <t>_ID</t>
   </si>
@@ -1177,6 +1177,9 @@
   </si>
   <si>
     <t>PercentRate</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>基础剑术·系数倍率</t>
@@ -10411,10 +10414,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:R40"/>
+  <dimension ref="A3:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -10529,7 +10532,13 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C6" s="1">
         <v>11001</v>
       </c>
@@ -10540,10 +10549,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
@@ -10558,7 +10567,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C7" s="1">
         <v>11002</v>
       </c>
@@ -10569,10 +10584,10 @@
         <v>1002</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H7" s="1">
         <v>10</v>
@@ -10587,7 +10602,13 @@
       <c r="N7" s="1"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" customHeight="1" spans="3:9">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C8" s="1">
         <v>11003</v>
       </c>
@@ -10598,10 +10619,10 @@
         <v>1003</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H8" s="1">
         <v>10</v>
@@ -10610,7 +10631,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:9">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C9" s="1">
         <v>11004</v>
       </c>
@@ -10621,10 +10648,10 @@
         <v>1004</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
@@ -10633,7 +10660,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:9">
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C10" s="1">
         <v>11005</v>
       </c>
@@ -10644,10 +10677,10 @@
         <v>1005</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -10656,7 +10689,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:9">
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C11" s="1">
         <v>11006</v>
       </c>
@@ -10667,10 +10706,10 @@
         <v>1006</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H11" s="1">
         <v>10</v>
@@ -10679,7 +10718,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:9">
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C12" s="1">
         <v>11007</v>
       </c>
@@ -10690,10 +10735,10 @@
         <v>1007</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -10702,7 +10747,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:9">
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C13" s="1">
         <v>11008</v>
       </c>
@@ -10713,10 +10764,10 @@
         <v>1008</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -10725,7 +10776,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:9">
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C14" s="1">
         <v>11009</v>
       </c>
@@ -10736,10 +10793,10 @@
         <v>1009</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H14" s="1">
         <v>10</v>
@@ -10748,7 +10805,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:9">
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C15" s="1">
         <v>11010</v>
       </c>
@@ -10759,10 +10822,10 @@
         <v>1010</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H15" s="1">
         <v>10</v>
@@ -10771,7 +10834,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:9">
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C16" s="1">
         <v>11011</v>
       </c>
@@ -10782,10 +10851,10 @@
         <v>1011</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H16" s="1">
         <v>10</v>
@@ -10794,7 +10863,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:9">
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C18" s="1">
         <v>12001</v>
       </c>
@@ -10805,10 +10888,10 @@
         <v>2001</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H18" s="1">
         <v>10</v>
@@ -10817,7 +10900,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:9">
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C19" s="1">
         <v>12002</v>
       </c>
@@ -10828,10 +10917,10 @@
         <v>2002</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H19" s="1">
         <v>10</v>
@@ -10840,7 +10929,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:9">
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C20" s="1">
         <v>12003</v>
       </c>
@@ -10851,10 +10946,10 @@
         <v>2003</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H20" s="1">
         <v>10</v>
@@ -10863,7 +10958,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:9">
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C21" s="1">
         <v>12004</v>
       </c>
@@ -10874,10 +10975,10 @@
         <v>2004</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H21" s="1">
         <v>10</v>
@@ -10886,7 +10987,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:9">
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C22" s="1">
         <v>12005</v>
       </c>
@@ -10897,10 +11004,10 @@
         <v>2005</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H22" s="1">
         <v>10</v>
@@ -10909,7 +11016,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:9">
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C23" s="1">
         <v>12006</v>
       </c>
@@ -10920,10 +11033,10 @@
         <v>2006</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H23" s="1">
         <v>10</v>
@@ -10932,7 +11045,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:9">
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C24" s="1">
         <v>12007</v>
       </c>
@@ -10943,10 +11062,10 @@
         <v>2007</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H24" s="1">
         <v>10</v>
@@ -10955,7 +11074,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:9">
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C25" s="1">
         <v>12008</v>
       </c>
@@ -10966,10 +11091,10 @@
         <v>2008</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H25" s="1">
         <v>10</v>
@@ -10978,7 +11103,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:9">
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C26" s="1">
         <v>12009</v>
       </c>
@@ -10989,10 +11120,10 @@
         <v>2009</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H26" s="1">
         <v>10</v>
@@ -11001,7 +11132,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:9">
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C27" s="1">
         <v>12010</v>
       </c>
@@ -11012,10 +11149,10 @@
         <v>2010</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H27" s="1">
         <v>10</v>
@@ -11024,7 +11161,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:9">
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C28" s="1">
         <v>12011</v>
       </c>
@@ -11035,10 +11178,10 @@
         <v>2011</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H28" s="1">
         <v>10</v>
@@ -11047,7 +11190,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:9">
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C30" s="1">
         <v>13001</v>
       </c>
@@ -11058,10 +11215,10 @@
         <v>3001</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H30" s="1">
         <v>10</v>
@@ -11070,7 +11227,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="3:9">
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C31" s="1">
         <v>13002</v>
       </c>
@@ -11081,10 +11244,10 @@
         <v>3002</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H31" s="1">
         <v>10</v>
@@ -11093,7 +11256,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="3:9">
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C32" s="1">
         <v>13003</v>
       </c>
@@ -11104,10 +11273,10 @@
         <v>3003</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H32" s="1">
         <v>10</v>
@@ -11116,7 +11285,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:9">
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C33" s="1">
         <v>13004</v>
       </c>
@@ -11127,10 +11302,10 @@
         <v>3004</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H33" s="1">
         <v>10</v>
@@ -11139,7 +11314,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:9">
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C34" s="1">
         <v>13005</v>
       </c>
@@ -11150,10 +11331,10 @@
         <v>3005</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H34" s="1">
         <v>10</v>
@@ -11162,7 +11343,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:9">
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C35" s="1">
         <v>13006</v>
       </c>
@@ -11173,10 +11360,10 @@
         <v>3006</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H35" s="1">
         <v>10</v>
@@ -11185,7 +11372,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:9">
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C36" s="1">
         <v>13007</v>
       </c>
@@ -11196,10 +11389,10 @@
         <v>3007</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H36" s="1">
         <v>10</v>
@@ -11208,7 +11401,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:9">
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C37" s="1">
         <v>13008</v>
       </c>
@@ -11219,10 +11418,10 @@
         <v>3008</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H37" s="1">
         <v>10</v>
@@ -11231,7 +11430,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:9">
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C38" s="1">
         <v>13009</v>
       </c>
@@ -11242,10 +11447,10 @@
         <v>3009</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H38" s="1">
         <v>10</v>
@@ -11254,7 +11459,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:9">
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C39" s="1">
         <v>13010</v>
       </c>
@@ -11265,10 +11476,10 @@
         <v>3010</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H39" s="1">
         <v>10</v>
@@ -11277,7 +11488,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="3:9">
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C40" s="1">
         <v>13011</v>
       </c>
@@ -11288,10 +11505,10 @@
         <v>3011</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H40" s="1">
         <v>10</v>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="批量配置" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="317">
   <si>
     <t>_ID</t>
   </si>
@@ -1179,6 +1179,12 @@
     <t>火符·易伤</t>
   </si>
   <si>
+    <t>此技能ID</t>
+  </si>
+  <si>
+    <t>此技能描述</t>
+  </si>
+  <si>
     <t>系数倍率</t>
   </si>
   <si>
@@ -1188,7 +1194,7 @@
     <t>基础剑术·精通</t>
   </si>
   <si>
-    <t>提高技能系数10%倍率</t>
+    <t>提高此技能系数10%倍率</t>
   </si>
   <si>
     <t>刺杀剑术·精通</t>
@@ -1469,12 +1475,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2272,7 +2278,7 @@
   <sheetPr/>
   <dimension ref="C3:AB80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
@@ -8539,7 +8545,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4 F5 C3:E5 G3:K5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:K5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -11064,7 +11070,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4 F5 C3:E5 G3:K5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:K5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -11079,8 +11085,8 @@
   <sheetPr/>
   <dimension ref="C3:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -11115,19 +11121,19 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>4</v>
+        <v>279</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -11165,7 +11171,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -11232,10 +11238,10 @@
         <v>1001</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J6" s="1">
         <v>10</v>
@@ -11262,10 +11268,10 @@
         <v>1002</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J7" s="1">
         <v>10</v>
@@ -11292,10 +11298,10 @@
         <v>1003</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="J8" s="1">
         <v>10</v>
@@ -11321,10 +11327,10 @@
         <v>1004</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J9" s="1">
         <v>10</v>
@@ -11350,13 +11356,13 @@
         <v>1005</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
@@ -11379,13 +11385,13 @@
         <v>1006</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K11" s="1">
         <v>10</v>
@@ -11408,13 +11414,13 @@
         <v>1007</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
@@ -11437,13 +11443,13 @@
         <v>1008</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J13" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K13" s="1">
         <v>10</v>
@@ -11466,13 +11472,13 @@
         <v>1009</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J14" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
@@ -11483,7 +11489,7 @@
         <v>11010</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -11495,13 +11501,13 @@
         <v>1010</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J15" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K15" s="1">
         <v>10</v>
@@ -11524,13 +11530,13 @@
         <v>1011</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J16" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -11553,10 +11559,10 @@
         <v>2001</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J18" s="1">
         <v>10</v>
@@ -11582,10 +11588,10 @@
         <v>2002</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J19" s="1">
         <v>10</v>
@@ -11611,10 +11617,10 @@
         <v>2003</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J20" s="1">
         <v>10</v>
@@ -11640,10 +11646,10 @@
         <v>2004</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J21" s="1">
         <v>10</v>
@@ -11669,13 +11675,13 @@
         <v>2005</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J22" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1">
         <v>10</v>
@@ -11698,13 +11704,13 @@
         <v>2006</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J23" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K23" s="1">
         <v>10</v>
@@ -11727,13 +11733,13 @@
         <v>2007</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J24" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K24" s="1">
         <v>10</v>
@@ -11756,13 +11762,13 @@
         <v>2008</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J25" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K25" s="1">
         <v>10</v>
@@ -11785,13 +11791,13 @@
         <v>2009</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J26" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K26" s="1">
         <v>10</v>
@@ -11802,7 +11808,7 @@
         <v>12010</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
@@ -11814,13 +11820,13 @@
         <v>2010</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J27" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K27" s="1">
         <v>10</v>
@@ -11843,13 +11849,13 @@
         <v>2011</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J28" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K28" s="1">
         <v>10</v>
@@ -11872,10 +11878,10 @@
         <v>3001</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J30" s="1">
         <v>10</v>
@@ -11901,10 +11907,10 @@
         <v>3002</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J31" s="1">
         <v>10</v>
@@ -11930,10 +11936,10 @@
         <v>3003</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J32" s="1">
         <v>10</v>
@@ -11959,10 +11965,10 @@
         <v>3004</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J33" s="1">
         <v>10</v>
@@ -11988,13 +11994,13 @@
         <v>3005</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J34" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K34" s="1">
         <v>10</v>
@@ -12017,13 +12023,13 @@
         <v>3006</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J35" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K35" s="1">
         <v>10</v>
@@ -12046,13 +12052,13 @@
         <v>3007</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J36" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K36" s="1">
         <v>10</v>
@@ -12075,13 +12081,13 @@
         <v>3008</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J37" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K37" s="1">
         <v>10</v>
@@ -12104,13 +12110,13 @@
         <v>3009</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J38" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K38" s="1">
         <v>10</v>
@@ -12121,7 +12127,7 @@
         <v>13010</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
@@ -12133,13 +12139,13 @@
         <v>3010</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J39" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K39" s="1">
         <v>10</v>
@@ -12162,13 +12168,13 @@
         <v>3011</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J40" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K40" s="1">
         <v>10</v>
@@ -12176,7 +12182,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 F4 F5 C3:E5 G3:J5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:J5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SkillRuneConfig.xlsx
+++ b/Excel/SkillRuneConfig.xlsx
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="318">
   <si>
     <t>_ID</t>
   </si>
@@ -1222,6 +1222,9 @@
   </si>
   <si>
     <t>彻地钉·精通</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>战士之魂·精通</t>
@@ -1475,12 +1478,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -8562,7 +8565,7 @@
   <dimension ref="C3:AB34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F34"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -11083,10 +11086,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:T40"/>
+  <dimension ref="A3:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -11513,7 +11516,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:11">
+    <row r="16" customHeight="1" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="C16" s="1">
         <v>11011</v>
       </c>
@@ -11530,7 +11539,7 @@
         <v>1011</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>284</v>
@@ -11559,7 +11568,7 @@
         <v>2001</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>284</v>
@@ -11588,7 +11597,7 @@
         <v>2002</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>284</v>
@@ -11617,7 +11626,7 @@
         <v>2003</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>284</v>
@@ -11646,7 +11655,7 @@
         <v>2004</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>284</v>
@@ -11675,7 +11684,7 @@
         <v>2005</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>284</v>
@@ -11704,7 +11713,7 @@
         <v>2006</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>284</v>
@@ -11733,7 +11742,7 @@
         <v>2007</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>284</v>
@@ -11762,7 +11771,7 @@
         <v>2008</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>284</v>
@@ -11791,7 +11800,7 @@
         <v>2009</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>284</v>
@@ -11820,7 +11829,7 @@
         <v>2010</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>284</v>
@@ -11832,7 +11841,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:11">
+    <row r="28" customHeight="1" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="C28" s="1">
         <v>12011</v>
       </c>
@@ -11849,7 +11864,7 @@
         <v>2011</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>284</v>
@@ -11878,7 +11893,7 @@
         <v>3001</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>284</v>
@@ -11907,7 +11922,7 @@
         <v>3002</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>284</v>
@@ -11936,7 +11951,7 @@
         <v>3003</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>284</v>
@@ -11965,7 +11980,7 @@
         <v>3004</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>284</v>
@@ -11994,7 +12009,7 @@
         <v>3005</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>284</v>
@@ -12023,7 +12038,7 @@
         <v>3006</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>284</v>
@@ -12052,7 +12067,7 @@
         <v>3007</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>284</v>
@@ -12081,7 +12096,7 @@
         <v>3008</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>284</v>
@@ -12110,7 +12125,7 @@
         <v>3009</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>284</v>
@@ -12139,7 +12154,7 @@
         <v>3010</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>284</v>
@@ -12151,7 +12166,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="3:11">
+    <row r="40" customHeight="1" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="C40" s="1">
         <v>13011</v>
       </c>
@@ -12168,7 +12189,7 @@
         <v>3011</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>284</v>
